--- a/news_ann/news/tmp/300382.xlsx
+++ b/news_ann/news/tmp/300382.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>99</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还668.7万元，融资余额1.45亿元（11-18）</t>
+          <t>斯莱克：融资净买入191.22万元，融资余额1.47亿元（11-21）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-21 08:48</t>
+          <t>11-22 08:51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300382,1248872007.html</t>
+          <t>/news,300382,1249356633.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>134</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,61 +499,61 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净买入6124.72万元，居专用设备板块第二</t>
+          <t>斯莱克11月21日获深股通增持76.7万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-20 15:07</t>
+          <t>11-22 07:58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300382,1248769569.html</t>
+          <t>/news,300382,1249349790.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>斯莱克：本周深股通持股量环比减少1%，周内减仓幅度居专用设备板块第十</t>
+          <t>注意！斯莱克将于12月7日召开股东大会</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-21 18:20</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300382,1248763223.html</t>
+          <t>/news,300382,1249216961.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>斯莱克11月18日获深股通增持50.5万股</t>
+          <t>斯莱克：融资净偿还668.7万元，融资余额1.45亿元（11-18）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-19 07:54</t>
+          <t>11-21 08:48</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300382,1248638940.html</t>
+          <t>/news,300382,1248872007.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>斯莱克：连续4日融资净买入累计6124.72万元（11-17）</t>
+          <t>斯莱克本周融资净买入6124.72万元，居专用设备板块第二</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-18 08:43</t>
+          <t>11-20 15:07</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300382,1248161350.html</t>
+          <t>/news,300382,1248769569.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,39 +627,39 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>斯莱克11月17日被深股通减持24.25万股</t>
+          <t>斯莱克：本周深股通持股量环比减少1%，周内减仓幅度居专用设备板块第十</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-18 07:49</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300382,1248153008.html</t>
+          <t>/news,300382,1248763223.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1725</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>控股股东折价抛售5%股份 下调股权激励业绩考核指标 斯莱克怎么了？</t>
+          <t>斯莱克11月18日获深股通增持50.5万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-17 22:48</t>
+          <t>11-19 07:54</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300382,1248111014.html</t>
+          <t>/news,300382,1248638940.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：控股股东拟向晨道锦信转让5%股份，看好电池壳业务加速落地</t>
+          <t>斯莱克：连续4日融资净买入累计6124.72万元（11-17）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-17 10:56</t>
+          <t>11-18 08:43</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300382,1247820995.html</t>
+          <t>/news,300382,1248161350.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,39 +723,39 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
+          <t>斯莱克11月17日被深股通减持24.25万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-17 10:45</t>
+          <t>11-18 07:49</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300382,1247807581.html</t>
+          <t>/news,300382,1248153008.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>1763</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>斯莱克：连续3日融资净买入累计4749.52万元（11-16）</t>
+          <t>控股股东折价抛售5%股份 下调股权激励业绩考核指标 斯莱克怎么了？</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-17 08:48</t>
+          <t>11-17 22:48</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300382,1247676677.html</t>
+          <t>/news,300382,1248111014.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>689</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>斯莱克11月16日被深股通减持63.42万股</t>
+          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：控股股东拟向晨道锦信转让5%股份，看好电池壳业务加速落地</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-17 08:01</t>
+          <t>11-17 10:56</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300382,1247669685.html</t>
+          <t>/news,300382,1247820995.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>807</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,29 +819,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东拟5.81亿元向晨道锦信转让5%公司股份</t>
+          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-16 21:18</t>
+          <t>11-17 10:45</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300382,1247594293.html</t>
+          <t>/news,300382,1247807581.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>638</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东拟协议转让公司5%股份</t>
+          <t>斯莱克：连续3日融资净买入累计4749.52万元（11-16）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-16 21:02</t>
+          <t>11-17 08:48</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300382,1247589078.html</t>
+          <t>/news,300382,1247676677.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>642</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东科莱思拟协议转让3133万股</t>
+          <t>斯莱克11月16日被深股通减持63.42万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-16 20:50</t>
+          <t>11-17 08:01</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300382,1247591995.html</t>
+          <t>/news,300382,1247669685.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2981</t>
+          <t>812</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东拟5.81亿元转让5%股份</t>
+          <t>斯莱克：控股股东拟5.81亿元向晨道锦信转让5%公司股份</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-16 20:45</t>
+          <t>11-16 21:18</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300382,1247583219.html</t>
+          <t>/news,300382,1247594293.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入1028.39万元，融资余额1.16亿元（11-15）</t>
+          <t>斯莱克：控股股东拟协议转让公司5%股份</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-16 08:50</t>
+          <t>11-16 21:02</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300382,1247184024.html</t>
+          <t>/news,300382,1247589078.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>646</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>斯莱克11月15日被深股通减持25.26万股</t>
+          <t>斯莱克：控股股东科莱思拟协议转让3133万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-16 07:59</t>
+          <t>11-16 20:50</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300382,1247176952.html</t>
+          <t>/news,300382,1247591995.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>2983</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>斯莱克收关注函 要求说明临近期末调整当年业绩考核指标是否向特定对象输送利益</t>
+          <t>斯莱克：控股股东拟5.81亿元转让5%股份</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-15 20:44</t>
+          <t>11-16 20:45</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300382,1247110064.html</t>
+          <t>/news,300382,1247583219.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1607</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>深交所向斯莱克发出关注函</t>
+          <t>斯莱克：融资净买入1028.39万元，融资余额1.16亿元（11-15）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-15 20:16</t>
+          <t>11-16 08:50</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300382,1247102130.html</t>
+          <t>/news,300382,1247184024.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>642</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：调整员工持股计划考核目标，看好新能源电池壳业务加速落地</t>
+          <t>斯莱克11月15日被深股通减持25.26万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,61 +1085,61 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-15 16:04</t>
+          <t>11-16 07:59</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300382,1247040814.html</t>
+          <t>/news,300382,1247176952.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>900</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
+          <t>斯莱克收关注函 要求说明临近期末调整当年业绩考核指标是否向特定对象输送利益</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-15 15:54</t>
+          <t>11-15 20:44</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300382,1247037923.html</t>
+          <t>/news,300382,1247110064.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>1610</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入1556.23万元，融资余额1.06亿元（11-14）</t>
+          <t>深交所向斯莱克发出关注函</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-15 08:53</t>
+          <t>11-15 20:16</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300382,1246699049.html</t>
+          <t>/news,300382,1247102130.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>648</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>斯莱克11月14日获深股通增持45.4万股</t>
+          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：调整员工持股计划考核目标，看好新能源电池壳业务加速落地</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,51 +1181,51 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-15 07:57</t>
+          <t>11-15 16:04</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300382,1246691587.html</t>
+          <t>/news,300382,1247040814.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还102.38万元，融资余额9017.04万元（11-11）</t>
+          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-14 08:50</t>
+          <t>11-15 15:54</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300382,1246196749.html</t>
+          <t>/news,300382,1247037923.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,71 +1235,71 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净买入2091.21万元，居专用设备板块第十七</t>
+          <t>斯莱克：融资净买入1556.23万元，融资余额1.06亿元（11-14）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-13 15:10</t>
+          <t>11-15 08:53</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300382,1246100709.html</t>
+          <t>/news,300382,1246699049.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>斯莱克本周深股通持股市值增加1942.17万元，居专用设备板块第七</t>
+          <t>斯莱克11月14日获深股通增持45.4万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-15 07:57</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300382,1246093817.html</t>
+          <t>/news,300382,1246691587.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>斯莱克11月11日获深股通增持120.46万股</t>
+          <t>斯莱克：融资净偿还102.38万元，融资余额9017.04万元（11-11）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,51 +1309,51 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-12 07:54</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300382,1245987393.html</t>
+          <t>/news,300382,1246196749.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1441</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>加码新能源汽车电池壳项目 斯莱克：易拉罐和电池壳工艺有异曲同工处 公司具技术优势</t>
+          <t>斯莱克本周融资净买入2091.21万元，居专用设备板块第十七</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-11 15:00</t>
+          <t>11-13 15:10</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300382,1245833693.html</t>
+          <t>/news,300382,1246100709.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,39 +1363,39 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还68.91万元，融资余额9119.42万元（11-10）</t>
+          <t>斯莱克本周深股通持股市值增加1942.17万元，居专用设备板块第七</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-11 08:49</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300382,1245424379.html</t>
+          <t>/news,300382,1246093817.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>431</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>斯莱克11月10日被深股通减持2.42万股</t>
+          <t>斯莱克11月11日获深股通增持120.46万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-11 07:49</t>
+          <t>11-12 07:54</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300382,1245412490.html</t>
+          <t>/news,300382,1245987393.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>1445</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入488.67万元，融资余额9188.33万元（11-09）</t>
+          <t>加码新能源汽车电池壳项目 斯莱克：易拉罐和电池壳工艺有异曲同工处 公司具技术优势</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-10 08:51</t>
+          <t>11-11 15:00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300382,1244900382.html</t>
+          <t>/news,300382,1245833693.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>斯莱克11月09日被深股通减持9.95万股</t>
+          <t>斯莱克：融资净偿还68.91万元，融资余额9119.42万元（11-10）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-11 08:49</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300382,1244892113.html</t>
+          <t>/news,300382,1245424379.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入674.73万元，融资余额8699.65万元（11-08）</t>
+          <t>斯莱克11月10日被深股通减持2.42万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-09 08:52</t>
+          <t>11-11 07:49</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300382,1244437165.html</t>
+          <t>/news,300382,1245412490.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>斯莱克11月08日获深股通增持2.68万股</t>
+          <t>斯莱克：融资净买入488.67万元，融资余额9188.33万元（11-09）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-09 07:49</t>
+          <t>11-10 08:51</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300382,1244427946.html</t>
+          <t>/news,300382,1244900382.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入996.71万元，融资余额8024.93万元（11-07）</t>
+          <t>斯莱克11月09日被深股通减持9.95万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-08 08:52</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300382,1243983604.html</t>
+          <t>/news,300382,1244892113.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>斯莱克11月07日被深股通减持33.94万股</t>
+          <t>斯莱克：融资净买入674.73万元，融资余额8699.65万元（11-08）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-08 07:49</t>
+          <t>11-09 08:52</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300382,1243974416.html</t>
+          <t>/news,300382,1244437165.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入918.29万元，融资余额7028.21万元（11-04）</t>
+          <t>斯莱克11月08日获深股通增持2.68万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-07 08:58</t>
+          <t>11-09 07:49</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300382,1243515209.html</t>
+          <t>/news,300382,1244427946.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,29 +1651,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净买入1565.08万元，居专用设备板块第十八</t>
+          <t>斯莱克：融资净买入996.71万元，融资余额8024.93万元（11-07）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-06 15:05</t>
+          <t>11-08 08:52</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300382,1243409921.html</t>
+          <t>/news,300382,1243983604.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>斯莱克本周深股通持股市值减少1557.85万元，居专用设备板块第七</t>
+          <t>斯莱克11月07日被深股通减持33.94万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-06 14:05</t>
+          <t>11-08 07:49</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300382,1243404625.html</t>
+          <t>/news,300382,1243974416.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>斯莱克11月04日被深股通减持35.58万股</t>
+          <t>斯莱克：融资净买入918.29万元，融资余额7028.21万元（11-04）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-05 07:45</t>
+          <t>11-07 08:58</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300382,1243318004.html</t>
+          <t>/news,300382,1243515209.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,29 +1747,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入558.01万元，融资余额6109.92万元（11-03）</t>
+          <t>斯莱克本周融资净买入1565.08万元，居专用设备板块第十八</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-04 09:00</t>
+          <t>11-06 15:05</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300382,1242828429.html</t>
+          <t>/news,300382,1243409921.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,29 +1779,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>斯莱克11月03日获深股通增持53.19万股</t>
+          <t>斯莱克本周深股通持股市值减少1557.85万元，居专用设备板块第七</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-04 07:54</t>
+          <t>11-06 14:05</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300382,1242818302.html</t>
+          <t>/news,300382,1243404625.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入686.53万元，融资余额5551.92万元（11-02）</t>
+          <t>斯莱克11月04日被深股通减持35.58万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-03 08:52</t>
+          <t>11-05 07:45</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300382,1242334266.html</t>
+          <t>/news,300382,1243318004.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>斯莱克11月02日被深股通减持21.91万股</t>
+          <t>斯莱克：融资净买入558.01万元，融资余额6109.92万元（11-03）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-03 07:49</t>
+          <t>11-04 09:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300382,1242324928.html</t>
+          <t>/news,300382,1242828429.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>斯莱克：科莱思有限公司累计质押股数为1350万股</t>
+          <t>斯莱克11月03日获深股通增持53.19万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-02 19:32</t>
+          <t>11-04 07:54</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300382,1242226513.html</t>
+          <t>/news,300382,1242818302.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入99.48万元，融资余额4865.39万元（11-01）</t>
+          <t>斯莱克：融资净买入686.53万元，融资余额5551.92万元（11-02）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-02 08:52</t>
+          <t>11-03 08:52</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300382,1241809605.html</t>
+          <t>/news,300382,1242334266.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>斯莱克11月01日被深股通减持35.39万股</t>
+          <t>斯莱克11月02日被深股通减持21.91万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-02 08:00</t>
+          <t>11-03 07:49</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300382,1241802844.html</t>
+          <t>/news,300382,1242324928.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入221.06万元，融资余额4765.9万元（10-31）</t>
+          <t>斯莱克：科莱思有限公司累计质押股数为1350万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-01 09:04</t>
+          <t>11-02 19:32</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300382,1241307794.html</t>
+          <t>/news,300382,1242226513.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>斯莱克10月31日被深股通减持31.87万股</t>
+          <t>斯莱克：融资净买入99.48万元，融资余额4865.39万元（11-01）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-01 07:48</t>
+          <t>11-02 08:52</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300382,1241296259.html</t>
+          <t>/news,300382,1241809605.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入454.04万元，融资余额4544.84万元（10-28）</t>
+          <t>斯莱克11月01日被深股通减持35.39万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-31 09:02</t>
+          <t>11-02 08:00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300382,1240797967.html</t>
+          <t>/news,300382,1241802844.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,29 +2067,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净买入3170.49万元，居专用设备板块第八</t>
+          <t>斯莱克：融资净买入221.06万元，融资余额4765.9万元（10-31）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-30 15:16</t>
+          <t>11-01 09:04</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300382,1240714558.html</t>
+          <t>/news,300382,1241307794.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,29 +2099,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>斯莱克：本周深股通持股量环比增加10%，周内增仓幅度居专用设备板块第七</t>
+          <t>斯莱克10月31日被深股通减持31.87万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-30 14:07</t>
+          <t>11-01 07:48</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300382,1240707166.html</t>
+          <t>/news,300382,1241296259.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>斯莱克10月28日获深股通增持32.74万股</t>
+          <t>斯莱克：融资净买入454.04万元，融资余额4544.84万元（10-28）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,189 +2141,189 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-29 07:49</t>
+          <t>10-31 09:02</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300382,1240599824.html</t>
+          <t>/news,300382,1240797967.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>480</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>华泰证券维持斯莱克增持评级 目标价27.2元</t>
+          <t>斯莱克本周融资净买入3170.49万元，居专用设备板块第八</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-28 16:13</t>
+          <t>10-30 15:16</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300382,1240453038.html</t>
+          <t>/news,300382,1240714558.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>462</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>华金证券首次给予斯莱克增持评级 预计2022年净利润同比增长97.35%</t>
+          <t>斯莱克：本周深股通持股量环比增加10%，周内增仓幅度居专用设备板块第七</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-28 14:42</t>
+          <t>10-30 14:07</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300382,1240396907.html</t>
+          <t>/news,300382,1240707166.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>山西证券首次给予斯莱克买入评级 预计2022年净利润同比增长105.72%</t>
+          <t>斯莱克10月28日获深股通增持32.74万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-28 10:51</t>
+          <t>10-29 07:49</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300382,1240213656.html</t>
+          <t>/news,300382,1240599824.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>759</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入1865.26万元，融资余额4090.81万元（10-27）</t>
+          <t>华泰证券维持斯莱克增持评级 目标价27.2元</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-28 09:09</t>
+          <t>10-28 16:13</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300382,1240061552.html</t>
+          <t>/news,300382,1240453038.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>斯莱克10月27日获深股通增持19.16万股</t>
+          <t>华金证券首次给予斯莱克增持评级 预计2022年净利润同比增长97.35%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-28 07:54</t>
+          <t>10-28 14:42</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300382,1240048682.html</t>
+          <t>/news,300382,1240396907.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>国信证券维持斯莱克买入评级 预计2022年净利润同比增长122.48%</t>
+          <t>山西证券首次给予斯莱克买入评级 预计2022年净利润同比增长105.72%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-27 21:56</t>
+          <t>10-28 10:51</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300382,1239990020.html</t>
+          <t>/news,300382,1240213656.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>国信证券给予斯莱克买入评级 2022年三季报点评：前三季度业绩同比增长155% 新能源电池壳业务加速落地</t>
+          <t>斯莱克：融资净买入1865.26万元，融资余额4090.81万元（10-27）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-27 20:22</t>
+          <t>10-28 09:09</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300382,1239963058.html</t>
+          <t>/news,300382,1240061552.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,29 +2387,29 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>招商证券维持斯莱克强烈推荐评级 预计2022年净利润同比增长172.75%</t>
+          <t>斯莱克10月27日获深股通增持19.16万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-27 11:33</t>
+          <t>10-28 07:54</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300382,1239680819.html</t>
+          <t>/news,300382,1240048682.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,29 +2419,29 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入591.23万元，融资余额2225.55万元（10-26）</t>
+          <t>国信证券维持斯莱克买入评级 预计2022年净利润同比增长122.48%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-27 09:00</t>
+          <t>10-27 21:56</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300382,1239507987.html</t>
+          <t>/news,300382,1239990020.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>新能源电池壳开启第二增长曲线 斯莱克前三季度净利润增长154.7%</t>
+          <t>国信证券给予斯莱克买入评级 2022年三季报点评：前三季度业绩同比增长155% 新能源电池壳业务加速落地</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-26 18:42</t>
+          <t>10-27 20:22</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300382,1239384850.html</t>
+          <t>/news,300382,1239963058.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>国金证券维持斯莱克买入评级 预计2022年净利润同比增长109.45%</t>
+          <t>招商证券维持斯莱克强烈推荐评级 预计2022年净利润同比增长172.75%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-26 15:26</t>
+          <t>10-27 11:33</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300382,1239325106.html</t>
+          <t>/news,300382,1239680819.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,29 +2515,29 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长120.62%</t>
+          <t>斯莱克：融资净买入591.23万元，融资余额2225.55万元（10-26）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-26 11:13</t>
+          <t>10-27 09:00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300382,1239150791.html</t>
+          <t>/news,300382,1239507987.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入713.99万元，融资余额1634.31万元（10-25）</t>
+          <t>新能源电池壳开启第二增长曲线 斯莱克前三季度净利润增长154.7%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-26 09:02</t>
+          <t>10-26 18:42</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300382,1238981382.html</t>
+          <t>/news,300382,1239384850.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,29 +2579,29 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>【图解季报】斯莱克：2022年前三季度归母净利润同比大增154.7%，约为1.9亿元</t>
+          <t>国金证券维持斯莱克买入评级 预计2022年净利润同比增长109.45%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-26 08:00</t>
+          <t>10-26 15:26</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300382,1238970690.html</t>
+          <t>/news,300382,1239325106.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,29 +2611,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>斯莱克10月25日获深股通增持61.4万股</t>
+          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长120.62%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-26 07:49</t>
+          <t>10-26 11:13</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300382,1238968589.html</t>
+          <t>/news,300382,1239150791.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>斯莱克股东户数下降15.90%，户均持股84.12万元</t>
+          <t>斯莱克：融资净买入713.99万元，融资余额1634.31万元（10-25）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-25 22:10</t>
+          <t>10-26 09:02</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300382,1238909033.html</t>
+          <t>/news,300382,1238981382.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>斯莱克：2022年前三季度净利润约1.89亿元 同比增加154.7%</t>
+          <t>【图解季报】斯莱克：2022年前三季度归母净利润同比大增154.7%，约为1.9亿元</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-25 21:14</t>
+          <t>10-26 08:00</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300382,1238895042.html</t>
+          <t>/news,300382,1238970690.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>注意！斯莱克将于11月10日召开股东大会</t>
+          <t>斯莱克10月25日获深股通增持61.4万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,51 +2717,51 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-25 21:14</t>
+          <t>10-26 07:49</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300382,1238894935.html</t>
+          <t>/news,300382,1238968589.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>斯莱克：2022年前三季度净利润同比增长154.7%</t>
+          <t>斯莱克股东户数下降15.90%，户均持股84.12万元</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-25 21:10</t>
+          <t>10-25 22:10</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300382,1238891519.html</t>
+          <t>/news,300382,1238909033.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>斯莱克：纳入融资融券标的首日，融资买入966.02万元（10-24）</t>
+          <t>斯莱克：2022年前三季度净利润约1.89亿元 同比增加154.7%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-25 08:57</t>
+          <t>10-25 21:14</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300382,1238459372.html</t>
+          <t>/news,300382,1238895042.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>斯莱克10月24日被深股通减持25.72万股</t>
+          <t>注意！斯莱克将于11月10日召开股东大会</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,83 +2813,83 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-25 07:47</t>
+          <t>10-25 21:14</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300382,1238447545.html</t>
+          <t>/news,300382,1238894935.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>780</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：特斯拉大幅提升大圆柱产能规划，公司有望受益电池标准化进展</t>
+          <t>斯莱克：2022年前三季度净利润同比增长154.7%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-24 09:19</t>
+          <t>10-25 21:10</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300382,1237933054.html</t>
+          <t>/news,300382,1238891519.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长120.62%</t>
+          <t>斯莱克：纳入融资融券标的首日，融资买入966.02万元（10-24）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-24 09:05</t>
+          <t>10-25 08:57</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300382,1237925894.html</t>
+          <t>/news,300382,1238459372.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,39 +2899,39 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>斯莱克本周深股通持股市值减少1564.06万元，居专用设备板块第七</t>
+          <t>斯莱克10月24日被深股通减持25.72万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-25 07:47</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300382,1237859980.html</t>
+          <t>/news,300382,1238447545.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>501</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>斯莱克10月21日被深股通减持69.89万股</t>
+          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：特斯拉大幅提升大圆柱产能规划，公司有望受益电池标准化进展</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,51 +2941,51 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-22 07:50</t>
+          <t>10-24 09:19</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300382,1237797042.html</t>
+          <t>/news,300382,1237933054.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>斯莱克10月20日获深股通增持23.14万股</t>
+          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长120.62%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-21 07:56</t>
+          <t>10-24 09:05</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300382,1237349616.html</t>
+          <t>/news,300382,1237925894.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>500</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>斯莱克10月19日被深股通减持29.43万股</t>
+          <t>斯莱克本周深股通持股市值减少1564.06万元，居专用设备板块第七</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-20 07:47</t>
+          <t>10-23 14:05</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300382,1236888517.html</t>
+          <t>/news,300382,1237859980.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300382.xlsx
+++ b/news_ann/news/tmp/300382.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>118</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入191.22万元，融资余额1.47亿元（11-21）</t>
+          <t>斯莱克：融资净买入37.78万元，融资余额1.47亿元（11-22）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-22 08:51</t>
+          <t>11-23 08:55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300382,1249356633.html</t>
+          <t>/news,300382,1249885355.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>斯莱克11月21日获深股通增持76.7万股</t>
+          <t>斯莱克11月22日被深股通减持29.54万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-22 07:58</t>
+          <t>11-23 07:48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300382,1249349790.html</t>
+          <t>/news,300382,1249875173.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>注意！斯莱克将于12月7日召开股东大会</t>
+          <t>斯莱克：融资净买入191.22万元，融资余额1.47亿元（11-21）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-21 18:20</t>
+          <t>11-22 08:51</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300382,1249216961.html</t>
+          <t>/news,300382,1249356633.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还668.7万元，融资余额1.45亿元（11-18）</t>
+          <t>斯莱克11月21日获深股通增持76.7万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,51 +573,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-21 08:48</t>
+          <t>11-22 07:58</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300382,1248872007.html</t>
+          <t>/news,300382,1249349790.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净买入6124.72万元，居专用设备板块第二</t>
+          <t>注意！斯莱克将于12月7日召开股东大会</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-20 15:07</t>
+          <t>11-21 18:20</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300382,1248769569.html</t>
+          <t>/news,300382,1249216961.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>斯莱克：本周深股通持股量环比减少1%，周内减仓幅度居专用设备板块第十</t>
+          <t>斯莱克：融资净偿还668.7万元，融资余额1.45亿元（11-18）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-21 08:48</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300382,1248763223.html</t>
+          <t>/news,300382,1248872007.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,29 +659,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>斯莱克11月18日获深股通增持50.5万股</t>
+          <t>斯莱克本周融资净买入6124.72万元，居专用设备板块第二</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-19 07:54</t>
+          <t>11-20 15:07</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300382,1248638940.html</t>
+          <t>/news,300382,1248769569.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>斯莱克：连续4日融资净买入累计6124.72万元（11-17）</t>
+          <t>斯莱克：本周深股通持股量环比减少1%，周内减仓幅度居专用设备板块第十</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-18 08:43</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300382,1248161350.html</t>
+          <t>/news,300382,1248763223.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>斯莱克11月17日被深股通减持24.25万股</t>
+          <t>斯莱克11月18日获深股通增持50.5万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-18 07:49</t>
+          <t>11-19 07:54</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300382,1248153008.html</t>
+          <t>/news,300382,1248638940.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1763</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>控股股东折价抛售5%股份 下调股权激励业绩考核指标 斯莱克怎么了？</t>
+          <t>斯莱克：连续4日融资净买入累计6124.72万元（11-17）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-17 22:48</t>
+          <t>11-18 08:43</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300382,1248111014.html</t>
+          <t>/news,300382,1248161350.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>689</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：控股股东拟向晨道锦信转让5%股份，看好电池壳业务加速落地</t>
+          <t>斯莱克11月17日被深股通减持24.25万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,61 +797,61 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-17 10:56</t>
+          <t>11-18 07:49</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300382,1247820995.html</t>
+          <t>/news,300382,1248153008.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>1784</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
+          <t>控股股东折价抛售5%股份 下调股权激励业绩考核指标 斯莱克怎么了？</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-17 10:45</t>
+          <t>11-17 22:48</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300382,1247807581.html</t>
+          <t>/news,300382,1248111014.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>701</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>斯莱克：连续3日融资净买入累计4749.52万元（11-16）</t>
+          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：控股股东拟向晨道锦信转让5%股份，看好电池壳业务加速落地</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-17 08:48</t>
+          <t>11-17 10:56</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300382,1247676677.html</t>
+          <t>/news,300382,1247820995.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,29 +883,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>斯莱克11月16日被深股通减持63.42万股</t>
+          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-17 08:01</t>
+          <t>11-17 10:45</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300382,1247669685.html</t>
+          <t>/news,300382,1247807581.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东拟5.81亿元向晨道锦信转让5%公司股份</t>
+          <t>斯莱克：连续3日融资净买入累计4749.52万元（11-16）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-16 21:18</t>
+          <t>11-17 08:48</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300382,1247594293.html</t>
+          <t>/news,300382,1247676677.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东拟协议转让公司5%股份</t>
+          <t>斯莱克11月16日被深股通减持63.42万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-16 21:02</t>
+          <t>11-17 08:01</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300382,1247589078.html</t>
+          <t>/news,300382,1247669685.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>820</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东科莱思拟协议转让3133万股</t>
+          <t>斯莱克：控股股东拟5.81亿元向晨道锦信转让5%公司股份</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-16 20:50</t>
+          <t>11-16 21:18</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300382,1247591995.html</t>
+          <t>/news,300382,1247594293.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2983</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东拟5.81亿元转让5%股份</t>
+          <t>斯莱克：控股股东拟协议转让公司5%股份</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-16 20:45</t>
+          <t>11-16 21:02</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300382,1247583219.html</t>
+          <t>/news,300382,1247589078.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>650</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入1028.39万元，融资余额1.16亿元（11-15）</t>
+          <t>斯莱克：控股股东科莱思拟协议转让3133万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-16 08:50</t>
+          <t>11-16 20:50</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300382,1247184024.html</t>
+          <t>/news,300382,1247591995.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>2987</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>斯莱克11月15日被深股通减持25.26万股</t>
+          <t>斯莱克：控股股东拟5.81亿元转让5%股份</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-16 07:59</t>
+          <t>11-16 20:45</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300382,1247176952.html</t>
+          <t>/news,300382,1247583219.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>斯莱克收关注函 要求说明临近期末调整当年业绩考核指标是否向特定对象输送利益</t>
+          <t>斯莱克：融资净买入1028.39万元，融资余额1.16亿元（11-15）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-15 20:44</t>
+          <t>11-16 08:50</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300382,1247110064.html</t>
+          <t>/news,300382,1247184024.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1610</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>深交所向斯莱克发出关注函</t>
+          <t>斯莱克11月15日被深股通减持25.26万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-15 20:16</t>
+          <t>11-16 07:59</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300382,1247102130.html</t>
+          <t>/news,300382,1247176952.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>903</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：调整员工持股计划考核目标，看好新能源电池壳业务加速落地</t>
+          <t>斯莱克收关注函 要求说明临近期末调整当年业绩考核指标是否向特定对象输送利益</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,51 +1181,51 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-15 16:04</t>
+          <t>11-15 20:44</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300382,1247040814.html</t>
+          <t>/news,300382,1247110064.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>1614</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
+          <t>深交所向斯莱克发出关注函</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-15 15:54</t>
+          <t>11-15 20:16</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300382,1247037923.html</t>
+          <t>/news,300382,1247102130.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>651</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入1556.23万元，融资余额1.06亿元（11-14）</t>
+          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：调整员工持股计划考核目标，看好新能源电池壳业务加速落地</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,51 +1245,51 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-15 08:53</t>
+          <t>11-15 16:04</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300382,1246699049.html</t>
+          <t>/news,300382,1247040814.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>斯莱克11月14日获深股通增持45.4万股</t>
+          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-15 07:57</t>
+          <t>11-15 15:54</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300382,1246691587.html</t>
+          <t>/news,300382,1247037923.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还102.38万元，融资余额9017.04万元（11-11）</t>
+          <t>斯莱克：融资净买入1556.23万元，融资余额1.06亿元（11-14）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,51 +1309,51 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-14 08:50</t>
+          <t>11-15 08:53</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300382,1246196749.html</t>
+          <t>/news,300382,1246699049.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净买入2091.21万元，居专用设备板块第十七</t>
+          <t>斯莱克11月14日获深股通增持45.4万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-13 15:10</t>
+          <t>11-15 07:57</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300382,1246100709.html</t>
+          <t>/news,300382,1246691587.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,103 +1363,103 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>斯莱克本周深股通持股市值增加1942.17万元，居专用设备板块第七</t>
+          <t>斯莱克：融资净偿还102.38万元，融资余额9017.04万元（11-11）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300382,1246093817.html</t>
+          <t>/news,300382,1246196749.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>斯莱克11月11日获深股通增持120.46万股</t>
+          <t>斯莱克本周融资净买入2091.21万元，居专用设备板块第十七</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-12 07:54</t>
+          <t>11-13 15:10</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300382,1245987393.html</t>
+          <t>/news,300382,1246100709.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1445</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>加码新能源汽车电池壳项目 斯莱克：易拉罐和电池壳工艺有异曲同工处 公司具技术优势</t>
+          <t>斯莱克本周深股通持股市值增加1942.17万元，居专用设备板块第七</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-11 15:00</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300382,1245833693.html</t>
+          <t>/news,300382,1246093817.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还68.91万元，融资余额9119.42万元（11-10）</t>
+          <t>斯莱克11月11日获深股通增持120.46万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-11 08:49</t>
+          <t>11-12 07:54</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300382,1245424379.html</t>
+          <t>/news,300382,1245987393.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>1454</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>斯莱克11月10日被深股通减持2.42万股</t>
+          <t>加码新能源汽车电池壳项目 斯莱克：易拉罐和电池壳工艺有异曲同工处 公司具技术优势</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-11 07:49</t>
+          <t>11-11 15:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300382,1245412490.html</t>
+          <t>/news,300382,1245833693.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入488.67万元，融资余额9188.33万元（11-09）</t>
+          <t>斯莱克：融资净偿还68.91万元，融资余额9119.42万元（11-10）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-10 08:51</t>
+          <t>11-11 08:49</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300382,1244900382.html</t>
+          <t>/news,300382,1245424379.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>斯莱克11月09日被深股通减持9.95万股</t>
+          <t>斯莱克11月10日被深股通减持2.42万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-11 07:49</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300382,1244892113.html</t>
+          <t>/news,300382,1245412490.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入674.73万元，融资余额8699.65万元（11-08）</t>
+          <t>斯莱克：融资净买入488.67万元，融资余额9188.33万元（11-09）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-09 08:52</t>
+          <t>11-10 08:51</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300382,1244437165.html</t>
+          <t>/news,300382,1244900382.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>斯莱克11月08日获深股通增持2.68万股</t>
+          <t>斯莱克11月09日被深股通减持9.95万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-09 07:49</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300382,1244427946.html</t>
+          <t>/news,300382,1244892113.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入996.71万元，融资余额8024.93万元（11-07）</t>
+          <t>斯莱克：融资净买入674.73万元，融资余额8699.65万元（11-08）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-08 08:52</t>
+          <t>11-09 08:52</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300382,1243983604.html</t>
+          <t>/news,300382,1244437165.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>斯莱克11月07日被深股通减持33.94万股</t>
+          <t>斯莱克11月08日获深股通增持2.68万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-08 07:49</t>
+          <t>11-09 07:49</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300382,1243974416.html</t>
+          <t>/news,300382,1244427946.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入918.29万元，融资余额7028.21万元（11-04）</t>
+          <t>斯莱克：融资净买入996.71万元，融资余额8024.93万元（11-07）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-07 08:58</t>
+          <t>11-08 08:52</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300382,1243515209.html</t>
+          <t>/news,300382,1243983604.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,29 +1747,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净买入1565.08万元，居专用设备板块第十八</t>
+          <t>斯莱克11月07日被深股通减持33.94万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-06 15:05</t>
+          <t>11-08 07:49</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300382,1243409921.html</t>
+          <t>/news,300382,1243974416.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,29 +1779,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>斯莱克本周深股通持股市值减少1557.85万元，居专用设备板块第七</t>
+          <t>斯莱克：融资净买入918.29万元，融资余额7028.21万元（11-04）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-06 14:05</t>
+          <t>11-07 08:58</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300382,1243404625.html</t>
+          <t>/news,300382,1243515209.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>斯莱克11月04日被深股通减持35.58万股</t>
+          <t>斯莱克本周融资净买入1565.08万元，居专用设备板块第十八</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-05 07:45</t>
+          <t>11-06 15:05</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300382,1243318004.html</t>
+          <t>/news,300382,1243409921.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入558.01万元，融资余额6109.92万元（11-03）</t>
+          <t>斯莱克本周深股通持股市值减少1557.85万元，居专用设备板块第七</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-04 09:00</t>
+          <t>11-06 14:05</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300382,1242828429.html</t>
+          <t>/news,300382,1243404625.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>斯莱克11月03日获深股通增持53.19万股</t>
+          <t>斯莱克11月04日被深股通减持35.58万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-04 07:54</t>
+          <t>11-05 07:45</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300382,1242818302.html</t>
+          <t>/news,300382,1243318004.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入686.53万元，融资余额5551.92万元（11-02）</t>
+          <t>斯莱克：融资净买入558.01万元，融资余额6109.92万元（11-03）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-03 08:52</t>
+          <t>11-04 09:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300382,1242334266.html</t>
+          <t>/news,300382,1242828429.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>斯莱克11月02日被深股通减持21.91万股</t>
+          <t>斯莱克11月03日获深股通增持53.19万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-03 07:49</t>
+          <t>11-04 07:54</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300382,1242324928.html</t>
+          <t>/news,300382,1242818302.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>斯莱克：科莱思有限公司累计质押股数为1350万股</t>
+          <t>斯莱克：融资净买入686.53万元，融资余额5551.92万元（11-02）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-02 19:32</t>
+          <t>11-03 08:52</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300382,1242226513.html</t>
+          <t>/news,300382,1242334266.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入99.48万元，融资余额4865.39万元（11-01）</t>
+          <t>斯莱克11月02日被深股通减持21.91万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-02 08:52</t>
+          <t>11-03 07:49</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300382,1241809605.html</t>
+          <t>/news,300382,1242324928.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>斯莱克11月01日被深股通减持35.39万股</t>
+          <t>斯莱克：科莱思有限公司累计质押股数为1350万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-02 08:00</t>
+          <t>11-02 19:32</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300382,1241802844.html</t>
+          <t>/news,300382,1242226513.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入221.06万元，融资余额4765.9万元（10-31）</t>
+          <t>斯莱克：融资净买入99.48万元，融资余额4865.39万元（11-01）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-01 09:04</t>
+          <t>11-02 08:52</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300382,1241307794.html</t>
+          <t>/news,300382,1241809605.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>斯莱克10月31日被深股通减持31.87万股</t>
+          <t>斯莱克11月01日被深股通减持35.39万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-01 07:48</t>
+          <t>11-02 08:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300382,1241296259.html</t>
+          <t>/news,300382,1241802844.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入454.04万元，融资余额4544.84万元（10-28）</t>
+          <t>斯莱克：融资净买入221.06万元，融资余额4765.9万元（10-31）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-31 09:02</t>
+          <t>11-01 09:04</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300382,1240797967.html</t>
+          <t>/news,300382,1241307794.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,29 +2163,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净买入3170.49万元，居专用设备板块第八</t>
+          <t>斯莱克10月31日被深股通减持31.87万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-30 15:16</t>
+          <t>11-01 07:48</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300382,1240714558.html</t>
+          <t>/news,300382,1241296259.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,29 +2195,29 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>斯莱克：本周深股通持股量环比增加10%，周内增仓幅度居专用设备板块第七</t>
+          <t>斯莱克：融资净买入454.04万元，融资余额4544.84万元（10-28）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-30 14:07</t>
+          <t>10-31 09:02</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300382,1240707166.html</t>
+          <t>/news,300382,1240797967.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>481</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,103 +2227,103 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>斯莱克10月28日获深股通增持32.74万股</t>
+          <t>斯莱克本周融资净买入3170.49万元，居专用设备板块第八</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-29 07:49</t>
+          <t>10-30 15:16</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300382,1240599824.html</t>
+          <t>/news,300382,1240714558.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>759</t>
+          <t>462</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>华泰证券维持斯莱克增持评级 目标价27.2元</t>
+          <t>斯莱克：本周深股通持股量环比增加10%，周内增仓幅度居专用设备板块第七</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-28 16:13</t>
+          <t>10-30 14:07</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300382,1240453038.html</t>
+          <t>/news,300382,1240707166.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>华金证券首次给予斯莱克增持评级 预计2022年净利润同比增长97.35%</t>
+          <t>斯莱克10月28日获深股通增持32.74万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-28 14:42</t>
+          <t>10-29 07:49</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300382,1240396907.html</t>
+          <t>/news,300382,1240599824.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>763</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>山西证券首次给予斯莱克买入评级 预计2022年净利润同比增长105.72%</t>
+          <t>华泰证券维持斯莱克增持评级 目标价27.2元</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,83 +2333,83 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-28 10:51</t>
+          <t>10-28 16:13</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300382,1240213656.html</t>
+          <t>/news,300382,1240453038.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入1865.26万元，融资余额4090.81万元（10-27）</t>
+          <t>华金证券首次给予斯莱克增持评级 预计2022年净利润同比增长97.35%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-28 09:09</t>
+          <t>10-28 14:42</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300382,1240061552.html</t>
+          <t>/news,300382,1240396907.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>斯莱克10月27日获深股通增持19.16万股</t>
+          <t>山西证券首次给予斯莱克买入评级 预计2022年净利润同比增长105.72%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-28 07:54</t>
+          <t>10-28 10:51</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300382,1240048682.html</t>
+          <t>/news,300382,1240213656.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,29 +2419,29 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>国信证券维持斯莱克买入评级 预计2022年净利润同比增长122.48%</t>
+          <t>斯莱克：融资净买入1865.26万元，融资余额4090.81万元（10-27）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-27 21:56</t>
+          <t>10-28 09:09</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300382,1239990020.html</t>
+          <t>/news,300382,1240061552.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>国信证券给予斯莱克买入评级 2022年三季报点评：前三季度业绩同比增长155% 新能源电池壳业务加速落地</t>
+          <t>斯莱克10月27日获深股通增持19.16万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-27 20:22</t>
+          <t>10-28 07:54</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300382,1239963058.html</t>
+          <t>/news,300382,1240048682.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>招商证券维持斯莱克强烈推荐评级 预计2022年净利润同比增长172.75%</t>
+          <t>国信证券维持斯莱克买入评级 预计2022年净利润同比增长122.48%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-27 11:33</t>
+          <t>10-27 21:56</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300382,1239680819.html</t>
+          <t>/news,300382,1239990020.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入591.23万元，融资余额2225.55万元（10-26）</t>
+          <t>国信证券给予斯莱克买入评级 2022年三季报点评：前三季度业绩同比增长155% 新能源电池壳业务加速落地</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-27 09:00</t>
+          <t>10-27 20:22</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300382,1239507987.html</t>
+          <t>/news,300382,1239963058.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,29 +2547,29 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>新能源电池壳开启第二增长曲线 斯莱克前三季度净利润增长154.7%</t>
+          <t>招商证券维持斯莱克强烈推荐评级 预计2022年净利润同比增长172.75%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-26 18:42</t>
+          <t>10-27 11:33</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300382,1239384850.html</t>
+          <t>/news,300382,1239680819.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,29 +2579,29 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>国金证券维持斯莱克买入评级 预计2022年净利润同比增长109.45%</t>
+          <t>斯莱克：融资净买入591.23万元，融资余额2225.55万元（10-26）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-26 15:26</t>
+          <t>10-27 09:00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300382,1239325106.html</t>
+          <t>/news,300382,1239507987.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,29 +2611,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长120.62%</t>
+          <t>新能源电池壳开启第二增长曲线 斯莱克前三季度净利润增长154.7%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-26 11:13</t>
+          <t>10-26 18:42</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300382,1239150791.html</t>
+          <t>/news,300382,1239384850.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,29 +2643,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入713.99万元，融资余额1634.31万元（10-25）</t>
+          <t>国金证券维持斯莱克买入评级 预计2022年净利润同比增长109.45%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-26 09:02</t>
+          <t>10-26 15:26</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300382,1238981382.html</t>
+          <t>/news,300382,1239325106.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>【图解季报】斯莱克：2022年前三季度归母净利润同比大增154.7%，约为1.9亿元</t>
+          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长120.62%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-26 08:00</t>
+          <t>10-26 11:13</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300382,1238970690.html</t>
+          <t>/news,300382,1239150791.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>斯莱克10月25日获深股通增持61.4万股</t>
+          <t>斯莱克：融资净买入713.99万元，融资余额1634.31万元（10-25）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-26 07:49</t>
+          <t>10-26 09:02</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300382,1238968589.html</t>
+          <t>/news,300382,1238981382.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>斯莱克股东户数下降15.90%，户均持股84.12万元</t>
+          <t>【图解季报】斯莱克：2022年前三季度归母净利润同比大增154.7%，约为1.9亿元</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-25 22:10</t>
+          <t>10-26 08:00</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300382,1238909033.html</t>
+          <t>/news,300382,1238970690.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>斯莱克：2022年前三季度净利润约1.89亿元 同比增加154.7%</t>
+          <t>斯莱克10月25日获深股通增持61.4万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-25 21:14</t>
+          <t>10-26 07:49</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300382,1238895042.html</t>
+          <t>/news,300382,1238968589.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>注意！斯莱克将于11月10日召开股东大会</t>
+          <t>斯莱克股东户数下降15.90%，户均持股84.12万元</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,51 +2813,51 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-25 21:14</t>
+          <t>10-25 22:10</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300382,1238894935.html</t>
+          <t>/news,300382,1238909033.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>780</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>斯莱克：2022年前三季度净利润同比增长154.7%</t>
+          <t>斯莱克：2022年前三季度净利润约1.89亿元 同比增加154.7%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-25 21:10</t>
+          <t>10-25 21:14</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300382,1238891519.html</t>
+          <t>/news,300382,1238895042.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>斯莱克：纳入融资融券标的首日，融资买入966.02万元（10-24）</t>
+          <t>注意！斯莱克将于11月10日召开股东大会</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,61 +2877,61 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-25 08:57</t>
+          <t>10-25 21:14</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300382,1238459372.html</t>
+          <t>/news,300382,1238894935.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>780</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>斯莱克10月24日被深股通减持25.72万股</t>
+          <t>斯莱克：2022年前三季度净利润同比增长154.7%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-25 07:47</t>
+          <t>10-25 21:10</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300382,1238447545.html</t>
+          <t>/news,300382,1238891519.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：特斯拉大幅提升大圆柱产能规划，公司有望受益电池标准化进展</t>
+          <t>斯莱克：纳入融资融券标的首日，融资买入966.02万元（10-24）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,76 +2941,76 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-24 09:19</t>
+          <t>10-25 08:57</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300382,1237933054.html</t>
+          <t>/news,300382,1238459372.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长120.62%</t>
+          <t>斯莱克10月24日被深股通减持25.72万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-24 09:05</t>
+          <t>10-25 07:47</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300382,1237925894.html</t>
+          <t>/news,300382,1238447545.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>502</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>斯莱克本周深股通持股市值减少1564.06万元，居专用设备板块第七</t>
+          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：特斯拉大幅提升大圆柱产能规划，公司有望受益电池标准化进展</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-24 09:19</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300382,1237859980.html</t>
+          <t>/news,300382,1237933054.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300382.xlsx
+++ b/news_ann/news/tmp/300382.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>114</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入37.78万元，融资余额1.47亿元（11-22）</t>
+          <t>斯莱克：融资净偿还239.73万元，融资余额1.45亿元（11-23）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-23 08:55</t>
+          <t>11-24 08:56</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300382,1249885355.html</t>
+          <t>/news,300382,1250430566.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>119</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>斯莱克11月22日被深股通减持29.54万股</t>
+          <t>斯莱克11月23日被深股通减持20.59万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-23 07:48</t>
+          <t>11-24 07:50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300382,1249875173.html</t>
+          <t>/news,300382,1250420176.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入191.22万元，融资余额1.47亿元（11-21）</t>
+          <t>斯莱克：融资净买入37.78万元，融资余额1.47亿元（11-22）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-22 08:51</t>
+          <t>11-23 08:55</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300382,1249356633.html</t>
+          <t>/news,300382,1249885355.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>斯莱克11月21日获深股通增持76.7万股</t>
+          <t>斯莱克11月22日被深股通减持29.54万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-22 07:58</t>
+          <t>11-23 07:48</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300382,1249349790.html</t>
+          <t>/news,300382,1249875173.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>注意！斯莱克将于12月7日召开股东大会</t>
+          <t>斯莱克：融资净买入191.22万元，融资余额1.47亿元（11-21）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-21 18:20</t>
+          <t>11-22 08:51</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300382,1249216961.html</t>
+          <t>/news,300382,1249356633.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还668.7万元，融资余额1.45亿元（11-18）</t>
+          <t>斯莱克11月21日获深股通增持76.7万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,51 +637,51 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-21 08:48</t>
+          <t>11-22 07:58</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300382,1248872007.html</t>
+          <t>/news,300382,1249349790.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净买入6124.72万元，居专用设备板块第二</t>
+          <t>注意！斯莱克将于12月7日召开股东大会</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-20 15:07</t>
+          <t>11-21 18:20</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300382,1248769569.html</t>
+          <t>/news,300382,1249216961.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>斯莱克：本周深股通持股量环比减少1%，周内减仓幅度居专用设备板块第十</t>
+          <t>斯莱克：融资净偿还668.7万元，融资余额1.45亿元（11-18）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-21 08:48</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300382,1248763223.html</t>
+          <t>/news,300382,1248872007.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>斯莱克11月18日获深股通增持50.5万股</t>
+          <t>斯莱克本周融资净买入6124.72万元，居专用设备板块第二</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-19 07:54</t>
+          <t>11-20 15:07</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300382,1248638940.html</t>
+          <t>/news,300382,1248769569.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>斯莱克：连续4日融资净买入累计6124.72万元（11-17）</t>
+          <t>斯莱克：本周深股通持股量环比减少1%，周内减仓幅度居专用设备板块第十</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-18 08:43</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300382,1248161350.html</t>
+          <t>/news,300382,1248763223.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>斯莱克11月17日被深股通减持24.25万股</t>
+          <t>斯莱克11月18日获深股通增持50.5万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-18 07:49</t>
+          <t>11-19 07:54</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300382,1248153008.html</t>
+          <t>/news,300382,1248638940.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1784</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>控股股东折价抛售5%股份 下调股权激励业绩考核指标 斯莱克怎么了？</t>
+          <t>斯莱克：连续4日融资净买入累计6124.72万元（11-17）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-17 22:48</t>
+          <t>11-18 08:43</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300382,1248111014.html</t>
+          <t>/news,300382,1248161350.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：控股股东拟向晨道锦信转让5%股份，看好电池壳业务加速落地</t>
+          <t>斯莱克11月17日被深股通减持24.25万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,61 +861,61 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-17 10:56</t>
+          <t>11-18 07:49</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300382,1247820995.html</t>
+          <t>/news,300382,1248153008.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>1797</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
+          <t>控股股东折价抛售5%股份 下调股权激励业绩考核指标 斯莱克怎么了？</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-17 10:45</t>
+          <t>11-17 22:48</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300382,1247807581.html</t>
+          <t>/news,300382,1248111014.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>705</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>斯莱克：连续3日融资净买入累计4749.52万元（11-16）</t>
+          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：控股股东拟向晨道锦信转让5%股份，看好电池壳业务加速落地</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-17 08:48</t>
+          <t>11-17 10:56</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300382,1247676677.html</t>
+          <t>/news,300382,1247820995.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,29 +947,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>斯莱克11月16日被深股通减持63.42万股</t>
+          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-17 08:01</t>
+          <t>11-17 10:45</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300382,1247669685.html</t>
+          <t>/news,300382,1247807581.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>820</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东拟5.81亿元向晨道锦信转让5%公司股份</t>
+          <t>斯莱克：连续3日融资净买入累计4749.52万元（11-16）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-16 21:18</t>
+          <t>11-17 08:48</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300382,1247594293.html</t>
+          <t>/news,300382,1247676677.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东拟协议转让公司5%股份</t>
+          <t>斯莱克11月16日被深股通减持63.42万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-16 21:02</t>
+          <t>11-17 08:01</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300382,1247589078.html</t>
+          <t>/news,300382,1247669685.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>823</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东科莱思拟协议转让3133万股</t>
+          <t>斯莱克：控股股东拟5.81亿元向晨道锦信转让5%公司股份</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-16 20:50</t>
+          <t>11-16 21:18</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300382,1247591995.html</t>
+          <t>/news,300382,1247594293.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2987</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东拟5.81亿元转让5%股份</t>
+          <t>斯莱克：控股股东拟协议转让公司5%股份</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-16 20:45</t>
+          <t>11-16 21:02</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300382,1247583219.html</t>
+          <t>/news,300382,1247589078.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>651</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入1028.39万元，融资余额1.16亿元（11-15）</t>
+          <t>斯莱克：控股股东科莱思拟协议转让3133万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-16 08:50</t>
+          <t>11-16 20:50</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300382,1247184024.html</t>
+          <t>/news,300382,1247591995.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>2989</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>斯莱克11月15日被深股通减持25.26万股</t>
+          <t>斯莱克：控股股东拟5.81亿元转让5%股份</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-16 07:59</t>
+          <t>11-16 20:45</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300382,1247176952.html</t>
+          <t>/news,300382,1247583219.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>903</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>斯莱克收关注函 要求说明临近期末调整当年业绩考核指标是否向特定对象输送利益</t>
+          <t>斯莱克：融资净买入1028.39万元，融资余额1.16亿元（11-15）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-15 20:44</t>
+          <t>11-16 08:50</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300382,1247110064.html</t>
+          <t>/news,300382,1247184024.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1614</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>深交所向斯莱克发出关注函</t>
+          <t>斯莱克11月15日被深股通减持25.26万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-15 20:16</t>
+          <t>11-16 07:59</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300382,1247102130.html</t>
+          <t>/news,300382,1247176952.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>651</t>
+          <t>903</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：调整员工持股计划考核目标，看好新能源电池壳业务加速落地</t>
+          <t>斯莱克收关注函 要求说明临近期末调整当年业绩考核指标是否向特定对象输送利益</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,51 +1245,51 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-15 16:04</t>
+          <t>11-15 20:44</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300382,1247040814.html</t>
+          <t>/news,300382,1247110064.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>1615</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
+          <t>深交所向斯莱克发出关注函</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-15 15:54</t>
+          <t>11-15 20:16</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300382,1247037923.html</t>
+          <t>/news,300382,1247102130.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入1556.23万元，融资余额1.06亿元（11-14）</t>
+          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：调整员工持股计划考核目标，看好新能源电池壳业务加速落地</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,51 +1309,51 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-15 08:53</t>
+          <t>11-15 16:04</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300382,1246699049.html</t>
+          <t>/news,300382,1247040814.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>斯莱克11月14日获深股通增持45.4万股</t>
+          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-15 07:57</t>
+          <t>11-15 15:54</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300382,1246691587.html</t>
+          <t>/news,300382,1247037923.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还102.38万元，融资余额9017.04万元（11-11）</t>
+          <t>斯莱克：融资净买入1556.23万元，融资余额1.06亿元（11-14）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,51 +1373,51 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-14 08:50</t>
+          <t>11-15 08:53</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300382,1246196749.html</t>
+          <t>/news,300382,1246699049.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净买入2091.21万元，居专用设备板块第十七</t>
+          <t>斯莱克11月14日获深股通增持45.4万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-13 15:10</t>
+          <t>11-15 07:57</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300382,1246100709.html</t>
+          <t>/news,300382,1246691587.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,103 +1427,103 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>斯莱克本周深股通持股市值增加1942.17万元，居专用设备板块第七</t>
+          <t>斯莱克：融资净偿还102.38万元，融资余额9017.04万元（11-11）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300382,1246093817.html</t>
+          <t>/news,300382,1246196749.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>斯莱克11月11日获深股通增持120.46万股</t>
+          <t>斯莱克本周融资净买入2091.21万元，居专用设备板块第十七</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-12 07:54</t>
+          <t>11-13 15:10</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300382,1245987393.html</t>
+          <t>/news,300382,1246100709.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1454</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>加码新能源汽车电池壳项目 斯莱克：易拉罐和电池壳工艺有异曲同工处 公司具技术优势</t>
+          <t>斯莱克本周深股通持股市值增加1942.17万元，居专用设备板块第七</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-11 15:00</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300382,1245833693.html</t>
+          <t>/news,300382,1246093817.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还68.91万元，融资余额9119.42万元（11-10）</t>
+          <t>斯莱克11月11日获深股通增持120.46万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-11 08:49</t>
+          <t>11-12 07:54</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300382,1245424379.html</t>
+          <t>/news,300382,1245987393.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>1462</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>斯莱克11月10日被深股通减持2.42万股</t>
+          <t>加码新能源汽车电池壳项目 斯莱克：易拉罐和电池壳工艺有异曲同工处 公司具技术优势</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-11 07:49</t>
+          <t>11-11 15:00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300382,1245412490.html</t>
+          <t>/news,300382,1245833693.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入488.67万元，融资余额9188.33万元（11-09）</t>
+          <t>斯莱克：融资净偿还68.91万元，融资余额9119.42万元（11-10）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-10 08:51</t>
+          <t>11-11 08:49</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300382,1244900382.html</t>
+          <t>/news,300382,1245424379.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>斯莱克11月09日被深股通减持9.95万股</t>
+          <t>斯莱克11月10日被深股通减持2.42万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-11 07:49</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300382,1244892113.html</t>
+          <t>/news,300382,1245412490.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入674.73万元，融资余额8699.65万元（11-08）</t>
+          <t>斯莱克：融资净买入488.67万元，融资余额9188.33万元（11-09）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-09 08:52</t>
+          <t>11-10 08:51</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300382,1244437165.html</t>
+          <t>/news,300382,1244900382.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>斯莱克11月08日获深股通增持2.68万股</t>
+          <t>斯莱克11月09日被深股通减持9.95万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-09 07:49</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300382,1244427946.html</t>
+          <t>/news,300382,1244892113.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入996.71万元，融资余额8024.93万元（11-07）</t>
+          <t>斯莱克：融资净买入674.73万元，融资余额8699.65万元（11-08）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-08 08:52</t>
+          <t>11-09 08:52</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300382,1243983604.html</t>
+          <t>/news,300382,1244437165.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>斯莱克11月07日被深股通减持33.94万股</t>
+          <t>斯莱克11月08日获深股通增持2.68万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-08 07:49</t>
+          <t>11-09 07:49</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300382,1243974416.html</t>
+          <t>/news,300382,1244427946.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入918.29万元，融资余额7028.21万元（11-04）</t>
+          <t>斯莱克：融资净买入996.71万元，融资余额8024.93万元（11-07）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-07 08:58</t>
+          <t>11-08 08:52</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300382,1243515209.html</t>
+          <t>/news,300382,1243983604.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净买入1565.08万元，居专用设备板块第十八</t>
+          <t>斯莱克11月07日被深股通减持33.94万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-06 15:05</t>
+          <t>11-08 07:49</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300382,1243409921.html</t>
+          <t>/news,300382,1243974416.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>斯莱克本周深股通持股市值减少1557.85万元，居专用设备板块第七</t>
+          <t>斯莱克：融资净买入918.29万元，融资余额7028.21万元（11-04）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-06 14:05</t>
+          <t>11-07 08:58</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300382,1243404625.html</t>
+          <t>/news,300382,1243515209.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>斯莱克11月04日被深股通减持35.58万股</t>
+          <t>斯莱克本周融资净买入1565.08万元，居专用设备板块第十八</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-05 07:45</t>
+          <t>11-06 15:05</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300382,1243318004.html</t>
+          <t>/news,300382,1243409921.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入558.01万元，融资余额6109.92万元（11-03）</t>
+          <t>斯莱克本周深股通持股市值减少1557.85万元，居专用设备板块第七</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-04 09:00</t>
+          <t>11-06 14:05</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300382,1242828429.html</t>
+          <t>/news,300382,1243404625.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>斯莱克11月03日获深股通增持53.19万股</t>
+          <t>斯莱克11月04日被深股通减持35.58万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-04 07:54</t>
+          <t>11-05 07:45</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300382,1242818302.html</t>
+          <t>/news,300382,1243318004.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入686.53万元，融资余额5551.92万元（11-02）</t>
+          <t>斯莱克：融资净买入558.01万元，融资余额6109.92万元（11-03）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-03 08:52</t>
+          <t>11-04 09:00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300382,1242334266.html</t>
+          <t>/news,300382,1242828429.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>斯莱克11月02日被深股通减持21.91万股</t>
+          <t>斯莱克11月03日获深股通增持53.19万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-03 07:49</t>
+          <t>11-04 07:54</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300382,1242324928.html</t>
+          <t>/news,300382,1242818302.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>斯莱克：科莱思有限公司累计质押股数为1350万股</t>
+          <t>斯莱克：融资净买入686.53万元，融资余额5551.92万元（11-02）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-02 19:32</t>
+          <t>11-03 08:52</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300382,1242226513.html</t>
+          <t>/news,300382,1242334266.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入99.48万元，融资余额4865.39万元（11-01）</t>
+          <t>斯莱克11月02日被深股通减持21.91万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-02 08:52</t>
+          <t>11-03 07:49</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300382,1241809605.html</t>
+          <t>/news,300382,1242324928.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>斯莱克11月01日被深股通减持35.39万股</t>
+          <t>斯莱克：科莱思有限公司累计质押股数为1350万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-02 08:00</t>
+          <t>11-02 19:32</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300382,1241802844.html</t>
+          <t>/news,300382,1242226513.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入221.06万元，融资余额4765.9万元（10-31）</t>
+          <t>斯莱克：融资净买入99.48万元，融资余额4865.39万元（11-01）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-01 09:04</t>
+          <t>11-02 08:52</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300382,1241307794.html</t>
+          <t>/news,300382,1241809605.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>斯莱克10月31日被深股通减持31.87万股</t>
+          <t>斯莱克11月01日被深股通减持35.39万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-01 07:48</t>
+          <t>11-02 08:00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300382,1241296259.html</t>
+          <t>/news,300382,1241802844.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入454.04万元，融资余额4544.84万元（10-28）</t>
+          <t>斯莱克：融资净买入221.06万元，融资余额4765.9万元（10-31）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-31 09:02</t>
+          <t>11-01 09:04</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300382,1240797967.html</t>
+          <t>/news,300382,1241307794.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,29 +2227,29 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净买入3170.49万元，居专用设备板块第八</t>
+          <t>斯莱克10月31日被深股通减持31.87万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-30 15:16</t>
+          <t>11-01 07:48</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300382,1240714558.html</t>
+          <t>/news,300382,1241296259.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,29 +2259,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>斯莱克：本周深股通持股量环比增加10%，周内增仓幅度居专用设备板块第七</t>
+          <t>斯莱克：融资净买入454.04万元，融资余额4544.84万元（10-28）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-30 14:07</t>
+          <t>10-31 09:02</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300382,1240707166.html</t>
+          <t>/news,300382,1240797967.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>481</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,103 +2291,103 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>斯莱克10月28日获深股通增持32.74万股</t>
+          <t>斯莱克本周融资净买入3170.49万元，居专用设备板块第八</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-29 07:49</t>
+          <t>10-30 15:16</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300382,1240599824.html</t>
+          <t>/news,300382,1240714558.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>763</t>
+          <t>462</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>华泰证券维持斯莱克增持评级 目标价27.2元</t>
+          <t>斯莱克：本周深股通持股量环比增加10%，周内增仓幅度居专用设备板块第七</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-28 16:13</t>
+          <t>10-30 14:07</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300382,1240453038.html</t>
+          <t>/news,300382,1240707166.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>华金证券首次给予斯莱克增持评级 预计2022年净利润同比增长97.35%</t>
+          <t>斯莱克10月28日获深股通增持32.74万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-28 14:42</t>
+          <t>10-29 07:49</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300382,1240396907.html</t>
+          <t>/news,300382,1240599824.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>763</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>山西证券首次给予斯莱克买入评级 预计2022年净利润同比增长105.72%</t>
+          <t>华泰证券维持斯莱克增持评级 目标价27.2元</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,83 +2397,83 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-28 10:51</t>
+          <t>10-28 16:13</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300382,1240213656.html</t>
+          <t>/news,300382,1240453038.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入1865.26万元，融资余额4090.81万元（10-27）</t>
+          <t>华金证券首次给予斯莱克增持评级 预计2022年净利润同比增长97.35%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-28 09:09</t>
+          <t>10-28 14:42</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300382,1240061552.html</t>
+          <t>/news,300382,1240396907.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>斯莱克10月27日获深股通增持19.16万股</t>
+          <t>山西证券首次给予斯莱克买入评级 预计2022年净利润同比增长105.72%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-28 07:54</t>
+          <t>10-28 10:51</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300382,1240048682.html</t>
+          <t>/news,300382,1240213656.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,29 +2483,29 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>国信证券维持斯莱克买入评级 预计2022年净利润同比增长122.48%</t>
+          <t>斯莱克：融资净买入1865.26万元，融资余额4090.81万元（10-27）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-27 21:56</t>
+          <t>10-28 09:09</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300382,1239990020.html</t>
+          <t>/news,300382,1240061552.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>国信证券给予斯莱克买入评级 2022年三季报点评：前三季度业绩同比增长155% 新能源电池壳业务加速落地</t>
+          <t>斯莱克10月27日获深股通增持19.16万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-27 20:22</t>
+          <t>10-28 07:54</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300382,1239963058.html</t>
+          <t>/news,300382,1240048682.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>招商证券维持斯莱克强烈推荐评级 预计2022年净利润同比增长172.75%</t>
+          <t>国信证券维持斯莱克买入评级 预计2022年净利润同比增长122.48%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-27 11:33</t>
+          <t>10-27 21:56</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300382,1239680819.html</t>
+          <t>/news,300382,1239990020.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入591.23万元，融资余额2225.55万元（10-26）</t>
+          <t>国信证券给予斯莱克买入评级 2022年三季报点评：前三季度业绩同比增长155% 新能源电池壳业务加速落地</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-27 09:00</t>
+          <t>10-27 20:22</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300382,1239507987.html</t>
+          <t>/news,300382,1239963058.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,29 +2611,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>新能源电池壳开启第二增长曲线 斯莱克前三季度净利润增长154.7%</t>
+          <t>招商证券维持斯莱克强烈推荐评级 预计2022年净利润同比增长172.75%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-26 18:42</t>
+          <t>10-27 11:33</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300382,1239384850.html</t>
+          <t>/news,300382,1239680819.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,29 +2643,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>国金证券维持斯莱克买入评级 预计2022年净利润同比增长109.45%</t>
+          <t>斯莱克：融资净买入591.23万元，融资余额2225.55万元（10-26）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-26 15:26</t>
+          <t>10-27 09:00</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300382,1239325106.html</t>
+          <t>/news,300382,1239507987.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长120.62%</t>
+          <t>新能源电池壳开启第二增长曲线 斯莱克前三季度净利润增长154.7%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-26 11:13</t>
+          <t>10-26 18:42</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300382,1239150791.html</t>
+          <t>/news,300382,1239384850.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,29 +2707,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入713.99万元，融资余额1634.31万元（10-25）</t>
+          <t>国金证券维持斯莱克买入评级 预计2022年净利润同比增长109.45%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-26 09:02</t>
+          <t>10-26 15:26</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300382,1238981382.html</t>
+          <t>/news,300382,1239325106.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,29 +2739,29 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>【图解季报】斯莱克：2022年前三季度归母净利润同比大增154.7%，约为1.9亿元</t>
+          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长120.62%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-26 08:00</t>
+          <t>10-26 11:13</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300382,1238970690.html</t>
+          <t>/news,300382,1239150791.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>斯莱克10月25日获深股通增持61.4万股</t>
+          <t>斯莱克：融资净买入713.99万元，融资余额1634.31万元（10-25）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-26 07:49</t>
+          <t>10-26 09:02</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300382,1238968589.html</t>
+          <t>/news,300382,1238981382.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>斯莱克股东户数下降15.90%，户均持股84.12万元</t>
+          <t>【图解季报】斯莱克：2022年前三季度归母净利润同比大增154.7%，约为1.9亿元</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-25 22:10</t>
+          <t>10-26 08:00</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300382,1238909033.html</t>
+          <t>/news,300382,1238970690.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>斯莱克：2022年前三季度净利润约1.89亿元 同比增加154.7%</t>
+          <t>斯莱克10月25日获深股通增持61.4万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-25 21:14</t>
+          <t>10-26 07:49</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300382,1238895042.html</t>
+          <t>/news,300382,1238968589.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>注意！斯莱克将于11月10日召开股东大会</t>
+          <t>斯莱克股东户数下降15.90%，户均持股84.12万元</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,51 +2877,51 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-25 21:14</t>
+          <t>10-25 22:10</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300382,1238894935.html</t>
+          <t>/news,300382,1238909033.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>780</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>斯莱克：2022年前三季度净利润同比增长154.7%</t>
+          <t>斯莱克：2022年前三季度净利润约1.89亿元 同比增加154.7%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-25 21:10</t>
+          <t>10-25 21:14</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300382,1238891519.html</t>
+          <t>/news,300382,1238895042.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>斯莱克：纳入融资融券标的首日，融资买入966.02万元（10-24）</t>
+          <t>注意！斯莱克将于11月10日召开股东大会</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,61 +2941,61 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-25 08:57</t>
+          <t>10-25 21:14</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300382,1238459372.html</t>
+          <t>/news,300382,1238894935.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>780</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>斯莱克10月24日被深股通减持25.72万股</t>
+          <t>斯莱克：2022年前三季度净利润同比增长154.7%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-25 07:47</t>
+          <t>10-25 21:10</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300382,1238447545.html</t>
+          <t>/news,300382,1238891519.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：特斯拉大幅提升大圆柱产能规划，公司有望受益电池标准化进展</t>
+          <t>斯莱克：纳入融资融券标的首日，融资买入966.02万元（10-24）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-24 09:19</t>
+          <t>10-25 08:57</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300382,1237933054.html</t>
+          <t>/news,300382,1238459372.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300382.xlsx
+++ b/news_ann/news/tmp/300382.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>110</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还239.73万元，融资余额1.45亿元（11-23）</t>
+          <t>斯莱克：融资净买入165.07万元，融资余额1.46亿元（11-24）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,12 +477,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-24 08:56</t>
+          <t>11-25 08:50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300382,1250430566.html</t>
+          <t>/news,300382,1250951153.html</t>
         </is>
       </c>
     </row>
@@ -494,12 +494,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>斯莱克11月23日被深股通减持20.59万股</t>
+          <t>斯莱克11月24日获深股通增持3.74万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-24 07:50</t>
+          <t>11-25 07:53</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300382,1250420176.html</t>
+          <t>/news,300382,1250943768.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入37.78万元，融资余额1.47亿元（11-22）</t>
+          <t>斯莱克：融资净偿还239.73万元，融资余额1.45亿元（11-23）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-23 08:55</t>
+          <t>11-24 08:56</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300382,1249885355.html</t>
+          <t>/news,300382,1250430566.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>斯莱克11月22日被深股通减持29.54万股</t>
+          <t>斯莱克11月23日被深股通减持20.59万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-23 07:48</t>
+          <t>11-24 07:50</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300382,1249875173.html</t>
+          <t>/news,300382,1250420176.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入191.22万元，融资余额1.47亿元（11-21）</t>
+          <t>斯莱克：融资净买入37.78万元，融资余额1.47亿元（11-22）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-22 08:51</t>
+          <t>11-23 08:55</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300382,1249356633.html</t>
+          <t>/news,300382,1249885355.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>斯莱克11月21日获深股通增持76.7万股</t>
+          <t>斯莱克11月22日被深股通减持29.54万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-22 07:58</t>
+          <t>11-23 07:48</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300382,1249349790.html</t>
+          <t>/news,300382,1249875173.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>注意！斯莱克将于12月7日召开股东大会</t>
+          <t>斯莱克：融资净买入191.22万元，融资余额1.47亿元（11-21）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-21 18:20</t>
+          <t>11-22 08:51</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300382,1249216961.html</t>
+          <t>/news,300382,1249356633.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还668.7万元，融资余额1.45亿元（11-18）</t>
+          <t>斯莱克11月21日获深股通增持76.7万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,51 +701,51 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-21 08:48</t>
+          <t>11-22 07:58</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300382,1248872007.html</t>
+          <t>/news,300382,1249349790.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净买入6124.72万元，居专用设备板块第二</t>
+          <t>注意！斯莱克将于12月7日召开股东大会</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-20 15:07</t>
+          <t>11-21 18:20</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300382,1248769569.html</t>
+          <t>/news,300382,1249216961.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>斯莱克：本周深股通持股量环比减少1%，周内减仓幅度居专用设备板块第十</t>
+          <t>斯莱克：融资净偿还668.7万元，融资余额1.45亿元（11-18）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-21 08:48</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300382,1248763223.html</t>
+          <t>/news,300382,1248872007.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,29 +787,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>斯莱克11月18日获深股通增持50.5万股</t>
+          <t>斯莱克本周融资净买入6124.72万元，居专用设备板块第二</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-19 07:54</t>
+          <t>11-20 15:07</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300382,1248638940.html</t>
+          <t>/news,300382,1248769569.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,29 +819,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>斯莱克：连续4日融资净买入累计6124.72万元（11-17）</t>
+          <t>斯莱克：本周深股通持股量环比减少1%，周内减仓幅度居专用设备板块第十</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-18 08:43</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300382,1248161350.html</t>
+          <t>/news,300382,1248763223.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>斯莱克11月17日被深股通减持24.25万股</t>
+          <t>斯莱克11月18日获深股通增持50.5万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-18 07:49</t>
+          <t>11-19 07:54</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300382,1248153008.html</t>
+          <t>/news,300382,1248638940.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1797</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>控股股东折价抛售5%股份 下调股权激励业绩考核指标 斯莱克怎么了？</t>
+          <t>斯莱克：连续4日融资净买入累计6124.72万元（11-17）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-17 22:48</t>
+          <t>11-18 08:43</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300382,1248111014.html</t>
+          <t>/news,300382,1248161350.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>705</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：控股股东拟向晨道锦信转让5%股份，看好电池壳业务加速落地</t>
+          <t>斯莱克11月17日被深股通减持24.25万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,61 +925,61 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-17 10:56</t>
+          <t>11-18 07:49</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300382,1247820995.html</t>
+          <t>/news,300382,1248153008.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>1809</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
+          <t>控股股东折价抛售5%股份 下调股权激励业绩考核指标 斯莱克怎么了？</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-17 10:45</t>
+          <t>11-17 22:48</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300382,1247807581.html</t>
+          <t>/news,300382,1248111014.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>717</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>斯莱克：连续3日融资净买入累计4749.52万元（11-16）</t>
+          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：控股股东拟向晨道锦信转让5%股份，看好电池壳业务加速落地</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-17 08:48</t>
+          <t>11-17 10:56</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300382,1247676677.html</t>
+          <t>/news,300382,1247820995.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>斯莱克11月16日被深股通减持63.42万股</t>
+          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-17 08:01</t>
+          <t>11-17 10:45</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300382,1247669685.html</t>
+          <t>/news,300382,1247807581.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>823</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东拟5.81亿元向晨道锦信转让5%公司股份</t>
+          <t>斯莱克：连续3日融资净买入累计4749.52万元（11-16）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-16 21:18</t>
+          <t>11-17 08:48</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300382,1247594293.html</t>
+          <t>/news,300382,1247676677.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东拟协议转让公司5%股份</t>
+          <t>斯莱克11月16日被深股通减持63.42万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-16 21:02</t>
+          <t>11-17 08:01</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300382,1247589078.html</t>
+          <t>/news,300382,1247669685.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>651</t>
+          <t>830</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东科莱思拟协议转让3133万股</t>
+          <t>斯莱克：控股股东拟5.81亿元向晨道锦信转让5%公司股份</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-16 20:50</t>
+          <t>11-16 21:18</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300382,1247591995.html</t>
+          <t>/news,300382,1247594293.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2989</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东拟5.81亿元转让5%股份</t>
+          <t>斯莱克：控股股东拟协议转让公司5%股份</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-16 20:45</t>
+          <t>11-16 21:02</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300382,1247583219.html</t>
+          <t>/news,300382,1247589078.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入1028.39万元，融资余额1.16亿元（11-15）</t>
+          <t>斯莱克：控股股东科莱思拟协议转让3133万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-16 08:50</t>
+          <t>11-16 20:50</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300382,1247184024.html</t>
+          <t>/news,300382,1247591995.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>2994</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>斯莱克11月15日被深股通减持25.26万股</t>
+          <t>斯莱克：控股股东拟5.81亿元转让5%股份</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-16 07:59</t>
+          <t>11-16 20:45</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300382,1247176952.html</t>
+          <t>/news,300382,1247583219.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>903</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>斯莱克收关注函 要求说明临近期末调整当年业绩考核指标是否向特定对象输送利益</t>
+          <t>斯莱克：融资净买入1028.39万元，融资余额1.16亿元（11-15）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-15 20:44</t>
+          <t>11-16 08:50</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300382,1247110064.html</t>
+          <t>/news,300382,1247184024.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1615</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>深交所向斯莱克发出关注函</t>
+          <t>斯莱克11月15日被深股通减持25.26万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-15 20:16</t>
+          <t>11-16 07:59</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300382,1247102130.html</t>
+          <t>/news,300382,1247176952.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>905</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：调整员工持股计划考核目标，看好新能源电池壳业务加速落地</t>
+          <t>斯莱克收关注函 要求说明临近期末调整当年业绩考核指标是否向特定对象输送利益</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,51 +1309,51 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-15 16:04</t>
+          <t>11-15 20:44</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300382,1247040814.html</t>
+          <t>/news,300382,1247110064.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>1618</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
+          <t>深交所向斯莱克发出关注函</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-15 15:54</t>
+          <t>11-15 20:16</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300382,1247037923.html</t>
+          <t>/news,300382,1247102130.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>656</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入1556.23万元，融资余额1.06亿元（11-14）</t>
+          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：调整员工持股计划考核目标，看好新能源电池壳业务加速落地</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,51 +1373,51 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-15 08:53</t>
+          <t>11-15 16:04</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300382,1246699049.html</t>
+          <t>/news,300382,1247040814.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>斯莱克11月14日获深股通增持45.4万股</t>
+          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-15 07:57</t>
+          <t>11-15 15:54</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300382,1246691587.html</t>
+          <t>/news,300382,1247037923.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还102.38万元，融资余额9017.04万元（11-11）</t>
+          <t>斯莱克：融资净买入1556.23万元，融资余额1.06亿元（11-14）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,51 +1437,51 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-14 08:50</t>
+          <t>11-15 08:53</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300382,1246196749.html</t>
+          <t>/news,300382,1246699049.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净买入2091.21万元，居专用设备板块第十七</t>
+          <t>斯莱克11月14日获深股通增持45.4万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-13 15:10</t>
+          <t>11-15 07:57</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300382,1246100709.html</t>
+          <t>/news,300382,1246691587.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,103 +1491,103 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>斯莱克本周深股通持股市值增加1942.17万元，居专用设备板块第七</t>
+          <t>斯莱克：融资净偿还102.38万元，融资余额9017.04万元（11-11）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300382,1246093817.html</t>
+          <t>/news,300382,1246196749.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>斯莱克11月11日获深股通增持120.46万股</t>
+          <t>斯莱克本周融资净买入2091.21万元，居专用设备板块第十七</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-12 07:54</t>
+          <t>11-13 15:10</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300382,1245987393.html</t>
+          <t>/news,300382,1246100709.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1462</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>加码新能源汽车电池壳项目 斯莱克：易拉罐和电池壳工艺有异曲同工处 公司具技术优势</t>
+          <t>斯莱克本周深股通持股市值增加1942.17万元，居专用设备板块第七</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-11 15:00</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300382,1245833693.html</t>
+          <t>/news,300382,1246093817.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还68.91万元，融资余额9119.42万元（11-10）</t>
+          <t>斯莱克11月11日获深股通增持120.46万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-11 08:49</t>
+          <t>11-12 07:54</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300382,1245424379.html</t>
+          <t>/news,300382,1245987393.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>1464</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>斯莱克11月10日被深股通减持2.42万股</t>
+          <t>加码新能源汽车电池壳项目 斯莱克：易拉罐和电池壳工艺有异曲同工处 公司具技术优势</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-11 07:49</t>
+          <t>11-11 15:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300382,1245412490.html</t>
+          <t>/news,300382,1245833693.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入488.67万元，融资余额9188.33万元（11-09）</t>
+          <t>斯莱克：融资净偿还68.91万元，融资余额9119.42万元（11-10）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-10 08:51</t>
+          <t>11-11 08:49</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300382,1244900382.html</t>
+          <t>/news,300382,1245424379.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>斯莱克11月09日被深股通减持9.95万股</t>
+          <t>斯莱克11月10日被深股通减持2.42万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-11 07:49</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300382,1244892113.html</t>
+          <t>/news,300382,1245412490.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入674.73万元，融资余额8699.65万元（11-08）</t>
+          <t>斯莱克：融资净买入488.67万元，融资余额9188.33万元（11-09）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-09 08:52</t>
+          <t>11-10 08:51</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300382,1244437165.html</t>
+          <t>/news,300382,1244900382.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>斯莱克11月08日获深股通增持2.68万股</t>
+          <t>斯莱克11月09日被深股通减持9.95万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-09 07:49</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300382,1244427946.html</t>
+          <t>/news,300382,1244892113.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入996.71万元，融资余额8024.93万元（11-07）</t>
+          <t>斯莱克：融资净买入674.73万元，融资余额8699.65万元（11-08）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-08 08:52</t>
+          <t>11-09 08:52</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300382,1243983604.html</t>
+          <t>/news,300382,1244437165.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>斯莱克11月07日被深股通减持33.94万股</t>
+          <t>斯莱克11月08日获深股通增持2.68万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-08 07:49</t>
+          <t>11-09 07:49</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300382,1243974416.html</t>
+          <t>/news,300382,1244427946.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入918.29万元，融资余额7028.21万元（11-04）</t>
+          <t>斯莱克：融资净买入996.71万元，融资余额8024.93万元（11-07）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-07 08:58</t>
+          <t>11-08 08:52</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300382,1243515209.html</t>
+          <t>/news,300382,1243983604.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净买入1565.08万元，居专用设备板块第十八</t>
+          <t>斯莱克11月07日被深股通减持33.94万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-06 15:05</t>
+          <t>11-08 07:49</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300382,1243409921.html</t>
+          <t>/news,300382,1243974416.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>斯莱克本周深股通持股市值减少1557.85万元，居专用设备板块第七</t>
+          <t>斯莱克：融资净买入918.29万元，融资余额7028.21万元（11-04）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-06 14:05</t>
+          <t>11-07 08:58</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300382,1243404625.html</t>
+          <t>/news,300382,1243515209.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,29 +1939,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>斯莱克11月04日被深股通减持35.58万股</t>
+          <t>斯莱克本周融资净买入1565.08万元，居专用设备板块第十八</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-05 07:45</t>
+          <t>11-06 15:05</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300382,1243318004.html</t>
+          <t>/news,300382,1243409921.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,29 +1971,29 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入558.01万元，融资余额6109.92万元（11-03）</t>
+          <t>斯莱克本周深股通持股市值减少1557.85万元，居专用设备板块第七</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-04 09:00</t>
+          <t>11-06 14:05</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300382,1242828429.html</t>
+          <t>/news,300382,1243404625.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>斯莱克11月03日获深股通增持53.19万股</t>
+          <t>斯莱克11月04日被深股通减持35.58万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-04 07:54</t>
+          <t>11-05 07:45</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300382,1242818302.html</t>
+          <t>/news,300382,1243318004.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入686.53万元，融资余额5551.92万元（11-02）</t>
+          <t>斯莱克：融资净买入558.01万元，融资余额6109.92万元（11-03）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-03 08:52</t>
+          <t>11-04 09:00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300382,1242334266.html</t>
+          <t>/news,300382,1242828429.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>斯莱克11月02日被深股通减持21.91万股</t>
+          <t>斯莱克11月03日获深股通增持53.19万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-03 07:49</t>
+          <t>11-04 07:54</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300382,1242324928.html</t>
+          <t>/news,300382,1242818302.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>斯莱克：科莱思有限公司累计质押股数为1350万股</t>
+          <t>斯莱克：融资净买入686.53万元，融资余额5551.92万元（11-02）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-02 19:32</t>
+          <t>11-03 08:52</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300382,1242226513.html</t>
+          <t>/news,300382,1242334266.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入99.48万元，融资余额4865.39万元（11-01）</t>
+          <t>斯莱克11月02日被深股通减持21.91万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-02 08:52</t>
+          <t>11-03 07:49</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300382,1241809605.html</t>
+          <t>/news,300382,1242324928.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>斯莱克11月01日被深股通减持35.39万股</t>
+          <t>斯莱克：科莱思有限公司累计质押股数为1350万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-02 08:00</t>
+          <t>11-02 19:32</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300382,1241802844.html</t>
+          <t>/news,300382,1242226513.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入221.06万元，融资余额4765.9万元（10-31）</t>
+          <t>斯莱克：融资净买入99.48万元，融资余额4865.39万元（11-01）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-01 09:04</t>
+          <t>11-02 08:52</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300382,1241307794.html</t>
+          <t>/news,300382,1241809605.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>斯莱克10月31日被深股通减持31.87万股</t>
+          <t>斯莱克11月01日被深股通减持35.39万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-01 07:48</t>
+          <t>11-02 08:00</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300382,1241296259.html</t>
+          <t>/news,300382,1241802844.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入454.04万元，融资余额4544.84万元（10-28）</t>
+          <t>斯莱克：融资净买入221.06万元，融资余额4765.9万元（10-31）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-31 09:02</t>
+          <t>11-01 09:04</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300382,1240797967.html</t>
+          <t>/news,300382,1241307794.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,29 +2291,29 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净买入3170.49万元，居专用设备板块第八</t>
+          <t>斯莱克10月31日被深股通减持31.87万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-30 15:16</t>
+          <t>11-01 07:48</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300382,1240714558.html</t>
+          <t>/news,300382,1241296259.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,29 +2323,29 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>斯莱克：本周深股通持股量环比增加10%，周内增仓幅度居专用设备板块第七</t>
+          <t>斯莱克：融资净买入454.04万元，融资余额4544.84万元（10-28）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-30 14:07</t>
+          <t>10-31 09:02</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300382,1240707166.html</t>
+          <t>/news,300382,1240797967.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>481</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,103 +2355,103 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>斯莱克10月28日获深股通增持32.74万股</t>
+          <t>斯莱克本周融资净买入3170.49万元，居专用设备板块第八</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-29 07:49</t>
+          <t>10-30 15:16</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300382,1240599824.html</t>
+          <t>/news,300382,1240714558.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>763</t>
+          <t>462</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>华泰证券维持斯莱克增持评级 目标价27.2元</t>
+          <t>斯莱克：本周深股通持股量环比增加10%，周内增仓幅度居专用设备板块第七</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-28 16:13</t>
+          <t>10-30 14:07</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300382,1240453038.html</t>
+          <t>/news,300382,1240707166.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>华金证券首次给予斯莱克增持评级 预计2022年净利润同比增长97.35%</t>
+          <t>斯莱克10月28日获深股通增持32.74万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-28 14:42</t>
+          <t>10-29 07:49</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300382,1240396907.html</t>
+          <t>/news,300382,1240599824.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>765</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>山西证券首次给予斯莱克买入评级 预计2022年净利润同比增长105.72%</t>
+          <t>华泰证券维持斯莱克增持评级 目标价27.2元</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,83 +2461,83 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-28 10:51</t>
+          <t>10-28 16:13</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300382,1240213656.html</t>
+          <t>/news,300382,1240453038.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入1865.26万元，融资余额4090.81万元（10-27）</t>
+          <t>华金证券首次给予斯莱克增持评级 预计2022年净利润同比增长97.35%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-28 09:09</t>
+          <t>10-28 14:42</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300382,1240061552.html</t>
+          <t>/news,300382,1240396907.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>斯莱克10月27日获深股通增持19.16万股</t>
+          <t>山西证券首次给予斯莱克买入评级 预计2022年净利润同比增长105.72%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-28 07:54</t>
+          <t>10-28 10:51</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300382,1240048682.html</t>
+          <t>/news,300382,1240213656.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,29 +2547,29 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>国信证券维持斯莱克买入评级 预计2022年净利润同比增长122.48%</t>
+          <t>斯莱克：融资净买入1865.26万元，融资余额4090.81万元（10-27）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-27 21:56</t>
+          <t>10-28 09:09</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300382,1239990020.html</t>
+          <t>/news,300382,1240061552.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>国信证券给予斯莱克买入评级 2022年三季报点评：前三季度业绩同比增长155% 新能源电池壳业务加速落地</t>
+          <t>斯莱克10月27日获深股通增持19.16万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-27 20:22</t>
+          <t>10-28 07:54</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300382,1239963058.html</t>
+          <t>/news,300382,1240048682.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>招商证券维持斯莱克强烈推荐评级 预计2022年净利润同比增长172.75%</t>
+          <t>国信证券维持斯莱克买入评级 预计2022年净利润同比增长122.48%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-27 11:33</t>
+          <t>10-27 21:56</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300382,1239680819.html</t>
+          <t>/news,300382,1239990020.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入591.23万元，融资余额2225.55万元（10-26）</t>
+          <t>国信证券给予斯莱克买入评级 2022年三季报点评：前三季度业绩同比增长155% 新能源电池壳业务加速落地</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-27 09:00</t>
+          <t>10-27 20:22</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300382,1239507987.html</t>
+          <t>/news,300382,1239963058.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>新能源电池壳开启第二增长曲线 斯莱克前三季度净利润增长154.7%</t>
+          <t>招商证券维持斯莱克强烈推荐评级 预计2022年净利润同比增长172.75%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-26 18:42</t>
+          <t>10-27 11:33</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300382,1239384850.html</t>
+          <t>/news,300382,1239680819.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,29 +2707,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>国金证券维持斯莱克买入评级 预计2022年净利润同比增长109.45%</t>
+          <t>斯莱克：融资净买入591.23万元，融资余额2225.55万元（10-26）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-26 15:26</t>
+          <t>10-27 09:00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300382,1239325106.html</t>
+          <t>/news,300382,1239507987.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,29 +2739,29 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长120.62%</t>
+          <t>新能源电池壳开启第二增长曲线 斯莱克前三季度净利润增长154.7%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-26 11:13</t>
+          <t>10-26 18:42</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300382,1239150791.html</t>
+          <t>/news,300382,1239384850.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,29 +2771,29 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入713.99万元，融资余额1634.31万元（10-25）</t>
+          <t>国金证券维持斯莱克买入评级 预计2022年净利润同比增长109.45%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-26 09:02</t>
+          <t>10-26 15:26</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300382,1238981382.html</t>
+          <t>/news,300382,1239325106.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,29 +2803,29 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>【图解季报】斯莱克：2022年前三季度归母净利润同比大增154.7%，约为1.9亿元</t>
+          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长120.62%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-26 08:00</t>
+          <t>10-26 11:13</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300382,1238970690.html</t>
+          <t>/news,300382,1239150791.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>斯莱克10月25日获深股通增持61.4万股</t>
+          <t>斯莱克：融资净买入713.99万元，融资余额1634.31万元（10-25）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-26 07:49</t>
+          <t>10-26 09:02</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300382,1238968589.html</t>
+          <t>/news,300382,1238981382.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>斯莱克股东户数下降15.90%，户均持股84.12万元</t>
+          <t>【图解季报】斯莱克：2022年前三季度归母净利润同比大增154.7%，约为1.9亿元</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-25 22:10</t>
+          <t>10-26 08:00</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300382,1238909033.html</t>
+          <t>/news,300382,1238970690.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>斯莱克：2022年前三季度净利润约1.89亿元 同比增加154.7%</t>
+          <t>斯莱克10月25日获深股通增持61.4万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-25 21:14</t>
+          <t>10-26 07:49</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300382,1238895042.html</t>
+          <t>/news,300382,1238968589.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>注意！斯莱克将于11月10日召开股东大会</t>
+          <t>斯莱克股东户数下降15.90%，户均持股84.12万元</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,51 +2941,51 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-25 21:14</t>
+          <t>10-25 22:10</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300382,1238894935.html</t>
+          <t>/news,300382,1238909033.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>780</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>斯莱克：2022年前三季度净利润同比增长154.7%</t>
+          <t>斯莱克：2022年前三季度净利润约1.89亿元 同比增加154.7%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-25 21:10</t>
+          <t>10-25 21:14</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300382,1238891519.html</t>
+          <t>/news,300382,1238895042.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>斯莱克：纳入融资融券标的首日，融资买入966.02万元（10-24）</t>
+          <t>注意！斯莱克将于11月10日召开股东大会</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-25 08:57</t>
+          <t>10-25 21:14</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300382,1238459372.html</t>
+          <t>/news,300382,1238894935.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300382.xlsx
+++ b/news_ann/news/tmp/300382.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>141</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入165.07万元，融资余额1.46亿元（11-24）</t>
+          <t>斯莱克：连续7日融资净买入累计1455.71万元（12-02）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,93 +477,93 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-25 08:50</t>
+          <t>12-05 09:01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300382,1250951153.html</t>
+          <t>/news,300382,1254804851.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>斯莱克11月24日获深股通增持3.74万股</t>
+          <t>融资融券周汇总：斯莱克本周融资净买入973.98万元</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-25 07:53</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300382,1250943768.html</t>
+          <t>/news,300382,1254650560.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还239.73万元，融资余额1.45亿元（11-23）</t>
+          <t>斯莱克：本周深股通持股量环比增加11%，周内增仓幅度居专用设备板块第十</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-24 08:56</t>
+          <t>12-04 14:05</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300382,1250430566.html</t>
+          <t>/news,300382,1254642960.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>503</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>斯莱克11月23日被深股通减持20.59万股</t>
+          <t>斯莱克12月02日获深股通增持38.76万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-24 07:50</t>
+          <t>12-03 07:50</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300382,1250420176.html</t>
+          <t>/news,300382,1254512140.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入37.78万元，融资余额1.47亿元（11-22）</t>
+          <t>斯莱克：连续6日融资净买入累计1339.75万元（12-01）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-23 08:55</t>
+          <t>12-02 08:51</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300382,1249885355.html</t>
+          <t>/news,300382,1253921021.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>斯莱克11月22日被深股通减持29.54万股</t>
+          <t>斯莱克12月01日获深股通增持46.48万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-23 07:48</t>
+          <t>12-02 07:48</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300382,1249875173.html</t>
+          <t>/news,300382,1253912696.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入191.22万元，融资余额1.47亿元（11-21）</t>
+          <t>斯莱克：连续5日融资净买入累计1205.59万元（11-30）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-22 08:51</t>
+          <t>12-01 08:54</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300382,1249356633.html</t>
+          <t>/news,300382,1253311436.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>斯莱克11月21日获深股通增持76.7万股</t>
+          <t>斯莱克11月30日获深股通增持33.54万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-22 07:58</t>
+          <t>12-01 07:50</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300382,1249349790.html</t>
+          <t>/news,300382,1253301638.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>注意！斯莱克将于12月7日召开股东大会</t>
+          <t>斯莱克：连续4日融资净买入累计636.44万元（11-29）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-21 18:20</t>
+          <t>11-30 08:48</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300382,1249216961.html</t>
+          <t>/news,300382,1252786102.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还668.7万元，融资余额1.45亿元（11-18）</t>
+          <t>斯莱克11月29日被深股通减持17.6万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,51 +765,51 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-21 08:48</t>
+          <t>11-30 07:49</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300382,1248872007.html</t>
+          <t>/news,300382,1252778282.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>1111</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净买入6124.72万元，居专用设备板块第二</t>
+          <t>斯莱克：增加投资的产线投产后 将在原有基础上增加约1.2亿只方形电池壳的产能</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-20 15:07</t>
+          <t>11-29 16:44</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300382,1248769569.html</t>
+          <t>/news,300382,1252581561.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,39 +819,39 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>斯莱克：本周深股通持股量环比减少1%，周内减仓幅度居专用设备板块第十</t>
+          <t>斯莱克：连续3日融资净买入累计370.1万元（11-28）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-29 08:52</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300382,1248763223.html</t>
+          <t>/news,300382,1252223239.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>斯莱克11月18日获深股通增持50.5万股</t>
+          <t>斯莱克11月28日被深股通减持45.76万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-19 07:54</t>
+          <t>11-29 07:57</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300382,1248638940.html</t>
+          <t>/news,300382,1252214588.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>斯莱克：连续4日融资净买入累计6124.72万元（11-17）</t>
+          <t>斯莱克：融资净买入200.71万元，融资余额1.48亿元（11-25）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-18 08:43</t>
+          <t>11-28 08:46</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300382,1248161350.html</t>
+          <t>/news,300382,1251734093.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,71 +915,71 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>斯莱克11月17日被深股通减持24.25万股</t>
+          <t>融资融券周汇总：斯莱克本周融资净买入154.34万元</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-18 07:49</t>
+          <t>11-27 15:06</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300382,1248153008.html</t>
+          <t>/news,300382,1251589824.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1809</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>控股股东折价抛售5%股份 下调股权激励业绩考核指标 斯莱克怎么了？</t>
+          <t>斯莱克：本周深股通持股量环比增加3%，周内增仓幅度居专用设备板块第九</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-17 22:48</t>
+          <t>11-27 14:06</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300382,1248111014.html</t>
+          <t>/news,300382,1251584278.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>717</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：控股股东拟向晨道锦信转让5%股份，看好电池壳业务加速落地</t>
+          <t>斯莱克11月25日被深股通减持23.52万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-17 10:56</t>
+          <t>11-26 07:53</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300382,1247820995.html</t>
+          <t>/news,300382,1251434360.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
+          <t>斯莱克：融资净买入165.07万元，融资余额1.46亿元（11-24）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-17 10:45</t>
+          <t>11-25 08:50</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300382,1247807581.html</t>
+          <t>/news,300382,1250951153.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>斯莱克：连续3日融资净买入累计4749.52万元（11-16）</t>
+          <t>斯莱克11月24日获深股通增持3.74万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-17 08:48</t>
+          <t>11-25 07:53</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300382,1247676677.html</t>
+          <t>/news,300382,1250943768.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>斯莱克11月16日被深股通减持63.42万股</t>
+          <t>斯莱克：融资净偿还239.73万元，融资余额1.45亿元（11-23）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-17 08:01</t>
+          <t>11-24 08:56</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300382,1247669685.html</t>
+          <t>/news,300382,1250430566.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>830</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东拟5.81亿元向晨道锦信转让5%公司股份</t>
+          <t>斯莱克11月23日被深股通减持20.59万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-16 21:18</t>
+          <t>11-24 07:50</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300382,1247594293.html</t>
+          <t>/news,300382,1250420176.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东拟协议转让公司5%股份</t>
+          <t>斯莱克：融资净买入37.78万元，融资余额1.47亿元（11-22）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-16 21:02</t>
+          <t>11-23 08:55</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300382,1247589078.html</t>
+          <t>/news,300382,1249885355.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东科莱思拟协议转让3133万股</t>
+          <t>斯莱克11月22日被深股通减持29.54万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-16 20:50</t>
+          <t>11-23 07:48</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300382,1247591995.html</t>
+          <t>/news,300382,1249875173.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2994</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东拟5.81亿元转让5%股份</t>
+          <t>斯莱克：融资净买入191.22万元，融资余额1.47亿元（11-21）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-16 20:45</t>
+          <t>11-22 08:51</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300382,1247583219.html</t>
+          <t>/news,300382,1249356633.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入1028.39万元，融资余额1.16亿元（11-15）</t>
+          <t>斯莱克11月21日获深股通增持76.7万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-16 08:50</t>
+          <t>11-22 07:58</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300382,1247184024.html</t>
+          <t>/news,300382,1249349790.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>417</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>斯莱克11月15日被深股通减持25.26万股</t>
+          <t>注意！斯莱克将于12月7日召开股东大会</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-16 07:59</t>
+          <t>11-21 18:20</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300382,1247176952.html</t>
+          <t>/news,300382,1249216961.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>905</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>斯莱克收关注函 要求说明临近期末调整当年业绩考核指标是否向特定对象输送利益</t>
+          <t>斯莱克：融资净偿还668.7万元，融资余额1.45亿元（11-18）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,51 +1309,51 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-15 20:44</t>
+          <t>11-21 08:48</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300382,1247110064.html</t>
+          <t>/news,300382,1248872007.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1618</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>深交所向斯莱克发出关注函</t>
+          <t>斯莱克本周融资净买入6124.72万元，居专用设备板块第二</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-15 20:16</t>
+          <t>11-20 15:07</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300382,1247102130.html</t>
+          <t>/news,300382,1248769569.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,61 +1363,61 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：调整员工持股计划考核目标，看好新能源电池壳业务加速落地</t>
+          <t>斯莱克：本周深股通持股量环比减少1%，周内减仓幅度居专用设备板块第十</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-15 16:04</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300382,1247040814.html</t>
+          <t>/news,300382,1248763223.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
+          <t>斯莱克11月18日获深股通增持50.5万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-15 15:54</t>
+          <t>11-19 07:54</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300382,1247037923.html</t>
+          <t>/news,300382,1248638940.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入1556.23万元，融资余额1.06亿元（11-14）</t>
+          <t>斯莱克：连续4日融资净买入累计6124.72万元（11-17）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-15 08:53</t>
+          <t>11-18 08:43</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300382,1246699049.html</t>
+          <t>/news,300382,1248161350.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>斯莱克11月14日获深股通增持45.4万股</t>
+          <t>斯莱克11月17日被深股通减持24.25万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-15 07:57</t>
+          <t>11-18 07:49</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300382,1246691587.html</t>
+          <t>/news,300382,1248153008.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>1955</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还102.38万元，融资余额9017.04万元（11-11）</t>
+          <t>控股股东折价抛售5%股份 下调股权激励业绩考核指标 斯莱克怎么了？</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,51 +1501,51 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-14 08:50</t>
+          <t>11-17 22:48</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300382,1246196749.html</t>
+          <t>/news,300382,1248111014.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>771</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净买入2091.21万元，居专用设备板块第十七</t>
+          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：控股股东拟向晨道锦信转让5%股份，看好电池壳业务加速落地</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-13 15:10</t>
+          <t>11-17 10:56</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300382,1246100709.html</t>
+          <t>/news,300382,1247820995.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,39 +1555,39 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>斯莱克本周深股通持股市值增加1942.17万元，居专用设备板块第七</t>
+          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-17 10:45</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300382,1246093817.html</t>
+          <t>/news,300382,1247807581.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>斯莱克11月11日获深股通增持120.46万股</t>
+          <t>斯莱克：连续3日融资净买入累计4749.52万元（11-16）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-12 07:54</t>
+          <t>11-17 08:48</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300382,1245987393.html</t>
+          <t>/news,300382,1247676677.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1464</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>加码新能源汽车电池壳项目 斯莱克：易拉罐和电池壳工艺有异曲同工处 公司具技术优势</t>
+          <t>斯莱克11月16日被深股通减持63.42万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-11 15:00</t>
+          <t>11-17 08:01</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300382,1245833693.html</t>
+          <t>/news,300382,1247669685.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>857</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还68.91万元，融资余额9119.42万元（11-10）</t>
+          <t>斯莱克：控股股东拟5.81亿元向晨道锦信转让5%公司股份</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-11 08:49</t>
+          <t>11-16 21:18</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300382,1245424379.html</t>
+          <t>/news,300382,1247594293.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>667</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>斯莱克11月10日被深股通减持2.42万股</t>
+          <t>斯莱克：控股股东拟协议转让公司5%股份</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-11 07:49</t>
+          <t>11-16 21:02</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300382,1245412490.html</t>
+          <t>/news,300382,1247589078.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>672</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入488.67万元，融资余额9188.33万元（11-09）</t>
+          <t>斯莱克：控股股东科莱思拟协议转让3133万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-10 08:51</t>
+          <t>11-16 20:50</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300382,1244900382.html</t>
+          <t>/news,300382,1247591995.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>3013</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>斯莱克11月09日被深股通减持9.95万股</t>
+          <t>斯莱克：控股股东拟5.81亿元转让5%股份</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-16 20:45</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300382,1244892113.html</t>
+          <t>/news,300382,1247583219.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入674.73万元，融资余额8699.65万元（11-08）</t>
+          <t>斯莱克：融资净买入1028.39万元，融资余额1.16亿元（11-15）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-09 08:52</t>
+          <t>11-16 08:50</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300382,1244437165.html</t>
+          <t>/news,300382,1247184024.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>斯莱克11月08日获深股通增持2.68万股</t>
+          <t>斯莱克11月15日被深股通减持25.26万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-09 07:49</t>
+          <t>11-16 07:59</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300382,1244427946.html</t>
+          <t>/news,300382,1247176952.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>926</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入996.71万元，融资余额8024.93万元（11-07）</t>
+          <t>斯莱克收关注函 要求说明临近期末调整当年业绩考核指标是否向特定对象输送利益</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-08 08:52</t>
+          <t>11-15 20:44</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300382,1243983604.html</t>
+          <t>/news,300382,1247110064.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>1631</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>斯莱克11月07日被深股通减持33.94万股</t>
+          <t>深交所向斯莱克发出关注函</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-08 07:49</t>
+          <t>11-15 20:16</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300382,1243974416.html</t>
+          <t>/news,300382,1247102130.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>684</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入918.29万元，融资余额7028.21万元（11-04）</t>
+          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：调整员工持股计划考核目标，看好新能源电池壳业务加速落地</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,51 +1917,51 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-07 08:58</t>
+          <t>11-15 16:04</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300382,1243515209.html</t>
+          <t>/news,300382,1247040814.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净买入1565.08万元，居专用设备板块第十八</t>
+          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-06 15:05</t>
+          <t>11-15 15:54</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300382,1243409921.html</t>
+          <t>/news,300382,1247037923.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,39 +1971,39 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>斯莱克本周深股通持股市值减少1557.85万元，居专用设备板块第七</t>
+          <t>斯莱克：融资净买入1556.23万元，融资余额1.06亿元（11-14）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-06 14:05</t>
+          <t>11-15 08:53</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300382,1243404625.html</t>
+          <t>/news,300382,1246699049.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>斯莱克11月04日被深股通减持35.58万股</t>
+          <t>斯莱克11月14日获深股通增持45.4万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-05 07:45</t>
+          <t>11-15 07:57</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300382,1243318004.html</t>
+          <t>/news,300382,1246691587.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入558.01万元，融资余额6109.92万元（11-03）</t>
+          <t>斯莱克：融资净偿还102.38万元，融资余额9017.04万元（11-11）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-04 09:00</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300382,1242828429.html</t>
+          <t>/news,300382,1246196749.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,29 +2067,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>斯莱克11月03日获深股通增持53.19万股</t>
+          <t>斯莱克本周融资净买入2091.21万元，居专用设备板块第十七</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-04 07:54</t>
+          <t>11-13 15:10</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300382,1242818302.html</t>
+          <t>/news,300382,1246100709.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,39 +2099,39 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入686.53万元，融资余额5551.92万元（11-02）</t>
+          <t>斯莱克本周深股通持股市值增加1942.17万元，居专用设备板块第七</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-03 08:52</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300382,1242334266.html</t>
+          <t>/news,300382,1246093817.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>斯莱克11月02日被深股通减持21.91万股</t>
+          <t>斯莱克11月11日获深股通增持120.46万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-03 07:49</t>
+          <t>11-12 07:54</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300382,1242324928.html</t>
+          <t>/news,300382,1245987393.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>1490</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>斯莱克：科莱思有限公司累计质押股数为1350万股</t>
+          <t>加码新能源汽车电池壳项目 斯莱克：易拉罐和电池壳工艺有异曲同工处 公司具技术优势</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-02 19:32</t>
+          <t>11-11 15:00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300382,1242226513.html</t>
+          <t>/news,300382,1245833693.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入99.48万元，融资余额4865.39万元（11-01）</t>
+          <t>斯莱克：融资净偿还68.91万元，融资余额9119.42万元（11-10）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-02 08:52</t>
+          <t>11-11 08:49</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300382,1241809605.html</t>
+          <t>/news,300382,1245424379.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>斯莱克11月01日被深股通减持35.39万股</t>
+          <t>斯莱克11月10日被深股通减持2.42万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-02 08:00</t>
+          <t>11-11 07:49</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300382,1241802844.html</t>
+          <t>/news,300382,1245412490.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入221.06万元，融资余额4765.9万元（10-31）</t>
+          <t>斯莱克：融资净买入488.67万元，融资余额9188.33万元（11-09）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-01 09:04</t>
+          <t>11-10 08:51</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300382,1241307794.html</t>
+          <t>/news,300382,1244900382.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>斯莱克10月31日被深股通减持31.87万股</t>
+          <t>斯莱克11月09日被深股通减持9.95万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-01 07:48</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300382,1241296259.html</t>
+          <t>/news,300382,1244892113.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入454.04万元，融资余额4544.84万元（10-28）</t>
+          <t>斯莱克：融资净买入674.73万元，融资余额8699.65万元（11-08）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-31 09:02</t>
+          <t>11-09 08:52</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300382,1240797967.html</t>
+          <t>/news,300382,1244437165.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,29 +2355,29 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净买入3170.49万元，居专用设备板块第八</t>
+          <t>斯莱克11月08日获深股通增持2.68万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-30 15:16</t>
+          <t>11-09 07:49</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300382,1240714558.html</t>
+          <t>/news,300382,1244427946.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,29 +2387,29 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>斯莱克：本周深股通持股量环比增加10%，周内增仓幅度居专用设备板块第七</t>
+          <t>斯莱克：融资净买入996.71万元，融资余额8024.93万元（11-07）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-30 14:07</t>
+          <t>11-08 08:52</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300382,1240707166.html</t>
+          <t>/news,300382,1243983604.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>斯莱克10月28日获深股通增持32.74万股</t>
+          <t>斯莱克11月07日被深股通减持33.94万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,115 +2429,115 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-29 07:49</t>
+          <t>11-08 07:49</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300382,1240599824.html</t>
+          <t>/news,300382,1243974416.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>765</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>华泰证券维持斯莱克增持评级 目标价27.2元</t>
+          <t>斯莱克：融资净买入918.29万元，融资余额7028.21万元（11-04）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-28 16:13</t>
+          <t>11-07 08:58</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300382,1240453038.html</t>
+          <t>/news,300382,1243515209.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>华金证券首次给予斯莱克增持评级 预计2022年净利润同比增长97.35%</t>
+          <t>斯莱克本周融资净买入1565.08万元，居专用设备板块第十八</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-28 14:42</t>
+          <t>11-06 15:05</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300382,1240396907.html</t>
+          <t>/news,300382,1243409921.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>山西证券首次给予斯莱克买入评级 预计2022年净利润同比增长105.72%</t>
+          <t>斯莱克本周深股通持股市值减少1557.85万元，居专用设备板块第七</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-28 10:51</t>
+          <t>11-06 14:05</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300382,1240213656.html</t>
+          <t>/news,300382,1243404625.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入1865.26万元，融资余额4090.81万元（10-27）</t>
+          <t>斯莱克11月04日被深股通减持35.58万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-28 09:09</t>
+          <t>11-05 07:45</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300382,1240061552.html</t>
+          <t>/news,300382,1243318004.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>斯莱克10月27日获深股通增持19.16万股</t>
+          <t>斯莱克：融资净买入558.01万元，融资余额6109.92万元（11-03）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-28 07:54</t>
+          <t>11-04 09:00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300382,1240048682.html</t>
+          <t>/news,300382,1242828429.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,29 +2611,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>国信证券维持斯莱克买入评级 预计2022年净利润同比增长122.48%</t>
+          <t>斯莱克11月03日获深股通增持53.19万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-27 21:56</t>
+          <t>11-04 07:54</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300382,1239990020.html</t>
+          <t>/news,300382,1242818302.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>国信证券给予斯莱克买入评级 2022年三季报点评：前三季度业绩同比增长155% 新能源电池壳业务加速落地</t>
+          <t>斯莱克：融资净买入686.53万元，融资余额5551.92万元（11-02）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-27 20:22</t>
+          <t>11-03 08:52</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300382,1239963058.html</t>
+          <t>/news,300382,1242334266.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>招商证券维持斯莱克强烈推荐评级 预计2022年净利润同比增长172.75%</t>
+          <t>斯莱克11月02日被深股通减持21.91万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-27 11:33</t>
+          <t>11-03 07:49</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300382,1239680819.html</t>
+          <t>/news,300382,1242324928.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入591.23万元，融资余额2225.55万元（10-26）</t>
+          <t>斯莱克：科莱思有限公司累计质押股数为1350万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-27 09:00</t>
+          <t>11-02 19:32</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300382,1239507987.html</t>
+          <t>/news,300382,1242226513.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>新能源电池壳开启第二增长曲线 斯莱克前三季度净利润增长154.7%</t>
+          <t>斯莱克：融资净买入99.48万元，融资余额4865.39万元（11-01）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-26 18:42</t>
+          <t>11-02 08:52</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300382,1239384850.html</t>
+          <t>/news,300382,1241809605.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,29 +2771,29 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>国金证券维持斯莱克买入评级 预计2022年净利润同比增长109.45%</t>
+          <t>斯莱克11月01日被深股通减持35.39万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-26 15:26</t>
+          <t>11-02 08:00</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300382,1239325106.html</t>
+          <t>/news,300382,1241802844.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,29 +2803,29 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长120.62%</t>
+          <t>斯莱克：融资净买入221.06万元，融资余额4765.9万元（10-31）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-26 11:13</t>
+          <t>11-01 09:04</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300382,1239150791.html</t>
+          <t>/news,300382,1241307794.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入713.99万元，融资余额1634.31万元（10-25）</t>
+          <t>斯莱克10月31日被深股通减持31.87万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-26 09:02</t>
+          <t>11-01 07:48</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300382,1238981382.html</t>
+          <t>/news,300382,1241296259.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>【图解季报】斯莱克：2022年前三季度归母净利润同比大增154.7%，约为1.9亿元</t>
+          <t>斯莱克：融资净买入454.04万元，融资余额4544.84万元（10-28）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-26 08:00</t>
+          <t>10-31 09:02</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300382,1238970690.html</t>
+          <t>/news,300382,1240797967.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>489</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,29 +2899,29 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>斯莱克10月25日获深股通增持61.4万股</t>
+          <t>斯莱克本周融资净买入3170.49万元，居专用设备板块第八</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-26 07:49</t>
+          <t>10-30 15:16</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300382,1238968589.html</t>
+          <t>/news,300382,1240714558.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>468</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,29 +2931,29 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>斯莱克股东户数下降15.90%，户均持股84.12万元</t>
+          <t>斯莱克：本周深股通持股量环比增加10%，周内增仓幅度居专用设备板块第七</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-25 22:10</t>
+          <t>10-30 14:07</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300382,1238909033.html</t>
+          <t>/news,300382,1240707166.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>斯莱克：2022年前三季度净利润约1.89亿元 同比增加154.7%</t>
+          <t>斯莱克10月28日获深股通增持32.74万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,44 +2973,44 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-25 21:14</t>
+          <t>10-29 07:49</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300382,1238895042.html</t>
+          <t>/news,300382,1240599824.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>790</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>注意！斯莱克将于11月10日召开股东大会</t>
+          <t>华泰证券维持斯莱克增持评级 目标价27.2元</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-25 21:14</t>
+          <t>10-28 16:13</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300382,1238894935.html</t>
+          <t>/news,300382,1240453038.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300382.xlsx
+++ b/news_ann/news/tmp/300382.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>112</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>斯莱克：连续7日融资净买入累计1455.71万元（12-02）</t>
+          <t>斯莱克：融资净偿还7.45万元，融资余额1.59亿元（12-05）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-05 09:01</t>
+          <t>12-06 08:52</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300382,1254804851.html</t>
+          <t>/news,300382,1255457862.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>融资融券周汇总：斯莱克本周融资净买入973.98万元</t>
+          <t>斯莱克12月05日获深股通增持95.67万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-06 07:48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300382,1254650560.html</t>
+          <t>/news,300382,1255447699.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,61 +531,61 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>斯莱克：本周深股通持股量环比增加11%，周内增仓幅度居专用设备板块第十</t>
+          <t>斯莱克：连续7日融资净买入累计1455.71万元（12-02）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-04 14:05</t>
+          <t>12-05 09:01</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300382,1254642960.html</t>
+          <t>/news,300382,1254804851.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>斯莱克12月02日获深股通增持38.76万股</t>
+          <t>融资融券周汇总：斯莱克本周融资净买入973.98万元</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-03 07:50</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300382,1254512140.html</t>
+          <t>/news,300382,1254650560.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,39 +595,39 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>斯莱克：连续6日融资净买入累计1339.75万元（12-01）</t>
+          <t>斯莱克：本周深股通持股量环比增加11%，周内增仓幅度居专用设备板块第十</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-02 08:51</t>
+          <t>12-04 14:05</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300382,1253921021.html</t>
+          <t>/news,300382,1254642960.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>斯莱克12月01日获深股通增持46.48万股</t>
+          <t>斯莱克12月02日获深股通增持38.76万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-02 07:48</t>
+          <t>12-03 07:50</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300382,1253912696.html</t>
+          <t>/news,300382,1254512140.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>斯莱克：连续5日融资净买入累计1205.59万元（11-30）</t>
+          <t>斯莱克：连续6日融资净买入累计1339.75万元（12-01）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-01 08:54</t>
+          <t>12-02 08:51</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300382,1253311436.html</t>
+          <t>/news,300382,1253921021.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>斯莱克11月30日获深股通增持33.54万股</t>
+          <t>斯莱克12月01日获深股通增持46.48万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-01 07:50</t>
+          <t>12-02 07:48</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300382,1253301638.html</t>
+          <t>/news,300382,1253912696.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>斯莱克：连续4日融资净买入累计636.44万元（11-29）</t>
+          <t>斯莱克：连续5日融资净买入累计1205.59万元（11-30）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-30 08:48</t>
+          <t>12-01 08:54</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300382,1252786102.html</t>
+          <t>/news,300382,1253311436.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>斯莱克11月29日被深股通减持17.6万股</t>
+          <t>斯莱克11月30日获深股通增持33.54万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-30 07:49</t>
+          <t>12-01 07:50</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300382,1252778282.html</t>
+          <t>/news,300382,1253301638.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>斯莱克：增加投资的产线投产后 将在原有基础上增加约1.2亿只方形电池壳的产能</t>
+          <t>斯莱克：连续4日融资净买入累计636.44万元（11-29）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-29 16:44</t>
+          <t>11-30 08:48</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300382,1252581561.html</t>
+          <t>/news,300382,1252786102.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>斯莱克：连续3日融资净买入累计370.1万元（11-28）</t>
+          <t>斯莱克11月29日被深股通减持17.6万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-29 08:52</t>
+          <t>11-30 07:49</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300382,1252223239.html</t>
+          <t>/news,300382,1252778282.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>1166</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>斯莱克11月28日被深股通减持45.76万股</t>
+          <t>斯莱克：增加投资的产线投产后 将在原有基础上增加约1.2亿只方形电池壳的产能</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-29 07:57</t>
+          <t>11-29 16:44</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300382,1252214588.html</t>
+          <t>/news,300382,1252581561.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入200.71万元，融资余额1.48亿元（11-25）</t>
+          <t>斯莱克：连续3日融资净买入累计370.1万元（11-28）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,83 +893,83 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-28 08:46</t>
+          <t>11-29 08:52</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300382,1251734093.html</t>
+          <t>/news,300382,1252223239.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>融资融券周汇总：斯莱克本周融资净买入154.34万元</t>
+          <t>斯莱克11月28日被深股通减持45.76万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-27 15:06</t>
+          <t>11-29 07:57</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300382,1251589824.html</t>
+          <t>/news,300382,1252214588.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>斯莱克：本周深股通持股量环比增加3%，周内增仓幅度居专用设备板块第九</t>
+          <t>斯莱克：融资净买入200.71万元，融资余额1.48亿元（11-25）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-27 14:06</t>
+          <t>11-28 08:46</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300382,1251584278.html</t>
+          <t>/news,300382,1251734093.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>斯莱克11月25日被深股通减持23.52万股</t>
+          <t>融资融券周汇总：斯莱克本周融资净买入154.34万元</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-26 07:53</t>
+          <t>11-27 15:06</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300382,1251434360.html</t>
+          <t>/news,300382,1251589824.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入165.07万元，融资余额1.46亿元（11-24）</t>
+          <t>斯莱克：本周深股通持股量环比增加3%，周内增仓幅度居专用设备板块第九</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-25 08:50</t>
+          <t>11-27 14:06</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300382,1250951153.html</t>
+          <t>/news,300382,1251584278.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>斯莱克11月24日获深股通增持3.74万股</t>
+          <t>斯莱克11月25日被深股通减持23.52万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-25 07:53</t>
+          <t>11-26 07:53</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300382,1250943768.html</t>
+          <t>/news,300382,1251434360.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还239.73万元，融资余额1.45亿元（11-23）</t>
+          <t>斯莱克：融资净买入165.07万元，融资余额1.46亿元（11-24）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-24 08:56</t>
+          <t>11-25 08:50</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300382,1250430566.html</t>
+          <t>/news,300382,1250951153.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>斯莱克11月23日被深股通减持20.59万股</t>
+          <t>斯莱克11月24日获深股通增持3.74万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-24 07:50</t>
+          <t>11-25 07:53</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300382,1250420176.html</t>
+          <t>/news,300382,1250943768.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入37.78万元，融资余额1.47亿元（11-22）</t>
+          <t>斯莱克：融资净偿还239.73万元，融资余额1.45亿元（11-23）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-23 08:55</t>
+          <t>11-24 08:56</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300382,1249885355.html</t>
+          <t>/news,300382,1250430566.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>斯莱克11月22日被深股通减持29.54万股</t>
+          <t>斯莱克11月23日被深股通减持20.59万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-23 07:48</t>
+          <t>11-24 07:50</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300382,1249875173.html</t>
+          <t>/news,300382,1250420176.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入191.22万元，融资余额1.47亿元（11-21）</t>
+          <t>斯莱克：融资净买入37.78万元，融资余额1.47亿元（11-22）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-22 08:51</t>
+          <t>11-23 08:55</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300382,1249356633.html</t>
+          <t>/news,300382,1249885355.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>斯莱克11月21日获深股通增持76.7万股</t>
+          <t>斯莱克11月22日被深股通减持29.54万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-22 07:58</t>
+          <t>11-23 07:48</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300382,1249349790.html</t>
+          <t>/news,300382,1249875173.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>注意！斯莱克将于12月7日召开股东大会</t>
+          <t>斯莱克：融资净买入191.22万元，融资余额1.47亿元（11-21）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-21 18:20</t>
+          <t>11-22 08:51</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300382,1249216961.html</t>
+          <t>/news,300382,1249356633.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还668.7万元，融资余额1.45亿元（11-18）</t>
+          <t>斯莱克11月21日获深股通增持76.7万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,51 +1309,51 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-21 08:48</t>
+          <t>11-22 07:58</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300382,1248872007.html</t>
+          <t>/news,300382,1249349790.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>428</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净买入6124.72万元，居专用设备板块第二</t>
+          <t>注意！斯莱克将于12月7日召开股东大会</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-20 15:07</t>
+          <t>11-21 18:20</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300382,1248769569.html</t>
+          <t>/news,300382,1249216961.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,29 +1363,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>斯莱克：本周深股通持股量环比减少1%，周内减仓幅度居专用设备板块第十</t>
+          <t>斯莱克：融资净偿还668.7万元，融资余额1.45亿元（11-18）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-21 08:48</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300382,1248763223.html</t>
+          <t>/news,300382,1248872007.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,29 +1395,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>斯莱克11月18日获深股通增持50.5万股</t>
+          <t>斯莱克本周融资净买入6124.72万元，居专用设备板块第二</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-19 07:54</t>
+          <t>11-20 15:07</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300382,1248638940.html</t>
+          <t>/news,300382,1248769569.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,29 +1427,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>斯莱克：连续4日融资净买入累计6124.72万元（11-17）</t>
+          <t>斯莱克：本周深股通持股量环比减少1%，周内减仓幅度居专用设备板块第十</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-18 08:43</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300382,1248161350.html</t>
+          <t>/news,300382,1248763223.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>斯莱克11月17日被深股通减持24.25万股</t>
+          <t>斯莱克11月18日获深股通增持50.5万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-18 07:49</t>
+          <t>11-19 07:54</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300382,1248153008.html</t>
+          <t>/news,300382,1248638940.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1955</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>控股股东折价抛售5%股份 下调股权激励业绩考核指标 斯莱克怎么了？</t>
+          <t>斯莱克：连续4日融资净买入累计6124.72万元（11-17）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-17 22:48</t>
+          <t>11-18 08:43</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300382,1248111014.html</t>
+          <t>/news,300382,1248161350.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>771</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：控股股东拟向晨道锦信转让5%股份，看好电池壳业务加速落地</t>
+          <t>斯莱克11月17日被深股通减持24.25万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,61 +1533,61 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-17 10:56</t>
+          <t>11-18 07:49</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300382,1247820995.html</t>
+          <t>/news,300382,1248153008.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
+          <t>控股股东折价抛售5%股份 下调股权激励业绩考核指标 斯莱克怎么了？</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-17 10:45</t>
+          <t>11-17 22:48</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300382,1247807581.html</t>
+          <t>/news,300382,1248111014.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>776</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>斯莱克：连续3日融资净买入累计4749.52万元（11-16）</t>
+          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：控股股东拟向晨道锦信转让5%股份，看好电池壳业务加速落地</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-17 08:48</t>
+          <t>11-17 10:56</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300382,1247676677.html</t>
+          <t>/news,300382,1247820995.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>斯莱克11月16日被深股通减持63.42万股</t>
+          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-17 08:01</t>
+          <t>11-17 10:45</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300382,1247669685.html</t>
+          <t>/news,300382,1247807581.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>857</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东拟5.81亿元向晨道锦信转让5%公司股份</t>
+          <t>斯莱克：连续3日融资净买入累计4749.52万元（11-16）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-16 21:18</t>
+          <t>11-17 08:48</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300382,1247594293.html</t>
+          <t>/news,300382,1247676677.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东拟协议转让公司5%股份</t>
+          <t>斯莱克11月16日被深股通减持63.42万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-16 21:02</t>
+          <t>11-17 08:01</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300382,1247589078.html</t>
+          <t>/news,300382,1247669685.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>859</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东科莱思拟协议转让3133万股</t>
+          <t>斯莱克：控股股东拟5.81亿元向晨道锦信转让5%公司股份</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-16 20:50</t>
+          <t>11-16 21:18</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300382,1247591995.html</t>
+          <t>/news,300382,1247594293.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>3013</t>
+          <t>667</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东拟5.81亿元转让5%股份</t>
+          <t>斯莱克：控股股东拟协议转让公司5%股份</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-16 20:45</t>
+          <t>11-16 21:02</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300382,1247583219.html</t>
+          <t>/news,300382,1247589078.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>674</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入1028.39万元，融资余额1.16亿元（11-15）</t>
+          <t>斯莱克：控股股东科莱思拟协议转让3133万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-16 08:50</t>
+          <t>11-16 20:50</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300382,1247184024.html</t>
+          <t>/news,300382,1247591995.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>3014</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>斯莱克11月15日被深股通减持25.26万股</t>
+          <t>斯莱克：控股股东拟5.81亿元转让5%股份</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-16 07:59</t>
+          <t>11-16 20:45</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300382,1247176952.html</t>
+          <t>/news,300382,1247583219.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>926</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>斯莱克收关注函 要求说明临近期末调整当年业绩考核指标是否向特定对象输送利益</t>
+          <t>斯莱克：融资净买入1028.39万元，融资余额1.16亿元（11-15）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-15 20:44</t>
+          <t>11-16 08:50</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300382,1247110064.html</t>
+          <t>/news,300382,1247184024.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1631</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>深交所向斯莱克发出关注函</t>
+          <t>斯莱克11月15日被深股通减持25.26万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-15 20:16</t>
+          <t>11-16 07:59</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300382,1247102130.html</t>
+          <t>/news,300382,1247176952.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>684</t>
+          <t>928</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：调整员工持股计划考核目标，看好新能源电池壳业务加速落地</t>
+          <t>斯莱克收关注函 要求说明临近期末调整当年业绩考核指标是否向特定对象输送利益</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,51 +1917,51 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-15 16:04</t>
+          <t>11-15 20:44</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300382,1247040814.html</t>
+          <t>/news,300382,1247110064.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>1632</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
+          <t>深交所向斯莱克发出关注函</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-15 15:54</t>
+          <t>11-15 20:16</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300382,1247037923.html</t>
+          <t>/news,300382,1247102130.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>685</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入1556.23万元，融资余额1.06亿元（11-14）</t>
+          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：调整员工持股计划考核目标，看好新能源电池壳业务加速落地</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,51 +1981,51 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-15 08:53</t>
+          <t>11-15 16:04</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300382,1246699049.html</t>
+          <t>/news,300382,1247040814.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>斯莱克11月14日获深股通增持45.4万股</t>
+          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-15 07:57</t>
+          <t>11-15 15:54</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300382,1246691587.html</t>
+          <t>/news,300382,1247037923.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还102.38万元，融资余额9017.04万元（11-11）</t>
+          <t>斯莱克：融资净买入1556.23万元，融资余额1.06亿元（11-14）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,51 +2045,51 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-14 08:50</t>
+          <t>11-15 08:53</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300382,1246196749.html</t>
+          <t>/news,300382,1246699049.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净买入2091.21万元，居专用设备板块第十七</t>
+          <t>斯莱克11月14日获深股通增持45.4万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-13 15:10</t>
+          <t>11-15 07:57</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300382,1246100709.html</t>
+          <t>/news,300382,1246691587.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,103 +2099,103 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>斯莱克本周深股通持股市值增加1942.17万元，居专用设备板块第七</t>
+          <t>斯莱克：融资净偿还102.38万元，融资余额9017.04万元（11-11）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300382,1246093817.html</t>
+          <t>/news,300382,1246196749.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>斯莱克11月11日获深股通增持120.46万股</t>
+          <t>斯莱克本周融资净买入2091.21万元，居专用设备板块第十七</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-12 07:54</t>
+          <t>11-13 15:10</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300382,1245987393.html</t>
+          <t>/news,300382,1246100709.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1490</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>加码新能源汽车电池壳项目 斯莱克：易拉罐和电池壳工艺有异曲同工处 公司具技术优势</t>
+          <t>斯莱克本周深股通持股市值增加1942.17万元，居专用设备板块第七</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-11 15:00</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300382,1245833693.html</t>
+          <t>/news,300382,1246093817.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还68.91万元，融资余额9119.42万元（11-10）</t>
+          <t>斯莱克11月11日获深股通增持120.46万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-11 08:49</t>
+          <t>11-12 07:54</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300382,1245424379.html</t>
+          <t>/news,300382,1245987393.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>1491</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>斯莱克11月10日被深股通减持2.42万股</t>
+          <t>加码新能源汽车电池壳项目 斯莱克：易拉罐和电池壳工艺有异曲同工处 公司具技术优势</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-11 07:49</t>
+          <t>11-11 15:00</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300382,1245412490.html</t>
+          <t>/news,300382,1245833693.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入488.67万元，融资余额9188.33万元（11-09）</t>
+          <t>斯莱克：融资净偿还68.91万元，融资余额9119.42万元（11-10）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-10 08:51</t>
+          <t>11-11 08:49</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300382,1244900382.html</t>
+          <t>/news,300382,1245424379.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>斯莱克11月09日被深股通减持9.95万股</t>
+          <t>斯莱克11月10日被深股通减持2.42万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-11 07:49</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300382,1244892113.html</t>
+          <t>/news,300382,1245412490.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入674.73万元，融资余额8699.65万元（11-08）</t>
+          <t>斯莱克：融资净买入488.67万元，融资余额9188.33万元（11-09）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-09 08:52</t>
+          <t>11-10 08:51</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300382,1244437165.html</t>
+          <t>/news,300382,1244900382.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>斯莱克11月08日获深股通增持2.68万股</t>
+          <t>斯莱克11月09日被深股通减持9.95万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-09 07:49</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300382,1244427946.html</t>
+          <t>/news,300382,1244892113.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入996.71万元，融资余额8024.93万元（11-07）</t>
+          <t>斯莱克：融资净买入674.73万元，融资余额8699.65万元（11-08）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-08 08:52</t>
+          <t>11-09 08:52</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300382,1243983604.html</t>
+          <t>/news,300382,1244437165.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>斯莱克11月07日被深股通减持33.94万股</t>
+          <t>斯莱克11月08日获深股通增持2.68万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-08 07:49</t>
+          <t>11-09 07:49</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300382,1243974416.html</t>
+          <t>/news,300382,1244427946.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入918.29万元，融资余额7028.21万元（11-04）</t>
+          <t>斯莱克：融资净买入996.71万元，融资余额8024.93万元（11-07）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-07 08:58</t>
+          <t>11-08 08:52</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300382,1243515209.html</t>
+          <t>/news,300382,1243983604.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,29 +2483,29 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净买入1565.08万元，居专用设备板块第十八</t>
+          <t>斯莱克11月07日被深股通减持33.94万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-06 15:05</t>
+          <t>11-08 07:49</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300382,1243409921.html</t>
+          <t>/news,300382,1243974416.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,29 +2515,29 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>斯莱克本周深股通持股市值减少1557.85万元，居专用设备板块第七</t>
+          <t>斯莱克：融资净买入918.29万元，融资余额7028.21万元（11-04）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-06 14:05</t>
+          <t>11-07 08:58</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300382,1243404625.html</t>
+          <t>/news,300382,1243515209.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,29 +2547,29 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>斯莱克11月04日被深股通减持35.58万股</t>
+          <t>斯莱克本周融资净买入1565.08万元，居专用设备板块第十八</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-05 07:45</t>
+          <t>11-06 15:05</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300382,1243318004.html</t>
+          <t>/news,300382,1243409921.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,29 +2579,29 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入558.01万元，融资余额6109.92万元（11-03）</t>
+          <t>斯莱克本周深股通持股市值减少1557.85万元，居专用设备板块第七</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-04 09:00</t>
+          <t>11-06 14:05</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300382,1242828429.html</t>
+          <t>/news,300382,1243404625.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>斯莱克11月03日获深股通增持53.19万股</t>
+          <t>斯莱克11月04日被深股通减持35.58万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-04 07:54</t>
+          <t>11-05 07:45</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300382,1242818302.html</t>
+          <t>/news,300382,1243318004.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入686.53万元，融资余额5551.92万元（11-02）</t>
+          <t>斯莱克：融资净买入558.01万元，融资余额6109.92万元（11-03）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-03 08:52</t>
+          <t>11-04 09:00</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300382,1242334266.html</t>
+          <t>/news,300382,1242828429.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>斯莱克11月02日被深股通减持21.91万股</t>
+          <t>斯莱克11月03日获深股通增持53.19万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-03 07:49</t>
+          <t>11-04 07:54</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300382,1242324928.html</t>
+          <t>/news,300382,1242818302.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>斯莱克：科莱思有限公司累计质押股数为1350万股</t>
+          <t>斯莱克：融资净买入686.53万元，融资余额5551.92万元（11-02）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-02 19:32</t>
+          <t>11-03 08:52</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300382,1242226513.html</t>
+          <t>/news,300382,1242334266.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入99.48万元，融资余额4865.39万元（11-01）</t>
+          <t>斯莱克11月02日被深股通减持21.91万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-02 08:52</t>
+          <t>11-03 07:49</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300382,1241809605.html</t>
+          <t>/news,300382,1242324928.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>斯莱克11月01日被深股通减持35.39万股</t>
+          <t>斯莱克：科莱思有限公司累计质押股数为1350万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-02 08:00</t>
+          <t>11-02 19:32</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300382,1241802844.html</t>
+          <t>/news,300382,1242226513.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入221.06万元，融资余额4765.9万元（10-31）</t>
+          <t>斯莱克：融资净买入99.48万元，融资余额4865.39万元（11-01）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-01 09:04</t>
+          <t>11-02 08:52</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300382,1241307794.html</t>
+          <t>/news,300382,1241809605.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>斯莱克10月31日被深股通减持31.87万股</t>
+          <t>斯莱克11月01日被深股通减持35.39万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-01 07:48</t>
+          <t>11-02 08:00</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300382,1241296259.html</t>
+          <t>/news,300382,1241802844.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入454.04万元，融资余额4544.84万元（10-28）</t>
+          <t>斯莱克：融资净买入221.06万元，融资余额4765.9万元（10-31）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-31 09:02</t>
+          <t>11-01 09:04</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300382,1240797967.html</t>
+          <t>/news,300382,1241307794.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,29 +2899,29 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净买入3170.49万元，居专用设备板块第八</t>
+          <t>斯莱克10月31日被深股通减持31.87万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-30 15:16</t>
+          <t>11-01 07:48</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300382,1240714558.html</t>
+          <t>/news,300382,1241296259.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,29 +2931,29 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>斯莱克：本周深股通持股量环比增加10%，周内增仓幅度居专用设备板块第七</t>
+          <t>斯莱克：融资净买入454.04万元，融资余额4544.84万元（10-28）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-30 14:07</t>
+          <t>10-31 09:02</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300382,1240707166.html</t>
+          <t>/news,300382,1240797967.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>489</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,54 +2963,54 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>斯莱克10月28日获深股通增持32.74万股</t>
+          <t>斯莱克本周融资净买入3170.49万元，居专用设备板块第八</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-29 07:49</t>
+          <t>10-30 15:16</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300382,1240599824.html</t>
+          <t>/news,300382,1240714558.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>790</t>
+          <t>468</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>华泰证券维持斯莱克增持评级 目标价27.2元</t>
+          <t>斯莱克：本周深股通持股量环比增加10%，周内增仓幅度居专用设备板块第七</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-28 16:13</t>
+          <t>10-30 14:07</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300382,1240453038.html</t>
+          <t>/news,300382,1240707166.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300382.xlsx
+++ b/news_ann/news/tmp/300382.xlsx
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还7.45万元，融资余额1.59亿元（12-05）</t>
+          <t>斯莱克：融资净偿还577.03万元，融资余额1.53亿元（12-06）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-06 08:52</t>
+          <t>12-07 09:06</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300382,1255457862.html</t>
+          <t>/news,300382,1256102913.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>斯莱克12月05日获深股通增持95.67万股</t>
+          <t>斯莱克12月06日被深股通减持70.52万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-06 07:48</t>
+          <t>12-07 07:49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300382,1255447699.html</t>
+          <t>/news,300382,1256090991.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>斯莱克：连续7日融资净买入累计1455.71万元（12-02）</t>
+          <t>斯莱克：融资净偿还7.45万元，融资余额1.59亿元（12-05）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-05 09:01</t>
+          <t>12-06 08:52</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300382,1254804851.html</t>
+          <t>/news,300382,1255457862.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>融资融券周汇总：斯莱克本周融资净买入973.98万元</t>
+          <t>斯莱克12月05日获深股通增持95.67万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-06 07:48</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300382,1254650560.html</t>
+          <t>/news,300382,1255447699.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,61 +595,61 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>斯莱克：本周深股通持股量环比增加11%，周内增仓幅度居专用设备板块第十</t>
+          <t>斯莱克：连续7日融资净买入累计1455.71万元（12-02）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-04 14:05</t>
+          <t>12-05 09:01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300382,1254642960.html</t>
+          <t>/news,300382,1254804851.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>斯莱克12月02日获深股通增持38.76万股</t>
+          <t>融资融券周汇总：斯莱克本周融资净买入973.98万元</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-03 07:50</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300382,1254512140.html</t>
+          <t>/news,300382,1254650560.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,39 +659,39 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>斯莱克：连续6日融资净买入累计1339.75万元（12-01）</t>
+          <t>斯莱克：本周深股通持股量环比增加11%，周内增仓幅度居专用设备板块第十</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-02 08:51</t>
+          <t>12-04 14:05</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300382,1253921021.html</t>
+          <t>/news,300382,1254642960.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>541</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>斯莱克12月01日获深股通增持46.48万股</t>
+          <t>斯莱克12月02日获深股通增持38.76万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-02 07:48</t>
+          <t>12-03 07:50</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300382,1253912696.html</t>
+          <t>/news,300382,1254512140.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>斯莱克：连续5日融资净买入累计1205.59万元（11-30）</t>
+          <t>斯莱克：连续6日融资净买入累计1339.75万元（12-01）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-01 08:54</t>
+          <t>12-02 08:51</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300382,1253311436.html</t>
+          <t>/news,300382,1253921021.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>斯莱克11月30日获深股通增持33.54万股</t>
+          <t>斯莱克12月01日获深股通增持46.48万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-01 07:50</t>
+          <t>12-02 07:48</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300382,1253301638.html</t>
+          <t>/news,300382,1253912696.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>斯莱克：连续4日融资净买入累计636.44万元（11-29）</t>
+          <t>斯莱克：连续5日融资净买入累计1205.59万元（11-30）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-30 08:48</t>
+          <t>12-01 08:54</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300382,1252786102.html</t>
+          <t>/news,300382,1253311436.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>斯莱克11月29日被深股通减持17.6万股</t>
+          <t>斯莱克11月30日获深股通增持33.54万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-30 07:49</t>
+          <t>12-01 07:50</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300382,1252778282.html</t>
+          <t>/news,300382,1253301638.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1166</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>斯莱克：增加投资的产线投产后 将在原有基础上增加约1.2亿只方形电池壳的产能</t>
+          <t>斯莱克：连续4日融资净买入累计636.44万元（11-29）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-29 16:44</t>
+          <t>11-30 08:48</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300382,1252581561.html</t>
+          <t>/news,300382,1252786102.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>斯莱克：连续3日融资净买入累计370.1万元（11-28）</t>
+          <t>斯莱克11月29日被深股通减持17.6万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-29 08:52</t>
+          <t>11-30 07:49</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300382,1252223239.html</t>
+          <t>/news,300382,1252778282.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>1229</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>斯莱克11月28日被深股通减持45.76万股</t>
+          <t>斯莱克：增加投资的产线投产后 将在原有基础上增加约1.2亿只方形电池壳的产能</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-29 07:57</t>
+          <t>11-29 16:44</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300382,1252214588.html</t>
+          <t>/news,300382,1252581561.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入200.71万元，融资余额1.48亿元（11-25）</t>
+          <t>斯莱克：连续3日融资净买入累计370.1万元（11-28）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,12 +957,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-28 08:46</t>
+          <t>11-29 08:52</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300382,1251734093.html</t>
+          <t>/news,300382,1252223239.html</t>
         </is>
       </c>
     </row>
@@ -974,66 +974,66 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>融资融券周汇总：斯莱克本周融资净买入154.34万元</t>
+          <t>斯莱克11月28日被深股通减持45.76万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-27 15:06</t>
+          <t>11-29 07:57</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300382,1251589824.html</t>
+          <t>/news,300382,1252214588.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>斯莱克：本周深股通持股量环比增加3%，周内增仓幅度居专用设备板块第九</t>
+          <t>斯莱克：融资净买入200.71万元，融资余额1.48亿元（11-25）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-27 14:06</t>
+          <t>11-28 08:46</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300382,1251584278.html</t>
+          <t>/news,300382,1251734093.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>斯莱克11月25日被深股通减持23.52万股</t>
+          <t>融资融券周汇总：斯莱克本周融资净买入154.34万元</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-26 07:53</t>
+          <t>11-27 15:06</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300382,1251434360.html</t>
+          <t>/news,300382,1251589824.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,29 +1075,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入165.07万元，融资余额1.46亿元（11-24）</t>
+          <t>斯莱克：本周深股通持股量环比增加3%，周内增仓幅度居专用设备板块第九</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-25 08:50</t>
+          <t>11-27 14:06</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300382,1250951153.html</t>
+          <t>/news,300382,1251584278.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>斯莱克11月24日获深股通增持3.74万股</t>
+          <t>斯莱克11月25日被深股通减持23.52万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-25 07:53</t>
+          <t>11-26 07:53</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300382,1250943768.html</t>
+          <t>/news,300382,1251434360.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还239.73万元，融资余额1.45亿元（11-23）</t>
+          <t>斯莱克：融资净买入165.07万元，融资余额1.46亿元（11-24）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-24 08:56</t>
+          <t>11-25 08:50</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300382,1250430566.html</t>
+          <t>/news,300382,1250951153.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>斯莱克11月23日被深股通减持20.59万股</t>
+          <t>斯莱克11月24日获深股通增持3.74万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-24 07:50</t>
+          <t>11-25 07:53</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300382,1250420176.html</t>
+          <t>/news,300382,1250943768.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入37.78万元，融资余额1.47亿元（11-22）</t>
+          <t>斯莱克：融资净偿还239.73万元，融资余额1.45亿元（11-23）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-23 08:55</t>
+          <t>11-24 08:56</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300382,1249885355.html</t>
+          <t>/news,300382,1250430566.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>斯莱克11月22日被深股通减持29.54万股</t>
+          <t>斯莱克11月23日被深股通减持20.59万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-23 07:48</t>
+          <t>11-24 07:50</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300382,1249875173.html</t>
+          <t>/news,300382,1250420176.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入191.22万元，融资余额1.47亿元（11-21）</t>
+          <t>斯莱克：融资净买入37.78万元，融资余额1.47亿元（11-22）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-22 08:51</t>
+          <t>11-23 08:55</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300382,1249356633.html</t>
+          <t>/news,300382,1249885355.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>斯莱克11月21日获深股通增持76.7万股</t>
+          <t>斯莱克11月22日被深股通减持29.54万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-22 07:58</t>
+          <t>11-23 07:48</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300382,1249349790.html</t>
+          <t>/news,300382,1249875173.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>注意！斯莱克将于12月7日召开股东大会</t>
+          <t>斯莱克：融资净买入191.22万元，融资余额1.47亿元（11-21）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-21 18:20</t>
+          <t>11-22 08:51</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300382,1249216961.html</t>
+          <t>/news,300382,1249356633.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还668.7万元，融资余额1.45亿元（11-18）</t>
+          <t>斯莱克11月21日获深股通增持76.7万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,51 +1373,51 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-21 08:48</t>
+          <t>11-22 07:58</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300382,1248872007.html</t>
+          <t>/news,300382,1249349790.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净买入6124.72万元，居专用设备板块第二</t>
+          <t>注意！斯莱克将于12月7日召开股东大会</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-20 15:07</t>
+          <t>11-21 18:20</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300382,1248769569.html</t>
+          <t>/news,300382,1249216961.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,29 +1427,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>斯莱克：本周深股通持股量环比减少1%，周内减仓幅度居专用设备板块第十</t>
+          <t>斯莱克：融资净偿还668.7万元，融资余额1.45亿元（11-18）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-21 08:48</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300382,1248763223.html</t>
+          <t>/news,300382,1248872007.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,29 +1459,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>斯莱克11月18日获深股通增持50.5万股</t>
+          <t>斯莱克本周融资净买入6124.72万元，居专用设备板块第二</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-19 07:54</t>
+          <t>11-20 15:07</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300382,1248638940.html</t>
+          <t>/news,300382,1248769569.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>斯莱克：连续4日融资净买入累计6124.72万元（11-17）</t>
+          <t>斯莱克：本周深股通持股量环比减少1%，周内减仓幅度居专用设备板块第十</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-18 08:43</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300382,1248161350.html</t>
+          <t>/news,300382,1248763223.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>斯莱克11月17日被深股通减持24.25万股</t>
+          <t>斯莱克11月18日获深股通增持50.5万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-18 07:49</t>
+          <t>11-19 07:54</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300382,1248153008.html</t>
+          <t>/news,300382,1248638940.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>控股股东折价抛售5%股份 下调股权激励业绩考核指标 斯莱克怎么了？</t>
+          <t>斯莱克：连续4日融资净买入累计6124.72万元（11-17）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-17 22:48</t>
+          <t>11-18 08:43</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300382,1248111014.html</t>
+          <t>/news,300382,1248161350.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>776</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：控股股东拟向晨道锦信转让5%股份，看好电池壳业务加速落地</t>
+          <t>斯莱克11月17日被深股通减持24.25万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,61 +1597,61 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-17 10:56</t>
+          <t>11-18 07:49</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300382,1247820995.html</t>
+          <t>/news,300382,1248153008.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>1981</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
+          <t>控股股东折价抛售5%股份 下调股权激励业绩考核指标 斯莱克怎么了？</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-17 10:45</t>
+          <t>11-17 22:48</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300382,1247807581.html</t>
+          <t>/news,300382,1248111014.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>778</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>斯莱克：连续3日融资净买入累计4749.52万元（11-16）</t>
+          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：控股股东拟向晨道锦信转让5%股份，看好电池壳业务加速落地</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-17 08:48</t>
+          <t>11-17 10:56</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300382,1247676677.html</t>
+          <t>/news,300382,1247820995.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>斯莱克11月16日被深股通减持63.42万股</t>
+          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-17 08:01</t>
+          <t>11-17 10:45</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300382,1247669685.html</t>
+          <t>/news,300382,1247807581.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东拟5.81亿元向晨道锦信转让5%公司股份</t>
+          <t>斯莱克：连续3日融资净买入累计4749.52万元（11-16）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-16 21:18</t>
+          <t>11-17 08:48</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300382,1247594293.html</t>
+          <t>/news,300382,1247676677.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东拟协议转让公司5%股份</t>
+          <t>斯莱克11月16日被深股通减持63.42万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-16 21:02</t>
+          <t>11-17 08:01</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300382,1247589078.html</t>
+          <t>/news,300382,1247669685.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>861</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东科莱思拟协议转让3133万股</t>
+          <t>斯莱克：控股股东拟5.81亿元向晨道锦信转让5%公司股份</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-16 20:50</t>
+          <t>11-16 21:18</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300382,1247591995.html</t>
+          <t>/news,300382,1247594293.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3014</t>
+          <t>667</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东拟5.81亿元转让5%股份</t>
+          <t>斯莱克：控股股东拟协议转让公司5%股份</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-16 20:45</t>
+          <t>11-16 21:02</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300382,1247583219.html</t>
+          <t>/news,300382,1247589078.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>674</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入1028.39万元，融资余额1.16亿元（11-15）</t>
+          <t>斯莱克：控股股东科莱思拟协议转让3133万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-16 08:50</t>
+          <t>11-16 20:50</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300382,1247184024.html</t>
+          <t>/news,300382,1247591995.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>3014</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>斯莱克11月15日被深股通减持25.26万股</t>
+          <t>斯莱克：控股股东拟5.81亿元转让5%股份</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-16 07:59</t>
+          <t>11-16 20:45</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300382,1247176952.html</t>
+          <t>/news,300382,1247583219.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>斯莱克收关注函 要求说明临近期末调整当年业绩考核指标是否向特定对象输送利益</t>
+          <t>斯莱克：融资净买入1028.39万元，融资余额1.16亿元（11-15）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-15 20:44</t>
+          <t>11-16 08:50</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300382,1247110064.html</t>
+          <t>/news,300382,1247184024.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1632</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>深交所向斯莱克发出关注函</t>
+          <t>斯莱克11月15日被深股通减持25.26万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-15 20:16</t>
+          <t>11-16 07:59</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300382,1247102130.html</t>
+          <t>/news,300382,1247176952.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>929</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：调整员工持股计划考核目标，看好新能源电池壳业务加速落地</t>
+          <t>斯莱克收关注函 要求说明临近期末调整当年业绩考核指标是否向特定对象输送利益</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,51 +1981,51 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-15 16:04</t>
+          <t>11-15 20:44</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300382,1247040814.html</t>
+          <t>/news,300382,1247110064.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>1632</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
+          <t>深交所向斯莱克发出关注函</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-15 15:54</t>
+          <t>11-15 20:16</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300382,1247037923.html</t>
+          <t>/news,300382,1247102130.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>686</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入1556.23万元，融资余额1.06亿元（11-14）</t>
+          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：调整员工持股计划考核目标，看好新能源电池壳业务加速落地</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,51 +2045,51 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-15 08:53</t>
+          <t>11-15 16:04</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300382,1246699049.html</t>
+          <t>/news,300382,1247040814.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>斯莱克11月14日获深股通增持45.4万股</t>
+          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-15 07:57</t>
+          <t>11-15 15:54</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300382,1246691587.html</t>
+          <t>/news,300382,1247037923.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还102.38万元，融资余额9017.04万元（11-11）</t>
+          <t>斯莱克：融资净买入1556.23万元，融资余额1.06亿元（11-14）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,51 +2109,51 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-14 08:50</t>
+          <t>11-15 08:53</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300382,1246196749.html</t>
+          <t>/news,300382,1246699049.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净买入2091.21万元，居专用设备板块第十七</t>
+          <t>斯莱克11月14日获深股通增持45.4万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-13 15:10</t>
+          <t>11-15 07:57</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300382,1246100709.html</t>
+          <t>/news,300382,1246691587.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,103 +2163,103 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>斯莱克本周深股通持股市值增加1942.17万元，居专用设备板块第七</t>
+          <t>斯莱克：融资净偿还102.38万元，融资余额9017.04万元（11-11）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300382,1246093817.html</t>
+          <t>/news,300382,1246196749.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>斯莱克11月11日获深股通增持120.46万股</t>
+          <t>斯莱克本周融资净买入2091.21万元，居专用设备板块第十七</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-12 07:54</t>
+          <t>11-13 15:10</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300382,1245987393.html</t>
+          <t>/news,300382,1246100709.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1491</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>加码新能源汽车电池壳项目 斯莱克：易拉罐和电池壳工艺有异曲同工处 公司具技术优势</t>
+          <t>斯莱克本周深股通持股市值增加1942.17万元，居专用设备板块第七</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-11 15:00</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300382,1245833693.html</t>
+          <t>/news,300382,1246093817.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还68.91万元，融资余额9119.42万元（11-10）</t>
+          <t>斯莱克11月11日获深股通增持120.46万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-11 08:49</t>
+          <t>11-12 07:54</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300382,1245424379.html</t>
+          <t>/news,300382,1245987393.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>1497</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>斯莱克11月10日被深股通减持2.42万股</t>
+          <t>加码新能源汽车电池壳项目 斯莱克：易拉罐和电池壳工艺有异曲同工处 公司具技术优势</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-11 07:49</t>
+          <t>11-11 15:00</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300382,1245412490.html</t>
+          <t>/news,300382,1245833693.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入488.67万元，融资余额9188.33万元（11-09）</t>
+          <t>斯莱克：融资净偿还68.91万元，融资余额9119.42万元（11-10）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-10 08:51</t>
+          <t>11-11 08:49</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300382,1244900382.html</t>
+          <t>/news,300382,1245424379.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>斯莱克11月09日被深股通减持9.95万股</t>
+          <t>斯莱克11月10日被深股通减持2.42万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-11 07:49</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300382,1244892113.html</t>
+          <t>/news,300382,1245412490.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入674.73万元，融资余额8699.65万元（11-08）</t>
+          <t>斯莱克：融资净买入488.67万元，融资余额9188.33万元（11-09）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-09 08:52</t>
+          <t>11-10 08:51</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300382,1244437165.html</t>
+          <t>/news,300382,1244900382.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>斯莱克11月08日获深股通增持2.68万股</t>
+          <t>斯莱克11月09日被深股通减持9.95万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-09 07:49</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300382,1244427946.html</t>
+          <t>/news,300382,1244892113.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入996.71万元，融资余额8024.93万元（11-07）</t>
+          <t>斯莱克：融资净买入674.73万元，融资余额8699.65万元（11-08）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-08 08:52</t>
+          <t>11-09 08:52</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300382,1243983604.html</t>
+          <t>/news,300382,1244437165.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>斯莱克11月07日被深股通减持33.94万股</t>
+          <t>斯莱克11月08日获深股通增持2.68万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-08 07:49</t>
+          <t>11-09 07:49</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300382,1243974416.html</t>
+          <t>/news,300382,1244427946.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入918.29万元，融资余额7028.21万元（11-04）</t>
+          <t>斯莱克：融资净买入996.71万元，融资余额8024.93万元（11-07）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-07 08:58</t>
+          <t>11-08 08:52</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300382,1243515209.html</t>
+          <t>/news,300382,1243983604.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,29 +2547,29 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净买入1565.08万元，居专用设备板块第十八</t>
+          <t>斯莱克11月07日被深股通减持33.94万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-06 15:05</t>
+          <t>11-08 07:49</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300382,1243409921.html</t>
+          <t>/news,300382,1243974416.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,29 +2579,29 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>斯莱克本周深股通持股市值减少1557.85万元，居专用设备板块第七</t>
+          <t>斯莱克：融资净买入918.29万元，融资余额7028.21万元（11-04）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-06 14:05</t>
+          <t>11-07 08:58</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300382,1243404625.html</t>
+          <t>/news,300382,1243515209.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,29 +2611,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>斯莱克11月04日被深股通减持35.58万股</t>
+          <t>斯莱克本周融资净买入1565.08万元，居专用设备板块第十八</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-05 07:45</t>
+          <t>11-06 15:05</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300382,1243318004.html</t>
+          <t>/news,300382,1243409921.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,29 +2643,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入558.01万元，融资余额6109.92万元（11-03）</t>
+          <t>斯莱克本周深股通持股市值减少1557.85万元，居专用设备板块第七</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-04 09:00</t>
+          <t>11-06 14:05</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300382,1242828429.html</t>
+          <t>/news,300382,1243404625.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>斯莱克11月03日获深股通增持53.19万股</t>
+          <t>斯莱克11月04日被深股通减持35.58万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-04 07:54</t>
+          <t>11-05 07:45</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300382,1242818302.html</t>
+          <t>/news,300382,1243318004.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入686.53万元，融资余额5551.92万元（11-02）</t>
+          <t>斯莱克：融资净买入558.01万元，融资余额6109.92万元（11-03）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-03 08:52</t>
+          <t>11-04 09:00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300382,1242334266.html</t>
+          <t>/news,300382,1242828429.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>斯莱克11月02日被深股通减持21.91万股</t>
+          <t>斯莱克11月03日获深股通增持53.19万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-03 07:49</t>
+          <t>11-04 07:54</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300382,1242324928.html</t>
+          <t>/news,300382,1242818302.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>斯莱克：科莱思有限公司累计质押股数为1350万股</t>
+          <t>斯莱克：融资净买入686.53万元，融资余额5551.92万元（11-02）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-02 19:32</t>
+          <t>11-03 08:52</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300382,1242226513.html</t>
+          <t>/news,300382,1242334266.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入99.48万元，融资余额4865.39万元（11-01）</t>
+          <t>斯莱克11月02日被深股通减持21.91万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-02 08:52</t>
+          <t>11-03 07:49</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300382,1241809605.html</t>
+          <t>/news,300382,1242324928.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>斯莱克11月01日被深股通减持35.39万股</t>
+          <t>斯莱克：科莱思有限公司累计质押股数为1350万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-02 08:00</t>
+          <t>11-02 19:32</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300382,1241802844.html</t>
+          <t>/news,300382,1242226513.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入221.06万元，融资余额4765.9万元（10-31）</t>
+          <t>斯莱克：融资净买入99.48万元，融资余额4865.39万元（11-01）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-01 09:04</t>
+          <t>11-02 08:52</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300382,1241307794.html</t>
+          <t>/news,300382,1241809605.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>斯莱克10月31日被深股通减持31.87万股</t>
+          <t>斯莱克11月01日被深股通减持35.39万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-01 07:48</t>
+          <t>11-02 08:00</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300382,1241296259.html</t>
+          <t>/news,300382,1241802844.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入454.04万元，融资余额4544.84万元（10-28）</t>
+          <t>斯莱克：融资净买入221.06万元，融资余额4765.9万元（10-31）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-31 09:02</t>
+          <t>11-01 09:04</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300382,1240797967.html</t>
+          <t>/news,300382,1241307794.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,29 +2963,29 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净买入3170.49万元，居专用设备板块第八</t>
+          <t>斯莱克10月31日被深股通减持31.87万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-30 15:16</t>
+          <t>11-01 07:48</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300382,1240714558.html</t>
+          <t>/news,300382,1241296259.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>斯莱克：本周深股通持股量环比增加10%，周内增仓幅度居专用设备板块第七</t>
+          <t>斯莱克：融资净买入454.04万元，融资余额4544.84万元（10-28）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-30 14:07</t>
+          <t>10-31 09:02</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300382,1240707166.html</t>
+          <t>/news,300382,1240797967.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300382.xlsx
+++ b/news_ann/news/tmp/300382.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>115</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还577.03万元，融资余额1.53亿元（12-06）</t>
+          <t>斯莱克：连续3日融资净偿还累计592.34万元（12-07）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-07 09:06</t>
+          <t>12-08 08:47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300382,1256102913.html</t>
+          <t>/news,300382,1256765657.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>147</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>斯莱克12月06日被深股通减持70.52万股</t>
+          <t>斯莱克12月07日被深股通减持21.34万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-07 07:49</t>
+          <t>12-08 07:54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300382,1256090991.html</t>
+          <t>/news,300382,1256756957.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还7.45万元，融资余额1.59亿元（12-05）</t>
+          <t>斯莱克：融资净偿还577.03万元，融资余额1.53亿元（12-06）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-06 08:52</t>
+          <t>12-07 09:06</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300382,1255457862.html</t>
+          <t>/news,300382,1256102913.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>斯莱克12月05日获深股通增持95.67万股</t>
+          <t>斯莱克12月06日被深股通减持70.52万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-06 07:48</t>
+          <t>12-07 07:49</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300382,1255447699.html</t>
+          <t>/news,300382,1256090991.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>斯莱克：连续7日融资净买入累计1455.71万元（12-02）</t>
+          <t>斯莱克：融资净偿还7.45万元，融资余额1.59亿元（12-05）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-05 09:01</t>
+          <t>12-06 08:52</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300382,1254804851.html</t>
+          <t>/news,300382,1255457862.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>融资融券周汇总：斯莱克本周融资净买入973.98万元</t>
+          <t>斯莱克12月05日获深股通增持95.67万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-06 07:48</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300382,1254650560.html</t>
+          <t>/news,300382,1255447699.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,61 +659,61 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>斯莱克：本周深股通持股量环比增加11%，周内增仓幅度居专用设备板块第十</t>
+          <t>斯莱克：连续7日融资净买入累计1455.71万元（12-02）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-04 14:05</t>
+          <t>12-05 09:01</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300382,1254642960.html</t>
+          <t>/news,300382,1254804851.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>斯莱克12月02日获深股通增持38.76万股</t>
+          <t>融资融券周汇总：斯莱克本周融资净买入973.98万元</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-03 07:50</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300382,1254512140.html</t>
+          <t>/news,300382,1254650560.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,39 +723,39 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>斯莱克：连续6日融资净买入累计1339.75万元（12-01）</t>
+          <t>斯莱克：本周深股通持股量环比增加11%，周内增仓幅度居专用设备板块第十</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-02 08:51</t>
+          <t>12-04 14:05</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300382,1253921021.html</t>
+          <t>/news,300382,1254642960.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>544</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>斯莱克12月01日获深股通增持46.48万股</t>
+          <t>斯莱克12月02日获深股通增持38.76万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-02 07:48</t>
+          <t>12-03 07:50</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300382,1253912696.html</t>
+          <t>/news,300382,1254512140.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>斯莱克：连续5日融资净买入累计1205.59万元（11-30）</t>
+          <t>斯莱克：连续6日融资净买入累计1339.75万元（12-01）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-01 08:54</t>
+          <t>12-02 08:51</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300382,1253311436.html</t>
+          <t>/news,300382,1253921021.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>斯莱克11月30日获深股通增持33.54万股</t>
+          <t>斯莱克12月01日获深股通增持46.48万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-01 07:50</t>
+          <t>12-02 07:48</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300382,1253301638.html</t>
+          <t>/news,300382,1253912696.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>斯莱克：连续4日融资净买入累计636.44万元（11-29）</t>
+          <t>斯莱克：连续5日融资净买入累计1205.59万元（11-30）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-30 08:48</t>
+          <t>12-01 08:54</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300382,1252786102.html</t>
+          <t>/news,300382,1253311436.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>斯莱克11月29日被深股通减持17.6万股</t>
+          <t>斯莱克11月30日获深股通增持33.54万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-30 07:49</t>
+          <t>12-01 07:50</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300382,1252778282.html</t>
+          <t>/news,300382,1253301638.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1229</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>斯莱克：增加投资的产线投产后 将在原有基础上增加约1.2亿只方形电池壳的产能</t>
+          <t>斯莱克：连续4日融资净买入累计636.44万元（11-29）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-29 16:44</t>
+          <t>11-30 08:48</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300382,1252581561.html</t>
+          <t>/news,300382,1252786102.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>斯莱克：连续3日融资净买入累计370.1万元（11-28）</t>
+          <t>斯莱克11月29日被深股通减持17.6万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-29 08:52</t>
+          <t>11-30 07:49</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300382,1252223239.html</t>
+          <t>/news,300382,1252778282.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>1251</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>斯莱克11月28日被深股通减持45.76万股</t>
+          <t>斯莱克：增加投资的产线投产后 将在原有基础上增加约1.2亿只方形电池壳的产能</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-29 07:57</t>
+          <t>11-29 16:44</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300382,1252214588.html</t>
+          <t>/news,300382,1252581561.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入200.71万元，融资余额1.48亿元（11-25）</t>
+          <t>斯莱克：连续3日融资净买入累计370.1万元（11-28）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,83 +1021,83 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-28 08:46</t>
+          <t>11-29 08:52</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300382,1251734093.html</t>
+          <t>/news,300382,1252223239.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>融资融券周汇总：斯莱克本周融资净买入154.34万元</t>
+          <t>斯莱克11月28日被深股通减持45.76万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-27 15:06</t>
+          <t>11-29 07:57</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300382,1251589824.html</t>
+          <t>/news,300382,1252214588.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>斯莱克：本周深股通持股量环比增加3%，周内增仓幅度居专用设备板块第九</t>
+          <t>斯莱克：融资净买入200.71万元，融资余额1.48亿元（11-25）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-27 14:06</t>
+          <t>11-28 08:46</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300382,1251584278.html</t>
+          <t>/news,300382,1251734093.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,29 +1107,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>斯莱克11月25日被深股通减持23.52万股</t>
+          <t>融资融券周汇总：斯莱克本周融资净买入154.34万元</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-26 07:53</t>
+          <t>11-27 15:06</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300382,1251434360.html</t>
+          <t>/news,300382,1251589824.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,29 +1139,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入165.07万元，融资余额1.46亿元（11-24）</t>
+          <t>斯莱克：本周深股通持股量环比增加3%，周内增仓幅度居专用设备板块第九</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-25 08:50</t>
+          <t>11-27 14:06</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300382,1250951153.html</t>
+          <t>/news,300382,1251584278.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>斯莱克11月24日获深股通增持3.74万股</t>
+          <t>斯莱克11月25日被深股通减持23.52万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-25 07:53</t>
+          <t>11-26 07:53</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300382,1250943768.html</t>
+          <t>/news,300382,1251434360.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还239.73万元，融资余额1.45亿元（11-23）</t>
+          <t>斯莱克：融资净买入165.07万元，融资余额1.46亿元（11-24）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-24 08:56</t>
+          <t>11-25 08:50</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300382,1250430566.html</t>
+          <t>/news,300382,1250951153.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>斯莱克11月23日被深股通减持20.59万股</t>
+          <t>斯莱克11月24日获深股通增持3.74万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-24 07:50</t>
+          <t>11-25 07:53</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300382,1250420176.html</t>
+          <t>/news,300382,1250943768.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入37.78万元，融资余额1.47亿元（11-22）</t>
+          <t>斯莱克：融资净偿还239.73万元，融资余额1.45亿元（11-23）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-23 08:55</t>
+          <t>11-24 08:56</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300382,1249885355.html</t>
+          <t>/news,300382,1250430566.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>斯莱克11月22日被深股通减持29.54万股</t>
+          <t>斯莱克11月23日被深股通减持20.59万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-23 07:48</t>
+          <t>11-24 07:50</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300382,1249875173.html</t>
+          <t>/news,300382,1250420176.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入191.22万元，融资余额1.47亿元（11-21）</t>
+          <t>斯莱克：融资净买入37.78万元，融资余额1.47亿元（11-22）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-22 08:51</t>
+          <t>11-23 08:55</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300382,1249356633.html</t>
+          <t>/news,300382,1249885355.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>斯莱克11月21日获深股通增持76.7万股</t>
+          <t>斯莱克11月22日被深股通减持29.54万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-22 07:58</t>
+          <t>11-23 07:48</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300382,1249349790.html</t>
+          <t>/news,300382,1249875173.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>注意！斯莱克将于12月7日召开股东大会</t>
+          <t>斯莱克：融资净买入191.22万元，融资余额1.47亿元（11-21）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-21 18:20</t>
+          <t>11-22 08:51</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300382,1249216961.html</t>
+          <t>/news,300382,1249356633.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还668.7万元，融资余额1.45亿元（11-18）</t>
+          <t>斯莱克11月21日获深股通增持76.7万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,51 +1437,51 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-21 08:48</t>
+          <t>11-22 07:58</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300382,1248872007.html</t>
+          <t>/news,300382,1249349790.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>452</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净买入6124.72万元，居专用设备板块第二</t>
+          <t>注意！斯莱克将于12月7日召开股东大会</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-20 15:07</t>
+          <t>11-21 18:20</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300382,1248769569.html</t>
+          <t>/news,300382,1249216961.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>斯莱克：本周深股通持股量环比减少1%，周内减仓幅度居专用设备板块第十</t>
+          <t>斯莱克：融资净偿还668.7万元，融资余额1.45亿元（11-18）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-21 08:48</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300382,1248763223.html</t>
+          <t>/news,300382,1248872007.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,29 +1523,29 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>斯莱克11月18日获深股通增持50.5万股</t>
+          <t>斯莱克本周融资净买入6124.72万元，居专用设备板块第二</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-19 07:54</t>
+          <t>11-20 15:07</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300382,1248638940.html</t>
+          <t>/news,300382,1248769569.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,29 +1555,29 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>斯莱克：连续4日融资净买入累计6124.72万元（11-17）</t>
+          <t>斯莱克：本周深股通持股量环比减少1%，周内减仓幅度居专用设备板块第十</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-18 08:43</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300382,1248161350.html</t>
+          <t>/news,300382,1248763223.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>斯莱克11月17日被深股通减持24.25万股</t>
+          <t>斯莱克11月18日获深股通增持50.5万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-18 07:49</t>
+          <t>11-19 07:54</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300382,1248153008.html</t>
+          <t>/news,300382,1248638940.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1981</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>控股股东折价抛售5%股份 下调股权激励业绩考核指标 斯莱克怎么了？</t>
+          <t>斯莱克：连续4日融资净买入累计6124.72万元（11-17）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-17 22:48</t>
+          <t>11-18 08:43</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300382,1248111014.html</t>
+          <t>/news,300382,1248161350.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>778</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：控股股东拟向晨道锦信转让5%股份，看好电池壳业务加速落地</t>
+          <t>斯莱克11月17日被深股通减持24.25万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,61 +1661,61 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-17 10:56</t>
+          <t>11-18 07:49</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300382,1247820995.html</t>
+          <t>/news,300382,1248153008.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>1996</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
+          <t>控股股东折价抛售5%股份 下调股权激励业绩考核指标 斯莱克怎么了？</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-17 10:45</t>
+          <t>11-17 22:48</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300382,1247807581.html</t>
+          <t>/news,300382,1248111014.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>781</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>斯莱克：连续3日融资净买入累计4749.52万元（11-16）</t>
+          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：控股股东拟向晨道锦信转让5%股份，看好电池壳业务加速落地</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-17 08:48</t>
+          <t>11-17 10:56</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300382,1247676677.html</t>
+          <t>/news,300382,1247820995.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,29 +1747,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>斯莱克11月16日被深股通减持63.42万股</t>
+          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-17 08:01</t>
+          <t>11-17 10:45</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300382,1247669685.html</t>
+          <t>/news,300382,1247807581.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>861</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东拟5.81亿元向晨道锦信转让5%公司股份</t>
+          <t>斯莱克：连续3日融资净买入累计4749.52万元（11-16）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-16 21:18</t>
+          <t>11-17 08:48</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300382,1247594293.html</t>
+          <t>/news,300382,1247676677.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东拟协议转让公司5%股份</t>
+          <t>斯莱克11月16日被深股通减持63.42万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-16 21:02</t>
+          <t>11-17 08:01</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300382,1247589078.html</t>
+          <t>/news,300382,1247669685.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>862</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东科莱思拟协议转让3133万股</t>
+          <t>斯莱克：控股股东拟5.81亿元向晨道锦信转让5%公司股份</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-16 20:50</t>
+          <t>11-16 21:18</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300382,1247591995.html</t>
+          <t>/news,300382,1247594293.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>3014</t>
+          <t>667</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东拟5.81亿元转让5%股份</t>
+          <t>斯莱克：控股股东拟协议转让公司5%股份</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-16 20:45</t>
+          <t>11-16 21:02</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300382,1247583219.html</t>
+          <t>/news,300382,1247589078.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>674</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入1028.39万元，融资余额1.16亿元（11-15）</t>
+          <t>斯莱克：控股股东科莱思拟协议转让3133万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-16 08:50</t>
+          <t>11-16 20:50</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300382,1247184024.html</t>
+          <t>/news,300382,1247591995.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>3015</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>斯莱克11月15日被深股通减持25.26万股</t>
+          <t>斯莱克：控股股东拟5.81亿元转让5%股份</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-16 07:59</t>
+          <t>11-16 20:45</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300382,1247176952.html</t>
+          <t>/news,300382,1247583219.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>斯莱克收关注函 要求说明临近期末调整当年业绩考核指标是否向特定对象输送利益</t>
+          <t>斯莱克：融资净买入1028.39万元，融资余额1.16亿元（11-15）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-15 20:44</t>
+          <t>11-16 08:50</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300382,1247110064.html</t>
+          <t>/news,300382,1247184024.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1632</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>深交所向斯莱克发出关注函</t>
+          <t>斯莱克11月15日被深股通减持25.26万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-15 20:16</t>
+          <t>11-16 07:59</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300382,1247102130.html</t>
+          <t>/news,300382,1247176952.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>686</t>
+          <t>930</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：调整员工持股计划考核目标，看好新能源电池壳业务加速落地</t>
+          <t>斯莱克收关注函 要求说明临近期末调整当年业绩考核指标是否向特定对象输送利益</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,51 +2045,51 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-15 16:04</t>
+          <t>11-15 20:44</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300382,1247040814.html</t>
+          <t>/news,300382,1247110064.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>1634</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
+          <t>深交所向斯莱克发出关注函</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-15 15:54</t>
+          <t>11-15 20:16</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300382,1247037923.html</t>
+          <t>/news,300382,1247102130.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>687</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入1556.23万元，融资余额1.06亿元（11-14）</t>
+          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：调整员工持股计划考核目标，看好新能源电池壳业务加速落地</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,51 +2109,51 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-15 08:53</t>
+          <t>11-15 16:04</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300382,1246699049.html</t>
+          <t>/news,300382,1247040814.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>斯莱克11月14日获深股通增持45.4万股</t>
+          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-15 07:57</t>
+          <t>11-15 15:54</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300382,1246691587.html</t>
+          <t>/news,300382,1247037923.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还102.38万元，融资余额9017.04万元（11-11）</t>
+          <t>斯莱克：融资净买入1556.23万元，融资余额1.06亿元（11-14）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,51 +2173,51 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-14 08:50</t>
+          <t>11-15 08:53</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300382,1246196749.html</t>
+          <t>/news,300382,1246699049.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净买入2091.21万元，居专用设备板块第十七</t>
+          <t>斯莱克11月14日获深股通增持45.4万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-13 15:10</t>
+          <t>11-15 07:57</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300382,1246100709.html</t>
+          <t>/news,300382,1246691587.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,103 +2227,103 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>斯莱克本周深股通持股市值增加1942.17万元，居专用设备板块第七</t>
+          <t>斯莱克：融资净偿还102.38万元，融资余额9017.04万元（11-11）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300382,1246093817.html</t>
+          <t>/news,300382,1246196749.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>斯莱克11月11日获深股通增持120.46万股</t>
+          <t>斯莱克本周融资净买入2091.21万元，居专用设备板块第十七</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-12 07:54</t>
+          <t>11-13 15:10</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300382,1245987393.html</t>
+          <t>/news,300382,1246100709.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1497</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>加码新能源汽车电池壳项目 斯莱克：易拉罐和电池壳工艺有异曲同工处 公司具技术优势</t>
+          <t>斯莱克本周深股通持股市值增加1942.17万元，居专用设备板块第七</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-11 15:00</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300382,1245833693.html</t>
+          <t>/news,300382,1246093817.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还68.91万元，融资余额9119.42万元（11-10）</t>
+          <t>斯莱克11月11日获深股通增持120.46万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-11 08:49</t>
+          <t>11-12 07:54</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300382,1245424379.html</t>
+          <t>/news,300382,1245987393.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>1501</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>斯莱克11月10日被深股通减持2.42万股</t>
+          <t>加码新能源汽车电池壳项目 斯莱克：易拉罐和电池壳工艺有异曲同工处 公司具技术优势</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-11 07:49</t>
+          <t>11-11 15:00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300382,1245412490.html</t>
+          <t>/news,300382,1245833693.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入488.67万元，融资余额9188.33万元（11-09）</t>
+          <t>斯莱克：融资净偿还68.91万元，融资余额9119.42万元（11-10）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-10 08:51</t>
+          <t>11-11 08:49</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300382,1244900382.html</t>
+          <t>/news,300382,1245424379.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>斯莱克11月09日被深股通减持9.95万股</t>
+          <t>斯莱克11月10日被深股通减持2.42万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-11 07:49</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300382,1244892113.html</t>
+          <t>/news,300382,1245412490.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入674.73万元，融资余额8699.65万元（11-08）</t>
+          <t>斯莱克：融资净买入488.67万元，融资余额9188.33万元（11-09）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-09 08:52</t>
+          <t>11-10 08:51</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300382,1244437165.html</t>
+          <t>/news,300382,1244900382.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>斯莱克11月08日获深股通增持2.68万股</t>
+          <t>斯莱克11月09日被深股通减持9.95万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-09 07:49</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300382,1244427946.html</t>
+          <t>/news,300382,1244892113.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入996.71万元，融资余额8024.93万元（11-07）</t>
+          <t>斯莱克：融资净买入674.73万元，融资余额8699.65万元（11-08）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-08 08:52</t>
+          <t>11-09 08:52</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300382,1243983604.html</t>
+          <t>/news,300382,1244437165.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>斯莱克11月07日被深股通减持33.94万股</t>
+          <t>斯莱克11月08日获深股通增持2.68万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-08 07:49</t>
+          <t>11-09 07:49</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300382,1243974416.html</t>
+          <t>/news,300382,1244427946.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入918.29万元，融资余额7028.21万元（11-04）</t>
+          <t>斯莱克：融资净买入996.71万元，融资余额8024.93万元（11-07）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-07 08:58</t>
+          <t>11-08 08:52</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300382,1243515209.html</t>
+          <t>/news,300382,1243983604.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,29 +2611,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净买入1565.08万元，居专用设备板块第十八</t>
+          <t>斯莱克11月07日被深股通减持33.94万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-06 15:05</t>
+          <t>11-08 07:49</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300382,1243409921.html</t>
+          <t>/news,300382,1243974416.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,29 +2643,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>斯莱克本周深股通持股市值减少1557.85万元，居专用设备板块第七</t>
+          <t>斯莱克：融资净买入918.29万元，融资余额7028.21万元（11-04）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-06 14:05</t>
+          <t>11-07 08:58</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300382,1243404625.html</t>
+          <t>/news,300382,1243515209.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>斯莱克11月04日被深股通减持35.58万股</t>
+          <t>斯莱克本周融资净买入1565.08万元，居专用设备板块第十八</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-05 07:45</t>
+          <t>11-06 15:05</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300382,1243318004.html</t>
+          <t>/news,300382,1243409921.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,29 +2707,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入558.01万元，融资余额6109.92万元（11-03）</t>
+          <t>斯莱克本周深股通持股市值减少1557.85万元，居专用设备板块第七</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-04 09:00</t>
+          <t>11-06 14:05</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300382,1242828429.html</t>
+          <t>/news,300382,1243404625.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>斯莱克11月03日获深股通增持53.19万股</t>
+          <t>斯莱克11月04日被深股通减持35.58万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-04 07:54</t>
+          <t>11-05 07:45</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300382,1242818302.html</t>
+          <t>/news,300382,1243318004.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入686.53万元，融资余额5551.92万元（11-02）</t>
+          <t>斯莱克：融资净买入558.01万元，融资余额6109.92万元（11-03）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-03 08:52</t>
+          <t>11-04 09:00</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300382,1242334266.html</t>
+          <t>/news,300382,1242828429.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>斯莱克11月02日被深股通减持21.91万股</t>
+          <t>斯莱克11月03日获深股通增持53.19万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-03 07:49</t>
+          <t>11-04 07:54</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300382,1242324928.html</t>
+          <t>/news,300382,1242818302.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>斯莱克：科莱思有限公司累计质押股数为1350万股</t>
+          <t>斯莱克：融资净买入686.53万元，融资余额5551.92万元（11-02）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-02 19:32</t>
+          <t>11-03 08:52</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300382,1242226513.html</t>
+          <t>/news,300382,1242334266.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入99.48万元，融资余额4865.39万元（11-01）</t>
+          <t>斯莱克11月02日被深股通减持21.91万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-02 08:52</t>
+          <t>11-03 07:49</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300382,1241809605.html</t>
+          <t>/news,300382,1242324928.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>斯莱克11月01日被深股通减持35.39万股</t>
+          <t>斯莱克：科莱思有限公司累计质押股数为1350万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-02 08:00</t>
+          <t>11-02 19:32</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300382,1241802844.html</t>
+          <t>/news,300382,1242226513.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入221.06万元，融资余额4765.9万元（10-31）</t>
+          <t>斯莱克：融资净买入99.48万元，融资余额4865.39万元（11-01）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-01 09:04</t>
+          <t>11-02 08:52</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300382,1241307794.html</t>
+          <t>/news,300382,1241809605.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>斯莱克10月31日被深股通减持31.87万股</t>
+          <t>斯莱克11月01日被深股通减持35.39万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-01 07:48</t>
+          <t>11-02 08:00</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300382,1241296259.html</t>
+          <t>/news,300382,1241802844.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入454.04万元，融资余额4544.84万元（10-28）</t>
+          <t>斯莱克：融资净买入221.06万元，融资余额4765.9万元（10-31）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-31 09:02</t>
+          <t>11-01 09:04</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300382,1240797967.html</t>
+          <t>/news,300382,1241307794.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300382.xlsx
+++ b/news_ann/news/tmp/300382.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>103</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>斯莱克：连续3日融资净偿还累计592.34万元（12-07）</t>
+          <t>斯莱克：融资净买入161.01万元，融资余额1.55亿元（12-08）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-08 08:47</t>
+          <t>12-09 09:10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300382,1256765657.html</t>
+          <t>/news,300382,1257407473.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>斯莱克12月07日被深股通减持21.34万股</t>
+          <t>斯莱克12月08日被深股通减持2.6万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-08 07:54</t>
+          <t>12-09 07:50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300382,1256756957.html</t>
+          <t>/news,300382,1257393469.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还577.03万元，融资余额1.53亿元（12-06）</t>
+          <t>斯莱克：连续3日融资净偿还累计592.34万元（12-07）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-07 09:06</t>
+          <t>12-08 08:47</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300382,1256102913.html</t>
+          <t>/news,300382,1256765657.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>斯莱克12月06日被深股通减持70.52万股</t>
+          <t>斯莱克12月07日被深股通减持21.34万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-07 07:49</t>
+          <t>12-08 07:54</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300382,1256090991.html</t>
+          <t>/news,300382,1256756957.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还7.45万元，融资余额1.59亿元（12-05）</t>
+          <t>斯莱克：融资净偿还577.03万元，融资余额1.53亿元（12-06）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-06 08:52</t>
+          <t>12-07 09:06</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300382,1255457862.html</t>
+          <t>/news,300382,1256102913.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>斯莱克12月05日获深股通增持95.67万股</t>
+          <t>斯莱克12月06日被深股通减持70.52万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-06 07:48</t>
+          <t>12-07 07:49</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300382,1255447699.html</t>
+          <t>/news,300382,1256090991.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>斯莱克：连续7日融资净买入累计1455.71万元（12-02）</t>
+          <t>斯莱克：融资净偿还7.45万元，融资余额1.59亿元（12-05）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-05 09:01</t>
+          <t>12-06 08:52</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300382,1254804851.html</t>
+          <t>/news,300382,1255457862.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>融资融券周汇总：斯莱克本周融资净买入973.98万元</t>
+          <t>斯莱克12月05日获深股通增持95.67万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-06 07:48</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300382,1254650560.html</t>
+          <t>/news,300382,1255447699.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,61 +723,61 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>斯莱克：本周深股通持股量环比增加11%，周内增仓幅度居专用设备板块第十</t>
+          <t>斯莱克：连续7日融资净买入累计1455.71万元（12-02）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-04 14:05</t>
+          <t>12-05 09:01</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300382,1254642960.html</t>
+          <t>/news,300382,1254804851.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>斯莱克12月02日获深股通增持38.76万股</t>
+          <t>融资融券周汇总：斯莱克本周融资净买入973.98万元</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-03 07:50</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300382,1254512140.html</t>
+          <t>/news,300382,1254650560.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,39 +787,39 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>斯莱克：连续6日融资净买入累计1339.75万元（12-01）</t>
+          <t>斯莱克：本周深股通持股量环比增加11%，周内增仓幅度居专用设备板块第十</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-02 08:51</t>
+          <t>12-04 14:05</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300382,1253921021.html</t>
+          <t>/news,300382,1254642960.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>斯莱克12月01日获深股通增持46.48万股</t>
+          <t>斯莱克12月02日获深股通增持38.76万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-02 07:48</t>
+          <t>12-03 07:50</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300382,1253912696.html</t>
+          <t>/news,300382,1254512140.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>斯莱克：连续5日融资净买入累计1205.59万元（11-30）</t>
+          <t>斯莱克：连续6日融资净买入累计1339.75万元（12-01）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-01 08:54</t>
+          <t>12-02 08:51</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300382,1253311436.html</t>
+          <t>/news,300382,1253921021.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>斯莱克11月30日获深股通增持33.54万股</t>
+          <t>斯莱克12月01日获深股通增持46.48万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-01 07:50</t>
+          <t>12-02 07:48</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300382,1253301638.html</t>
+          <t>/news,300382,1253912696.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>斯莱克：连续4日融资净买入累计636.44万元（11-29）</t>
+          <t>斯莱克：连续5日融资净买入累计1205.59万元（11-30）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-30 08:48</t>
+          <t>12-01 08:54</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300382,1252786102.html</t>
+          <t>/news,300382,1253311436.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>斯莱克11月29日被深股通减持17.6万股</t>
+          <t>斯莱克11月30日获深股通增持33.54万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-30 07:49</t>
+          <t>12-01 07:50</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300382,1252778282.html</t>
+          <t>/news,300382,1253301638.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1251</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>斯莱克：增加投资的产线投产后 将在原有基础上增加约1.2亿只方形电池壳的产能</t>
+          <t>斯莱克：连续4日融资净买入累计636.44万元（11-29）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-29 16:44</t>
+          <t>11-30 08:48</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300382,1252581561.html</t>
+          <t>/news,300382,1252786102.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>斯莱克：连续3日融资净买入累计370.1万元（11-28）</t>
+          <t>斯莱克11月29日被深股通减持17.6万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-29 08:52</t>
+          <t>11-30 07:49</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300382,1252223239.html</t>
+          <t>/news,300382,1252778282.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>1271</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>斯莱克11月28日被深股通减持45.76万股</t>
+          <t>斯莱克：增加投资的产线投产后 将在原有基础上增加约1.2亿只方形电池壳的产能</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-29 07:57</t>
+          <t>11-29 16:44</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300382,1252214588.html</t>
+          <t>/news,300382,1252581561.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入200.71万元，融资余额1.48亿元（11-25）</t>
+          <t>斯莱克：连续3日融资净买入累计370.1万元（11-28）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,83 +1085,83 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-28 08:46</t>
+          <t>11-29 08:52</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300382,1251734093.html</t>
+          <t>/news,300382,1252223239.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>融资融券周汇总：斯莱克本周融资净买入154.34万元</t>
+          <t>斯莱克11月28日被深股通减持45.76万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-27 15:06</t>
+          <t>11-29 07:57</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300382,1251589824.html</t>
+          <t>/news,300382,1252214588.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>斯莱克：本周深股通持股量环比增加3%，周内增仓幅度居专用设备板块第九</t>
+          <t>斯莱克：融资净买入200.71万元，融资余额1.48亿元（11-25）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-27 14:06</t>
+          <t>11-28 08:46</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300382,1251584278.html</t>
+          <t>/news,300382,1251734093.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>斯莱克11月25日被深股通减持23.52万股</t>
+          <t>融资融券周汇总：斯莱克本周融资净买入154.34万元</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-26 07:53</t>
+          <t>11-27 15:06</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300382,1251434360.html</t>
+          <t>/news,300382,1251589824.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,29 +1203,29 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入165.07万元，融资余额1.46亿元（11-24）</t>
+          <t>斯莱克：本周深股通持股量环比增加3%，周内增仓幅度居专用设备板块第九</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-25 08:50</t>
+          <t>11-27 14:06</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300382,1250951153.html</t>
+          <t>/news,300382,1251584278.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>斯莱克11月24日获深股通增持3.74万股</t>
+          <t>斯莱克11月25日被深股通减持23.52万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-25 07:53</t>
+          <t>11-26 07:53</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300382,1250943768.html</t>
+          <t>/news,300382,1251434360.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还239.73万元，融资余额1.45亿元（11-23）</t>
+          <t>斯莱克：融资净买入165.07万元，融资余额1.46亿元（11-24）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-24 08:56</t>
+          <t>11-25 08:50</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300382,1250430566.html</t>
+          <t>/news,300382,1250951153.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>斯莱克11月23日被深股通减持20.59万股</t>
+          <t>斯莱克11月24日获深股通增持3.74万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-24 07:50</t>
+          <t>11-25 07:53</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300382,1250420176.html</t>
+          <t>/news,300382,1250943768.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入37.78万元，融资余额1.47亿元（11-22）</t>
+          <t>斯莱克：融资净偿还239.73万元，融资余额1.45亿元（11-23）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-23 08:55</t>
+          <t>11-24 08:56</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300382,1249885355.html</t>
+          <t>/news,300382,1250430566.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>斯莱克11月22日被深股通减持29.54万股</t>
+          <t>斯莱克11月23日被深股通减持20.59万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-23 07:48</t>
+          <t>11-24 07:50</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300382,1249875173.html</t>
+          <t>/news,300382,1250420176.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入191.22万元，融资余额1.47亿元（11-21）</t>
+          <t>斯莱克：融资净买入37.78万元，融资余额1.47亿元（11-22）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-22 08:51</t>
+          <t>11-23 08:55</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300382,1249356633.html</t>
+          <t>/news,300382,1249885355.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>斯莱克11月21日获深股通增持76.7万股</t>
+          <t>斯莱克11月22日被深股通减持29.54万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-22 07:58</t>
+          <t>11-23 07:48</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300382,1249349790.html</t>
+          <t>/news,300382,1249875173.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>注意！斯莱克将于12月7日召开股东大会</t>
+          <t>斯莱克：融资净买入191.22万元，融资余额1.47亿元（11-21）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-21 18:20</t>
+          <t>11-22 08:51</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300382,1249216961.html</t>
+          <t>/news,300382,1249356633.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还668.7万元，融资余额1.45亿元（11-18）</t>
+          <t>斯莱克11月21日获深股通增持76.7万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,51 +1501,51 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-21 08:48</t>
+          <t>11-22 07:58</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300382,1248872007.html</t>
+          <t>/news,300382,1249349790.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净买入6124.72万元，居专用设备板块第二</t>
+          <t>注意！斯莱克将于12月7日召开股东大会</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-20 15:07</t>
+          <t>11-21 18:20</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300382,1248769569.html</t>
+          <t>/news,300382,1249216961.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,29 +1555,29 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>斯莱克：本周深股通持股量环比减少1%，周内减仓幅度居专用设备板块第十</t>
+          <t>斯莱克：融资净偿还668.7万元，融资余额1.45亿元（11-18）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-21 08:48</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300382,1248763223.html</t>
+          <t>/news,300382,1248872007.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,29 +1587,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>斯莱克11月18日获深股通增持50.5万股</t>
+          <t>斯莱克本周融资净买入6124.72万元，居专用设备板块第二</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-19 07:54</t>
+          <t>11-20 15:07</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300382,1248638940.html</t>
+          <t>/news,300382,1248769569.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>斯莱克：连续4日融资净买入累计6124.72万元（11-17）</t>
+          <t>斯莱克：本周深股通持股量环比减少1%，周内减仓幅度居专用设备板块第十</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-18 08:43</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300382,1248161350.html</t>
+          <t>/news,300382,1248763223.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>斯莱克11月17日被深股通减持24.25万股</t>
+          <t>斯莱克11月18日获深股通增持50.5万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-18 07:49</t>
+          <t>11-19 07:54</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300382,1248153008.html</t>
+          <t>/news,300382,1248638940.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1996</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>控股股东折价抛售5%股份 下调股权激励业绩考核指标 斯莱克怎么了？</t>
+          <t>斯莱克：连续4日融资净买入累计6124.72万元（11-17）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-17 22:48</t>
+          <t>11-18 08:43</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300382,1248111014.html</t>
+          <t>/news,300382,1248161350.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>781</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：控股股东拟向晨道锦信转让5%股份，看好电池壳业务加速落地</t>
+          <t>斯莱克11月17日被深股通减持24.25万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,61 +1725,61 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-17 10:56</t>
+          <t>11-18 07:49</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300382,1247820995.html</t>
+          <t>/news,300382,1248153008.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
+          <t>控股股东折价抛售5%股份 下调股权激励业绩考核指标 斯莱克怎么了？</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-17 10:45</t>
+          <t>11-17 22:48</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300382,1247807581.html</t>
+          <t>/news,300382,1248111014.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>785</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>斯莱克：连续3日融资净买入累计4749.52万元（11-16）</t>
+          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：控股股东拟向晨道锦信转让5%股份，看好电池壳业务加速落地</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-17 08:48</t>
+          <t>11-17 10:56</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300382,1247676677.html</t>
+          <t>/news,300382,1247820995.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>斯莱克11月16日被深股通减持63.42万股</t>
+          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-17 08:01</t>
+          <t>11-17 10:45</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300382,1247669685.html</t>
+          <t>/news,300382,1247807581.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>862</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东拟5.81亿元向晨道锦信转让5%公司股份</t>
+          <t>斯莱克：连续3日融资净买入累计4749.52万元（11-16）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-16 21:18</t>
+          <t>11-17 08:48</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300382,1247594293.html</t>
+          <t>/news,300382,1247676677.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东拟协议转让公司5%股份</t>
+          <t>斯莱克11月16日被深股通减持63.42万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-16 21:02</t>
+          <t>11-17 08:01</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300382,1247589078.html</t>
+          <t>/news,300382,1247669685.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>866</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东科莱思拟协议转让3133万股</t>
+          <t>斯莱克：控股股东拟5.81亿元向晨道锦信转让5%公司股份</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-16 20:50</t>
+          <t>11-16 21:18</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300382,1247591995.html</t>
+          <t>/news,300382,1247594293.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3015</t>
+          <t>668</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东拟5.81亿元转让5%股份</t>
+          <t>斯莱克：控股股东拟协议转让公司5%股份</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-16 20:45</t>
+          <t>11-16 21:02</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300382,1247583219.html</t>
+          <t>/news,300382,1247589078.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>674</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入1028.39万元，融资余额1.16亿元（11-15）</t>
+          <t>斯莱克：控股股东科莱思拟协议转让3133万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-16 08:50</t>
+          <t>11-16 20:50</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300382,1247184024.html</t>
+          <t>/news,300382,1247591995.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>3017</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>斯莱克11月15日被深股通减持25.26万股</t>
+          <t>斯莱克：控股股东拟5.81亿元转让5%股份</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-16 07:59</t>
+          <t>11-16 20:45</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300382,1247176952.html</t>
+          <t>/news,300382,1247583219.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>930</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>斯莱克收关注函 要求说明临近期末调整当年业绩考核指标是否向特定对象输送利益</t>
+          <t>斯莱克：融资净买入1028.39万元，融资余额1.16亿元（11-15）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-15 20:44</t>
+          <t>11-16 08:50</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300382,1247110064.html</t>
+          <t>/news,300382,1247184024.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1634</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>深交所向斯莱克发出关注函</t>
+          <t>斯莱克11月15日被深股通减持25.26万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-15 20:16</t>
+          <t>11-16 07:59</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300382,1247102130.html</t>
+          <t>/news,300382,1247176952.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>687</t>
+          <t>931</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：调整员工持股计划考核目标，看好新能源电池壳业务加速落地</t>
+          <t>斯莱克收关注函 要求说明临近期末调整当年业绩考核指标是否向特定对象输送利益</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,51 +2109,51 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-15 16:04</t>
+          <t>11-15 20:44</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300382,1247040814.html</t>
+          <t>/news,300382,1247110064.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>1634</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
+          <t>深交所向斯莱克发出关注函</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-15 15:54</t>
+          <t>11-15 20:16</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300382,1247037923.html</t>
+          <t>/news,300382,1247102130.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>688</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入1556.23万元，融资余额1.06亿元（11-14）</t>
+          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：调整员工持股计划考核目标，看好新能源电池壳业务加速落地</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,51 +2173,51 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-15 08:53</t>
+          <t>11-15 16:04</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300382,1246699049.html</t>
+          <t>/news,300382,1247040814.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>斯莱克11月14日获深股通增持45.4万股</t>
+          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-15 07:57</t>
+          <t>11-15 15:54</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300382,1246691587.html</t>
+          <t>/news,300382,1247037923.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还102.38万元，融资余额9017.04万元（11-11）</t>
+          <t>斯莱克：融资净买入1556.23万元，融资余额1.06亿元（11-14）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,51 +2237,51 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-14 08:50</t>
+          <t>11-15 08:53</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300382,1246196749.html</t>
+          <t>/news,300382,1246699049.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净买入2091.21万元，居专用设备板块第十七</t>
+          <t>斯莱克11月14日获深股通增持45.4万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-13 15:10</t>
+          <t>11-15 07:57</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300382,1246100709.html</t>
+          <t>/news,300382,1246691587.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,103 +2291,103 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>斯莱克本周深股通持股市值增加1942.17万元，居专用设备板块第七</t>
+          <t>斯莱克：融资净偿还102.38万元，融资余额9017.04万元（11-11）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300382,1246093817.html</t>
+          <t>/news,300382,1246196749.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>斯莱克11月11日获深股通增持120.46万股</t>
+          <t>斯莱克本周融资净买入2091.21万元，居专用设备板块第十七</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-12 07:54</t>
+          <t>11-13 15:10</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300382,1245987393.html</t>
+          <t>/news,300382,1246100709.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1501</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>加码新能源汽车电池壳项目 斯莱克：易拉罐和电池壳工艺有异曲同工处 公司具技术优势</t>
+          <t>斯莱克本周深股通持股市值增加1942.17万元，居专用设备板块第七</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-11 15:00</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300382,1245833693.html</t>
+          <t>/news,300382,1246093817.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还68.91万元，融资余额9119.42万元（11-10）</t>
+          <t>斯莱克11月11日获深股通增持120.46万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-11 08:49</t>
+          <t>11-12 07:54</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300382,1245424379.html</t>
+          <t>/news,300382,1245987393.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>1520</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>斯莱克11月10日被深股通减持2.42万股</t>
+          <t>加码新能源汽车电池壳项目 斯莱克：易拉罐和电池壳工艺有异曲同工处 公司具技术优势</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-11 07:49</t>
+          <t>11-11 15:00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300382,1245412490.html</t>
+          <t>/news,300382,1245833693.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入488.67万元，融资余额9188.33万元（11-09）</t>
+          <t>斯莱克：融资净偿还68.91万元，融资余额9119.42万元（11-10）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-10 08:51</t>
+          <t>11-11 08:49</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300382,1244900382.html</t>
+          <t>/news,300382,1245424379.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>斯莱克11月09日被深股通减持9.95万股</t>
+          <t>斯莱克11月10日被深股通减持2.42万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-11 07:49</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300382,1244892113.html</t>
+          <t>/news,300382,1245412490.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入674.73万元，融资余额8699.65万元（11-08）</t>
+          <t>斯莱克：融资净买入488.67万元，融资余额9188.33万元（11-09）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-09 08:52</t>
+          <t>11-10 08:51</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300382,1244437165.html</t>
+          <t>/news,300382,1244900382.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>斯莱克11月08日获深股通增持2.68万股</t>
+          <t>斯莱克11月09日被深股通减持9.95万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-09 07:49</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300382,1244427946.html</t>
+          <t>/news,300382,1244892113.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入996.71万元，融资余额8024.93万元（11-07）</t>
+          <t>斯莱克：融资净买入674.73万元，融资余额8699.65万元（11-08）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-08 08:52</t>
+          <t>11-09 08:52</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300382,1243983604.html</t>
+          <t>/news,300382,1244437165.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>斯莱克11月07日被深股通减持33.94万股</t>
+          <t>斯莱克11月08日获深股通增持2.68万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-08 07:49</t>
+          <t>11-09 07:49</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300382,1243974416.html</t>
+          <t>/news,300382,1244427946.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入918.29万元，融资余额7028.21万元（11-04）</t>
+          <t>斯莱克：融资净买入996.71万元，融资余额8024.93万元（11-07）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-07 08:58</t>
+          <t>11-08 08:52</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300382,1243515209.html</t>
+          <t>/news,300382,1243983604.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净买入1565.08万元，居专用设备板块第十八</t>
+          <t>斯莱克11月07日被深股通减持33.94万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-06 15:05</t>
+          <t>11-08 07:49</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300382,1243409921.html</t>
+          <t>/news,300382,1243974416.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,29 +2707,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>斯莱克本周深股通持股市值减少1557.85万元，居专用设备板块第七</t>
+          <t>斯莱克：融资净买入918.29万元，融资余额7028.21万元（11-04）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-06 14:05</t>
+          <t>11-07 08:58</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300382,1243404625.html</t>
+          <t>/news,300382,1243515209.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,29 +2739,29 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>斯莱克11月04日被深股通减持35.58万股</t>
+          <t>斯莱克本周融资净买入1565.08万元，居专用设备板块第十八</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-05 07:45</t>
+          <t>11-06 15:05</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300382,1243318004.html</t>
+          <t>/news,300382,1243409921.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,29 +2771,29 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入558.01万元，融资余额6109.92万元（11-03）</t>
+          <t>斯莱克本周深股通持股市值减少1557.85万元，居专用设备板块第七</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-04 09:00</t>
+          <t>11-06 14:05</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300382,1242828429.html</t>
+          <t>/news,300382,1243404625.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>斯莱克11月03日获深股通增持53.19万股</t>
+          <t>斯莱克11月04日被深股通减持35.58万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-04 07:54</t>
+          <t>11-05 07:45</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300382,1242818302.html</t>
+          <t>/news,300382,1243318004.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入686.53万元，融资余额5551.92万元（11-02）</t>
+          <t>斯莱克：融资净买入558.01万元，融资余额6109.92万元（11-03）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-03 08:52</t>
+          <t>11-04 09:00</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300382,1242334266.html</t>
+          <t>/news,300382,1242828429.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>斯莱克11月02日被深股通减持21.91万股</t>
+          <t>斯莱克11月03日获深股通增持53.19万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-03 07:49</t>
+          <t>11-04 07:54</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300382,1242324928.html</t>
+          <t>/news,300382,1242818302.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>斯莱克：科莱思有限公司累计质押股数为1350万股</t>
+          <t>斯莱克：融资净买入686.53万元，融资余额5551.92万元（11-02）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-02 19:32</t>
+          <t>11-03 08:52</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300382,1242226513.html</t>
+          <t>/news,300382,1242334266.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入99.48万元，融资余额4865.39万元（11-01）</t>
+          <t>斯莱克11月02日被深股通减持21.91万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-02 08:52</t>
+          <t>11-03 07:49</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300382,1241809605.html</t>
+          <t>/news,300382,1242324928.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>斯莱克11月01日被深股通减持35.39万股</t>
+          <t>斯莱克：科莱思有限公司累计质押股数为1350万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-02 08:00</t>
+          <t>11-02 19:32</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300382,1241802844.html</t>
+          <t>/news,300382,1242226513.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入221.06万元，融资余额4765.9万元（10-31）</t>
+          <t>斯莱克：融资净买入99.48万元，融资余额4865.39万元（11-01）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-01 09:04</t>
+          <t>11-02 08:52</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300382,1241307794.html</t>
+          <t>/news,300382,1241809605.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300382.xlsx
+++ b/news_ann/news/tmp/300382.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入161.01万元，融资余额1.55亿元（12-08）</t>
+          <t>斯莱克：融资净买入796.52万元，融资余额1.63亿元（12-09）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-09 09:10</t>
+          <t>12-12 09:06</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300382,1257407473.html</t>
+          <t>/news,300382,1258216785.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>斯莱克12月08日被深股通减持2.6万股</t>
+          <t>斯莱克本周融资净偿还431.34万元，居专用设备板块第十四</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-09 07:50</t>
+          <t>12-11 15:06</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300382,1257393469.html</t>
+          <t>/news,300382,1258088726.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,39 +531,39 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>斯莱克：连续3日融资净偿还累计592.34万元（12-07）</t>
+          <t>斯莱克本周被深股通减持53.19万股 最新持股量526.82万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-08 08:47</t>
+          <t>12-11 14:05</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300382,1256765657.html</t>
+          <t>/news,300382,1258081514.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>斯莱克12月07日被深股通减持21.34万股</t>
+          <t>斯莱克12月09日被深股通减持54.39万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-08 07:54</t>
+          <t>12-10 07:52</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300382,1256756957.html</t>
+          <t>/news,300382,1257965070.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还577.03万元，融资余额1.53亿元（12-06）</t>
+          <t>斯莱克：融资净买入161.01万元，融资余额1.55亿元（12-08）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-07 09:06</t>
+          <t>12-09 09:10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300382,1256102913.html</t>
+          <t>/news,300382,1257407473.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>斯莱克12月06日被深股通减持70.52万股</t>
+          <t>斯莱克12月08日被深股通减持2.6万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-07 07:49</t>
+          <t>12-09 07:50</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300382,1256090991.html</t>
+          <t>/news,300382,1257393469.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还7.45万元，融资余额1.59亿元（12-05）</t>
+          <t>斯莱克：连续3日融资净偿还累计592.34万元（12-07）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-06 08:52</t>
+          <t>12-08 08:47</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300382,1255457862.html</t>
+          <t>/news,300382,1256765657.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>斯莱克12月05日获深股通增持95.67万股</t>
+          <t>斯莱克12月07日被深股通减持21.34万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-06 07:48</t>
+          <t>12-08 07:54</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300382,1255447699.html</t>
+          <t>/news,300382,1256756957.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>斯莱克：连续7日融资净买入累计1455.71万元（12-02）</t>
+          <t>斯莱克：融资净偿还577.03万元，融资余额1.53亿元（12-06）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-05 09:01</t>
+          <t>12-07 09:06</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300382,1254804851.html</t>
+          <t>/news,300382,1256102913.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>融资融券周汇总：斯莱克本周融资净买入973.98万元</t>
+          <t>斯莱克12月06日被深股通减持70.52万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-07 07:49</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300382,1254650560.html</t>
+          <t>/news,300382,1256090991.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,39 +787,39 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>斯莱克：本周深股通持股量环比增加11%，周内增仓幅度居专用设备板块第十</t>
+          <t>斯莱克：融资净偿还7.45万元，融资余额1.59亿元（12-05）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-04 14:05</t>
+          <t>12-06 08:52</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300382,1254642960.html</t>
+          <t>/news,300382,1255457862.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>斯莱克12月02日获深股通增持38.76万股</t>
+          <t>斯莱克12月05日获深股通增持95.67万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-03 07:50</t>
+          <t>12-06 07:48</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300382,1254512140.html</t>
+          <t>/news,300382,1255447699.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>斯莱克：连续6日融资净买入累计1339.75万元（12-01）</t>
+          <t>斯莱克：连续7日融资净买入累计1455.71万元（12-02）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,51 +861,51 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-02 08:51</t>
+          <t>12-05 09:01</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300382,1253921021.html</t>
+          <t>/news,300382,1254804851.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>斯莱克12月01日获深股通增持46.48万股</t>
+          <t>融资融券周汇总：斯莱克本周融资净买入973.98万元</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-02 07:48</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300382,1253912696.html</t>
+          <t>/news,300382,1254650560.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,39 +915,39 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>斯莱克：连续5日融资净买入累计1205.59万元（11-30）</t>
+          <t>斯莱克：本周深股通持股量环比增加11%，周内增仓幅度居专用设备板块第十</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-01 08:54</t>
+          <t>12-04 14:05</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300382,1253311436.html</t>
+          <t>/news,300382,1254642960.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>斯莱克11月30日获深股通增持33.54万股</t>
+          <t>斯莱克12月02日获深股通增持38.76万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-01 07:50</t>
+          <t>12-03 07:50</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300382,1253301638.html</t>
+          <t>/news,300382,1254512140.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>斯莱克：连续4日融资净买入累计636.44万元（11-29）</t>
+          <t>斯莱克：连续6日融资净买入累计1339.75万元（12-01）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-30 08:48</t>
+          <t>12-02 08:51</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300382,1252786102.html</t>
+          <t>/news,300382,1253921021.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>斯莱克11月29日被深股通减持17.6万股</t>
+          <t>斯莱克12月01日获深股通增持46.48万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-30 07:49</t>
+          <t>12-02 07:48</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300382,1252778282.html</t>
+          <t>/news,300382,1253912696.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1271</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>斯莱克：增加投资的产线投产后 将在原有基础上增加约1.2亿只方形电池壳的产能</t>
+          <t>斯莱克：连续5日融资净买入累计1205.59万元（11-30）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-29 16:44</t>
+          <t>12-01 08:54</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300382,1252581561.html</t>
+          <t>/news,300382,1253311436.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>斯莱克：连续3日融资净买入累计370.1万元（11-28）</t>
+          <t>斯莱克11月30日获深股通增持33.54万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-29 08:52</t>
+          <t>12-01 07:50</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300382,1252223239.html</t>
+          <t>/news,300382,1253301638.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>斯莱克11月28日被深股通减持45.76万股</t>
+          <t>斯莱克：连续4日融资净买入累计636.44万元（11-29）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-29 07:57</t>
+          <t>11-30 08:48</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300382,1252214588.html</t>
+          <t>/news,300382,1252786102.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入200.71万元，融资余额1.48亿元（11-25）</t>
+          <t>斯莱克11月29日被深股通减持17.6万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,51 +1149,51 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-28 08:46</t>
+          <t>11-30 07:49</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300382,1251734093.html</t>
+          <t>/news,300382,1252778282.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>1291</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>融资融券周汇总：斯莱克本周融资净买入154.34万元</t>
+          <t>斯莱克：增加投资的产线投产后 将在原有基础上增加约1.2亿只方形电池壳的产能</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-27 15:06</t>
+          <t>11-29 16:44</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300382,1251589824.html</t>
+          <t>/news,300382,1252581561.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,39 +1203,39 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>斯莱克：本周深股通持股量环比增加3%，周内增仓幅度居专用设备板块第九</t>
+          <t>斯莱克：连续3日融资净买入累计370.1万元（11-28）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-27 14:06</t>
+          <t>11-29 08:52</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300382,1251584278.html</t>
+          <t>/news,300382,1252223239.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>斯莱克11月25日被深股通减持23.52万股</t>
+          <t>斯莱克11月28日被深股通减持45.76万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-26 07:53</t>
+          <t>11-29 07:57</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300382,1251434360.html</t>
+          <t>/news,300382,1252214588.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入165.07万元，融资余额1.46亿元（11-24）</t>
+          <t>斯莱克：融资净买入200.71万元，融资余额1.48亿元（11-25）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-25 08:50</t>
+          <t>11-28 08:46</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300382,1250951153.html</t>
+          <t>/news,300382,1251734093.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,71 +1299,71 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>斯莱克11月24日获深股通增持3.74万股</t>
+          <t>融资融券周汇总：斯莱克本周融资净买入154.34万元</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-25 07:53</t>
+          <t>11-27 15:06</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300382,1250943768.html</t>
+          <t>/news,300382,1251589824.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还239.73万元，融资余额1.45亿元（11-23）</t>
+          <t>斯莱克：本周深股通持股量环比增加3%，周内增仓幅度居专用设备板块第九</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-24 08:56</t>
+          <t>11-27 14:06</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300382,1250430566.html</t>
+          <t>/news,300382,1251584278.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>斯莱克11月23日被深股通减持20.59万股</t>
+          <t>斯莱克11月25日被深股通减持23.52万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-24 07:50</t>
+          <t>11-26 07:53</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300382,1250420176.html</t>
+          <t>/news,300382,1251434360.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入37.78万元，融资余额1.47亿元（11-22）</t>
+          <t>斯莱克：融资净买入165.07万元，融资余额1.46亿元（11-24）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-23 08:55</t>
+          <t>11-25 08:50</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300382,1249885355.html</t>
+          <t>/news,300382,1250951153.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>斯莱克11月22日被深股通减持29.54万股</t>
+          <t>斯莱克11月24日获深股通增持3.74万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-23 07:48</t>
+          <t>11-25 07:53</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300382,1249875173.html</t>
+          <t>/news,300382,1250943768.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入191.22万元，融资余额1.47亿元（11-21）</t>
+          <t>斯莱克：融资净偿还239.73万元，融资余额1.45亿元（11-23）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-22 08:51</t>
+          <t>11-24 08:56</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300382,1249356633.html</t>
+          <t>/news,300382,1250430566.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>斯莱克11月21日获深股通增持76.7万股</t>
+          <t>斯莱克11月23日被深股通减持20.59万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-22 07:58</t>
+          <t>11-24 07:50</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300382,1249349790.html</t>
+          <t>/news,300382,1250420176.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>注意！斯莱克将于12月7日召开股东大会</t>
+          <t>斯莱克：融资净买入37.78万元，融资余额1.47亿元（11-22）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-21 18:20</t>
+          <t>11-23 08:55</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300382,1249216961.html</t>
+          <t>/news,300382,1249885355.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还668.7万元，融资余额1.45亿元（11-18）</t>
+          <t>斯莱克11月22日被深股通减持29.54万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-21 08:48</t>
+          <t>11-23 07:48</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300382,1248872007.html</t>
+          <t>/news,300382,1249875173.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,29 +1587,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净买入6124.72万元，居专用设备板块第二</t>
+          <t>斯莱克：融资净买入191.22万元，融资余额1.47亿元（11-21）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-20 15:07</t>
+          <t>11-22 08:51</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300382,1248769569.html</t>
+          <t>/news,300382,1249356633.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,39 +1619,39 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>斯莱克：本周深股通持股量环比减少1%，周内减仓幅度居专用设备板块第十</t>
+          <t>斯莱克11月21日获深股通增持76.7万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-22 07:58</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300382,1248763223.html</t>
+          <t>/news,300382,1249349790.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>斯莱克11月18日获深股通增持50.5万股</t>
+          <t>注意！斯莱克将于12月7日召开股东大会</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-19 07:54</t>
+          <t>11-21 18:20</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300382,1248638940.html</t>
+          <t>/news,300382,1249216961.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>斯莱克：连续4日融资净买入累计6124.72万元（11-17）</t>
+          <t>斯莱克：融资净偿还668.7万元，融资余额1.45亿元（11-18）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-18 08:43</t>
+          <t>11-21 08:48</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300382,1248161350.html</t>
+          <t>/news,300382,1248872007.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,71 +1715,71 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>斯莱克11月17日被深股通减持24.25万股</t>
+          <t>斯莱克本周融资净买入6124.72万元，居专用设备板块第二</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-18 07:49</t>
+          <t>11-20 15:07</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300382,1248153008.html</t>
+          <t>/news,300382,1248769569.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>控股股东折价抛售5%股份 下调股权激励业绩考核指标 斯莱克怎么了？</t>
+          <t>斯莱克：本周深股通持股量环比减少1%，周内减仓幅度居专用设备板块第十</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-17 22:48</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300382,1248111014.html</t>
+          <t>/news,300382,1248763223.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>785</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：控股股东拟向晨道锦信转让5%股份，看好电池壳业务加速落地</t>
+          <t>斯莱克11月18日获深股通增持50.5万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-17 10:56</t>
+          <t>11-19 07:54</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300382,1247820995.html</t>
+          <t>/news,300382,1248638940.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
+          <t>斯莱克：连续4日融资净买入累计6124.72万元（11-17）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-17 10:45</t>
+          <t>11-18 08:43</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300382,1247807581.html</t>
+          <t>/news,300382,1248161350.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>斯莱克：连续3日融资净买入累计4749.52万元（11-16）</t>
+          <t>斯莱克11月17日被深股通减持24.25万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-17 08:48</t>
+          <t>11-18 07:49</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300382,1247676677.html</t>
+          <t>/news,300382,1248153008.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>斯莱克11月16日被深股通减持63.42万股</t>
+          <t>控股股东折价抛售5%股份 下调股权激励业绩考核指标 斯莱克怎么了？</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-17 08:01</t>
+          <t>11-17 22:48</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300382,1247669685.html</t>
+          <t>/news,300382,1248111014.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>866</t>
+          <t>788</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东拟5.81亿元向晨道锦信转让5%公司股份</t>
+          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：控股股东拟向晨道锦信转让5%股份，看好电池壳业务加速落地</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-16 21:18</t>
+          <t>11-17 10:56</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300382,1247594293.html</t>
+          <t>/news,300382,1247820995.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>668</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,39 +1939,39 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东拟协议转让公司5%股份</t>
+          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-16 21:02</t>
+          <t>11-17 10:45</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300382,1247589078.html</t>
+          <t>/news,300382,1247807581.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东科莱思拟协议转让3133万股</t>
+          <t>斯莱克：连续3日融资净买入累计4749.52万元（11-16）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-16 20:50</t>
+          <t>11-17 08:48</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300382,1247591995.html</t>
+          <t>/news,300382,1247676677.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>3017</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东拟5.81亿元转让5%股份</t>
+          <t>斯莱克11月16日被深股通减持63.42万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-16 20:45</t>
+          <t>11-17 08:01</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300382,1247583219.html</t>
+          <t>/news,300382,1247669685.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>870</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入1028.39万元，融资余额1.16亿元（11-15）</t>
+          <t>斯莱克：控股股东拟5.81亿元向晨道锦信转让5%公司股份</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-16 08:50</t>
+          <t>11-16 21:18</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300382,1247184024.html</t>
+          <t>/news,300382,1247594293.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>671</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>斯莱克11月15日被深股通减持25.26万股</t>
+          <t>斯莱克：控股股东拟协议转让公司5%股份</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-16 07:59</t>
+          <t>11-16 21:02</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300382,1247176952.html</t>
+          <t>/news,300382,1247589078.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>931</t>
+          <t>676</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>斯莱克收关注函 要求说明临近期末调整当年业绩考核指标是否向特定对象输送利益</t>
+          <t>斯莱克：控股股东科莱思拟协议转让3133万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-15 20:44</t>
+          <t>11-16 20:50</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300382,1247110064.html</t>
+          <t>/news,300382,1247591995.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1634</t>
+          <t>3020</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>深交所向斯莱克发出关注函</t>
+          <t>斯莱克：控股股东拟5.81亿元转让5%股份</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-15 20:16</t>
+          <t>11-16 20:45</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300382,1247102130.html</t>
+          <t>/news,300382,1247583219.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>688</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：调整员工持股计划考核目标，看好新能源电池壳业务加速落地</t>
+          <t>斯莱克：融资净买入1028.39万元，融资余额1.16亿元（11-15）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,61 +2173,61 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-15 16:04</t>
+          <t>11-16 08:50</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300382,1247040814.html</t>
+          <t>/news,300382,1247184024.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
+          <t>斯莱克11月15日被深股通减持25.26万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-15 15:54</t>
+          <t>11-16 07:59</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300382,1247037923.html</t>
+          <t>/news,300382,1247176952.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>935</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入1556.23万元，融资余额1.06亿元（11-14）</t>
+          <t>斯莱克收关注函 要求说明临近期末调整当年业绩考核指标是否向特定对象输送利益</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-15 08:53</t>
+          <t>11-15 20:44</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300382,1246699049.html</t>
+          <t>/news,300382,1247110064.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>1636</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>斯莱克11月14日获深股通增持45.4万股</t>
+          <t>深交所向斯莱克发出关注函</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-15 07:57</t>
+          <t>11-15 20:16</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300382,1246691587.html</t>
+          <t>/news,300382,1247102130.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>689</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还102.38万元，融资余额9017.04万元（11-11）</t>
+          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：调整员工持股计划考核目标，看好新能源电池壳业务加速落地</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,51 +2301,51 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-14 08:50</t>
+          <t>11-15 16:04</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300382,1246196749.html</t>
+          <t>/news,300382,1247040814.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净买入2091.21万元，居专用设备板块第十七</t>
+          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-13 15:10</t>
+          <t>11-15 15:54</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300382,1246100709.html</t>
+          <t>/news,300382,1247037923.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,39 +2355,39 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>斯莱克本周深股通持股市值增加1942.17万元，居专用设备板块第七</t>
+          <t>斯莱克：融资净买入1556.23万元，融资余额1.06亿元（11-14）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-15 08:53</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300382,1246093817.html</t>
+          <t>/news,300382,1246699049.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>斯莱克11月11日获深股通增持120.46万股</t>
+          <t>斯莱克11月14日获深股通增持45.4万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-12 07:54</t>
+          <t>11-15 07:57</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300382,1245987393.html</t>
+          <t>/news,300382,1246691587.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1520</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>加码新能源汽车电池壳项目 斯莱克：易拉罐和电池壳工艺有异曲同工处 公司具技术优势</t>
+          <t>斯莱克：融资净偿还102.38万元，融资余额9017.04万元（11-11）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-11 15:00</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300382,1245833693.html</t>
+          <t>/news,300382,1246196749.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,29 +2451,29 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还68.91万元，融资余额9119.42万元（11-10）</t>
+          <t>斯莱克本周融资净买入2091.21万元，居专用设备板块第十七</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-11 08:49</t>
+          <t>11-13 15:10</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300382,1245424379.html</t>
+          <t>/news,300382,1246100709.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,39 +2483,39 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>斯莱克11月10日被深股通减持2.42万股</t>
+          <t>斯莱克本周深股通持股市值增加1942.17万元，居专用设备板块第七</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-11 07:49</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300382,1245412490.html</t>
+          <t>/news,300382,1246093817.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>442</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入488.67万元，融资余额9188.33万元（11-09）</t>
+          <t>斯莱克11月11日获深股通增持120.46万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-10 08:51</t>
+          <t>11-12 07:54</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300382,1244900382.html</t>
+          <t>/news,300382,1245987393.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>1528</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>斯莱克11月09日被深股通减持9.95万股</t>
+          <t>加码新能源汽车电池壳项目 斯莱克：易拉罐和电池壳工艺有异曲同工处 公司具技术优势</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-11 15:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300382,1244892113.html</t>
+          <t>/news,300382,1245833693.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入674.73万元，融资余额8699.65万元（11-08）</t>
+          <t>斯莱克：融资净偿还68.91万元，融资余额9119.42万元（11-10）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-09 08:52</t>
+          <t>11-11 08:49</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300382,1244437165.html</t>
+          <t>/news,300382,1245424379.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>斯莱克11月08日获深股通增持2.68万股</t>
+          <t>斯莱克11月10日被深股通减持2.42万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-09 07:49</t>
+          <t>11-11 07:49</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300382,1244427946.html</t>
+          <t>/news,300382,1245412490.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入996.71万元，融资余额8024.93万元（11-07）</t>
+          <t>斯莱克：融资净买入488.67万元，融资余额9188.33万元（11-09）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-08 08:52</t>
+          <t>11-10 08:51</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300382,1243983604.html</t>
+          <t>/news,300382,1244900382.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>斯莱克11月07日被深股通减持33.94万股</t>
+          <t>斯莱克11月09日被深股通减持9.95万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-08 07:49</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300382,1243974416.html</t>
+          <t>/news,300382,1244892113.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入918.29万元，融资余额7028.21万元（11-04）</t>
+          <t>斯莱克：融资净买入674.73万元，融资余额8699.65万元（11-08）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-07 08:58</t>
+          <t>11-09 08:52</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300382,1243515209.html</t>
+          <t>/news,300382,1244437165.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,29 +2739,29 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净买入1565.08万元，居专用设备板块第十八</t>
+          <t>斯莱克11月08日获深股通增持2.68万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-06 15:05</t>
+          <t>11-09 07:49</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300382,1243409921.html</t>
+          <t>/news,300382,1244427946.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,29 +2771,29 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>斯莱克本周深股通持股市值减少1557.85万元，居专用设备板块第七</t>
+          <t>斯莱克：融资净买入996.71万元，融资余额8024.93万元（11-07）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-06 14:05</t>
+          <t>11-08 08:52</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300382,1243404625.html</t>
+          <t>/news,300382,1243983604.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>斯莱克11月04日被深股通减持35.58万股</t>
+          <t>斯莱克11月07日被深股通减持33.94万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-05 07:45</t>
+          <t>11-08 07:49</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300382,1243318004.html</t>
+          <t>/news,300382,1243974416.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入558.01万元，融资余额6109.92万元（11-03）</t>
+          <t>斯莱克：融资净买入918.29万元，融资余额7028.21万元（11-04）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-04 09:00</t>
+          <t>11-07 08:58</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300382,1242828429.html</t>
+          <t>/news,300382,1243515209.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,29 +2867,29 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>斯莱克11月03日获深股通增持53.19万股</t>
+          <t>斯莱克本周融资净买入1565.08万元，居专用设备板块第十八</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-04 07:54</t>
+          <t>11-06 15:05</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300382,1242818302.html</t>
+          <t>/news,300382,1243409921.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,29 +2899,29 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入686.53万元，融资余额5551.92万元（11-02）</t>
+          <t>斯莱克本周深股通持股市值减少1557.85万元，居专用设备板块第七</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-03 08:52</t>
+          <t>11-06 14:05</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300382,1242334266.html</t>
+          <t>/news,300382,1243404625.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>斯莱克11月02日被深股通减持21.91万股</t>
+          <t>斯莱克11月04日被深股通减持35.58万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-03 07:49</t>
+          <t>11-05 07:45</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300382,1242324928.html</t>
+          <t>/news,300382,1243318004.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>斯莱克：科莱思有限公司累计质押股数为1350万股</t>
+          <t>斯莱克：融资净买入558.01万元，融资余额6109.92万元（11-03）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-02 19:32</t>
+          <t>11-04 09:00</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300382,1242226513.html</t>
+          <t>/news,300382,1242828429.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入99.48万元，融资余额4865.39万元（11-01）</t>
+          <t>斯莱克11月03日获深股通增持53.19万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-02 08:52</t>
+          <t>11-04 07:54</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300382,1241809605.html</t>
+          <t>/news,300382,1242818302.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300382.xlsx
+++ b/news_ann/news/tmp/300382.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>113</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入796.52万元，融资余额1.63亿元（12-09）</t>
+          <t>斯莱克：融资净偿还120.54万元，融资余额1.62亿元（12-12）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-12 09:06</t>
+          <t>12-13 08:58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300382,1258216785.html</t>
+          <t>/news,300382,1258770644.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>143</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,93 +499,93 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净偿还431.34万元，居专用设备板块第十四</t>
+          <t>斯莱克12月12日被深股通减持35.16万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-11 15:06</t>
+          <t>12-13 07:50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300382,1258088726.html</t>
+          <t>/news,300382,1258761183.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>斯莱克本周被深股通减持53.19万股 最新持股量526.82万股</t>
+          <t>斯莱克：融资净买入796.52万元，融资余额1.63亿元（12-09）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-11 14:05</t>
+          <t>12-12 09:06</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300382,1258081514.html</t>
+          <t>/news,300382,1258216785.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>斯莱克12月09日被深股通减持54.39万股</t>
+          <t>斯莱克本周融资净偿还431.34万元，居专用设备板块第十四</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-10 07:52</t>
+          <t>12-11 15:06</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300382,1257965070.html</t>
+          <t>/news,300382,1258088726.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,39 +595,39 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入161.01万元，融资余额1.55亿元（12-08）</t>
+          <t>斯莱克本周被深股通减持53.19万股 最新持股量526.82万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-09 09:10</t>
+          <t>12-11 14:05</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300382,1257407473.html</t>
+          <t>/news,300382,1258081514.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>428</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>斯莱克12月08日被深股通减持2.6万股</t>
+          <t>斯莱克12月09日被深股通减持54.39万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-09 07:50</t>
+          <t>12-10 07:52</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300382,1257393469.html</t>
+          <t>/news,300382,1257965070.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>斯莱克：连续3日融资净偿还累计592.34万元（12-07）</t>
+          <t>斯莱克：融资净买入161.01万元，融资余额1.55亿元（12-08）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-08 08:47</t>
+          <t>12-09 09:10</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300382,1256765657.html</t>
+          <t>/news,300382,1257407473.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>斯莱克12月07日被深股通减持21.34万股</t>
+          <t>斯莱克12月08日被深股通减持2.6万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-08 07:54</t>
+          <t>12-09 07:50</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300382,1256756957.html</t>
+          <t>/news,300382,1257393469.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还577.03万元，融资余额1.53亿元（12-06）</t>
+          <t>斯莱克：连续3日融资净偿还累计592.34万元（12-07）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-07 09:06</t>
+          <t>12-08 08:47</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300382,1256102913.html</t>
+          <t>/news,300382,1256765657.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>斯莱克12月06日被深股通减持70.52万股</t>
+          <t>斯莱克12月07日被深股通减持21.34万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-07 07:49</t>
+          <t>12-08 07:54</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300382,1256090991.html</t>
+          <t>/news,300382,1256756957.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还7.45万元，融资余额1.59亿元（12-05）</t>
+          <t>斯莱克：融资净偿还577.03万元，融资余额1.53亿元（12-06）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-06 08:52</t>
+          <t>12-07 09:06</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300382,1255457862.html</t>
+          <t>/news,300382,1256102913.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>斯莱克12月05日获深股通增持95.67万股</t>
+          <t>斯莱克12月06日被深股通减持70.52万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-06 07:48</t>
+          <t>12-07 07:49</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300382,1255447699.html</t>
+          <t>/news,300382,1256090991.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>斯莱克：连续7日融资净买入累计1455.71万元（12-02）</t>
+          <t>斯莱克：融资净偿还7.45万元，融资余额1.59亿元（12-05）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-05 09:01</t>
+          <t>12-06 08:52</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300382,1254804851.html</t>
+          <t>/news,300382,1255457862.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,29 +883,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>融资融券周汇总：斯莱克本周融资净买入973.98万元</t>
+          <t>斯莱克12月05日获深股通增持95.67万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-06 07:48</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300382,1254650560.html</t>
+          <t>/news,300382,1255447699.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,61 +915,61 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>斯莱克：本周深股通持股量环比增加11%，周内增仓幅度居专用设备板块第十</t>
+          <t>斯莱克：连续7日融资净买入累计1455.71万元（12-02）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-04 14:05</t>
+          <t>12-05 09:01</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300382,1254642960.html</t>
+          <t>/news,300382,1254804851.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>斯莱克12月02日获深股通增持38.76万股</t>
+          <t>融资融券周汇总：斯莱克本周融资净买入973.98万元</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-03 07:50</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300382,1254512140.html</t>
+          <t>/news,300382,1254650560.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,39 +979,39 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>斯莱克：连续6日融资净买入累计1339.75万元（12-01）</t>
+          <t>斯莱克：本周深股通持股量环比增加11%，周内增仓幅度居专用设备板块第十</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-02 08:51</t>
+          <t>12-04 14:05</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300382,1253921021.html</t>
+          <t>/news,300382,1254642960.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>斯莱克12月01日获深股通增持46.48万股</t>
+          <t>斯莱克12月02日获深股通增持38.76万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-02 07:48</t>
+          <t>12-03 07:50</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300382,1253912696.html</t>
+          <t>/news,300382,1254512140.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>斯莱克：连续5日融资净买入累计1205.59万元（11-30）</t>
+          <t>斯莱克：连续6日融资净买入累计1339.75万元（12-01）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-01 08:54</t>
+          <t>12-02 08:51</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300382,1253311436.html</t>
+          <t>/news,300382,1253921021.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>斯莱克11月30日获深股通增持33.54万股</t>
+          <t>斯莱克12月01日获深股通增持46.48万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-01 07:50</t>
+          <t>12-02 07:48</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300382,1253301638.html</t>
+          <t>/news,300382,1253912696.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>斯莱克：连续4日融资净买入累计636.44万元（11-29）</t>
+          <t>斯莱克：连续5日融资净买入累计1205.59万元（11-30）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-30 08:48</t>
+          <t>12-01 08:54</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300382,1252786102.html</t>
+          <t>/news,300382,1253311436.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>斯莱克11月29日被深股通减持17.6万股</t>
+          <t>斯莱克11月30日获深股通增持33.54万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-30 07:49</t>
+          <t>12-01 07:50</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300382,1252778282.html</t>
+          <t>/news,300382,1253301638.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1291</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>斯莱克：增加投资的产线投产后 将在原有基础上增加约1.2亿只方形电池壳的产能</t>
+          <t>斯莱克：连续4日融资净买入累计636.44万元（11-29）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-29 16:44</t>
+          <t>11-30 08:48</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300382,1252581561.html</t>
+          <t>/news,300382,1252786102.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>斯莱克：连续3日融资净买入累计370.1万元（11-28）</t>
+          <t>斯莱克11月29日被深股通减持17.6万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-29 08:52</t>
+          <t>11-30 07:49</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300382,1252223239.html</t>
+          <t>/news,300382,1252778282.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>1297</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>斯莱克11月28日被深股通减持45.76万股</t>
+          <t>斯莱克：增加投资的产线投产后 将在原有基础上增加约1.2亿只方形电池壳的产能</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-29 07:57</t>
+          <t>11-29 16:44</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300382,1252214588.html</t>
+          <t>/news,300382,1252581561.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入200.71万元，融资余额1.48亿元（11-25）</t>
+          <t>斯莱克：连续3日融资净买入累计370.1万元（11-28）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,83 +1277,83 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-28 08:46</t>
+          <t>11-29 08:52</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300382,1251734093.html</t>
+          <t>/news,300382,1252223239.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>融资融券周汇总：斯莱克本周融资净买入154.34万元</t>
+          <t>斯莱克11月28日被深股通减持45.76万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-27 15:06</t>
+          <t>11-29 07:57</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300382,1251589824.html</t>
+          <t>/news,300382,1252214588.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>斯莱克：本周深股通持股量环比增加3%，周内增仓幅度居专用设备板块第九</t>
+          <t>斯莱克：融资净买入200.71万元，融资余额1.48亿元（11-25）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-27 14:06</t>
+          <t>11-28 08:46</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300382,1251584278.html</t>
+          <t>/news,300382,1251734093.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,29 +1363,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>斯莱克11月25日被深股通减持23.52万股</t>
+          <t>融资融券周汇总：斯莱克本周融资净买入154.34万元</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-26 07:53</t>
+          <t>11-27 15:06</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300382,1251434360.html</t>
+          <t>/news,300382,1251589824.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,29 +1395,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入165.07万元，融资余额1.46亿元（11-24）</t>
+          <t>斯莱克：本周深股通持股量环比增加3%，周内增仓幅度居专用设备板块第九</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-25 08:50</t>
+          <t>11-27 14:06</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300382,1250951153.html</t>
+          <t>/news,300382,1251584278.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>斯莱克11月24日获深股通增持3.74万股</t>
+          <t>斯莱克11月25日被深股通减持23.52万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-25 07:53</t>
+          <t>11-26 07:53</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300382,1250943768.html</t>
+          <t>/news,300382,1251434360.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还239.73万元，融资余额1.45亿元（11-23）</t>
+          <t>斯莱克：融资净买入165.07万元，融资余额1.46亿元（11-24）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-24 08:56</t>
+          <t>11-25 08:50</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300382,1250430566.html</t>
+          <t>/news,300382,1250951153.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>斯莱克11月23日被深股通减持20.59万股</t>
+          <t>斯莱克11月24日获深股通增持3.74万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-24 07:50</t>
+          <t>11-25 07:53</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300382,1250420176.html</t>
+          <t>/news,300382,1250943768.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入37.78万元，融资余额1.47亿元（11-22）</t>
+          <t>斯莱克：融资净偿还239.73万元，融资余额1.45亿元（11-23）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-23 08:55</t>
+          <t>11-24 08:56</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300382,1249885355.html</t>
+          <t>/news,300382,1250430566.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>斯莱克11月22日被深股通减持29.54万股</t>
+          <t>斯莱克11月23日被深股通减持20.59万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-23 07:48</t>
+          <t>11-24 07:50</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300382,1249875173.html</t>
+          <t>/news,300382,1250420176.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入191.22万元，融资余额1.47亿元（11-21）</t>
+          <t>斯莱克：融资净买入37.78万元，融资余额1.47亿元（11-22）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-22 08:51</t>
+          <t>11-23 08:55</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300382,1249356633.html</t>
+          <t>/news,300382,1249885355.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>斯莱克11月21日获深股通增持76.7万股</t>
+          <t>斯莱克11月22日被深股通减持29.54万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-22 07:58</t>
+          <t>11-23 07:48</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300382,1249349790.html</t>
+          <t>/news,300382,1249875173.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>注意！斯莱克将于12月7日召开股东大会</t>
+          <t>斯莱克：融资净买入191.22万元，融资余额1.47亿元（11-21）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-21 18:20</t>
+          <t>11-22 08:51</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300382,1249216961.html</t>
+          <t>/news,300382,1249356633.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还668.7万元，融资余额1.45亿元（11-18）</t>
+          <t>斯莱克11月21日获深股通增持76.7万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,51 +1693,51 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-21 08:48</t>
+          <t>11-22 07:58</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300382,1248872007.html</t>
+          <t>/news,300382,1249349790.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净买入6124.72万元，居专用设备板块第二</t>
+          <t>注意！斯莱克将于12月7日召开股东大会</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-20 15:07</t>
+          <t>11-21 18:20</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300382,1248769569.html</t>
+          <t>/news,300382,1249216961.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,29 +1747,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>斯莱克：本周深股通持股量环比减少1%，周内减仓幅度居专用设备板块第十</t>
+          <t>斯莱克：融资净偿还668.7万元，融资余额1.45亿元（11-18）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-21 08:48</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300382,1248763223.html</t>
+          <t>/news,300382,1248872007.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,29 +1779,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>斯莱克11月18日获深股通增持50.5万股</t>
+          <t>斯莱克本周融资净买入6124.72万元，居专用设备板块第二</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-19 07:54</t>
+          <t>11-20 15:07</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300382,1248638940.html</t>
+          <t>/news,300382,1248769569.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>斯莱克：连续4日融资净买入累计6124.72万元（11-17）</t>
+          <t>斯莱克：本周深股通持股量环比减少1%，周内减仓幅度居专用设备板块第十</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-18 08:43</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300382,1248161350.html</t>
+          <t>/news,300382,1248763223.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>斯莱克11月17日被深股通减持24.25万股</t>
+          <t>斯莱克11月18日获深股通增持50.5万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-18 07:49</t>
+          <t>11-19 07:54</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300382,1248153008.html</t>
+          <t>/news,300382,1248638940.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>控股股东折价抛售5%股份 下调股权激励业绩考核指标 斯莱克怎么了？</t>
+          <t>斯莱克：连续4日融资净买入累计6124.72万元（11-17）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-17 22:48</t>
+          <t>11-18 08:43</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300382,1248111014.html</t>
+          <t>/news,300382,1248161350.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>788</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：控股股东拟向晨道锦信转让5%股份，看好电池壳业务加速落地</t>
+          <t>斯莱克11月17日被深股通减持24.25万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,61 +1917,61 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-17 10:56</t>
+          <t>11-18 07:49</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300382,1247820995.html</t>
+          <t>/news,300382,1248153008.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
+          <t>控股股东折价抛售5%股份 下调股权激励业绩考核指标 斯莱克怎么了？</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-17 10:45</t>
+          <t>11-17 22:48</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300382,1247807581.html</t>
+          <t>/news,300382,1248111014.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>788</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>斯莱克：连续3日融资净买入累计4749.52万元（11-16）</t>
+          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：控股股东拟向晨道锦信转让5%股份，看好电池壳业务加速落地</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-17 08:48</t>
+          <t>11-17 10:56</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300382,1247676677.html</t>
+          <t>/news,300382,1247820995.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,29 +2003,29 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>斯莱克11月16日被深股通减持63.42万股</t>
+          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-17 08:01</t>
+          <t>11-17 10:45</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300382,1247669685.html</t>
+          <t>/news,300382,1247807581.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>870</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东拟5.81亿元向晨道锦信转让5%公司股份</t>
+          <t>斯莱克：连续3日融资净买入累计4749.52万元（11-16）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-16 21:18</t>
+          <t>11-17 08:48</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300382,1247594293.html</t>
+          <t>/news,300382,1247676677.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东拟协议转让公司5%股份</t>
+          <t>斯莱克11月16日被深股通减持63.42万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-16 21:02</t>
+          <t>11-17 08:01</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300382,1247589078.html</t>
+          <t>/news,300382,1247669685.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>676</t>
+          <t>870</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东科莱思拟协议转让3133万股</t>
+          <t>斯莱克：控股股东拟5.81亿元向晨道锦信转让5%公司股份</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-16 20:50</t>
+          <t>11-16 21:18</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300382,1247591995.html</t>
+          <t>/news,300382,1247594293.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3020</t>
+          <t>671</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东拟5.81亿元转让5%股份</t>
+          <t>斯莱克：控股股东拟协议转让公司5%股份</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-16 20:45</t>
+          <t>11-16 21:02</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300382,1247583219.html</t>
+          <t>/news,300382,1247589078.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>676</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入1028.39万元，融资余额1.16亿元（11-15）</t>
+          <t>斯莱克：控股股东科莱思拟协议转让3133万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-16 08:50</t>
+          <t>11-16 20:50</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300382,1247184024.html</t>
+          <t>/news,300382,1247591995.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>3020</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>斯莱克11月15日被深股通减持25.26万股</t>
+          <t>斯莱克：控股股东拟5.81亿元转让5%股份</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-16 07:59</t>
+          <t>11-16 20:45</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300382,1247176952.html</t>
+          <t>/news,300382,1247583219.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>935</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>斯莱克收关注函 要求说明临近期末调整当年业绩考核指标是否向特定对象输送利益</t>
+          <t>斯莱克：融资净买入1028.39万元，融资余额1.16亿元（11-15）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-15 20:44</t>
+          <t>11-16 08:50</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300382,1247110064.html</t>
+          <t>/news,300382,1247184024.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1636</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>深交所向斯莱克发出关注函</t>
+          <t>斯莱克11月15日被深股通减持25.26万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-15 20:16</t>
+          <t>11-16 07:59</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300382,1247102130.html</t>
+          <t>/news,300382,1247176952.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>689</t>
+          <t>935</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：调整员工持股计划考核目标，看好新能源电池壳业务加速落地</t>
+          <t>斯莱克收关注函 要求说明临近期末调整当年业绩考核指标是否向特定对象输送利益</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,51 +2301,51 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-15 16:04</t>
+          <t>11-15 20:44</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300382,1247040814.html</t>
+          <t>/news,300382,1247110064.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>1636</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
+          <t>深交所向斯莱克发出关注函</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-15 15:54</t>
+          <t>11-15 20:16</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300382,1247037923.html</t>
+          <t>/news,300382,1247102130.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>690</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入1556.23万元，融资余额1.06亿元（11-14）</t>
+          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：调整员工持股计划考核目标，看好新能源电池壳业务加速落地</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,51 +2365,51 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-15 08:53</t>
+          <t>11-15 16:04</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300382,1246699049.html</t>
+          <t>/news,300382,1247040814.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>斯莱克11月14日获深股通增持45.4万股</t>
+          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-15 07:57</t>
+          <t>11-15 15:54</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300382,1246691587.html</t>
+          <t>/news,300382,1247037923.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还102.38万元，融资余额9017.04万元（11-11）</t>
+          <t>斯莱克：融资净买入1556.23万元，融资余额1.06亿元（11-14）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,51 +2429,51 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-14 08:50</t>
+          <t>11-15 08:53</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300382,1246196749.html</t>
+          <t>/news,300382,1246699049.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净买入2091.21万元，居专用设备板块第十七</t>
+          <t>斯莱克11月14日获深股通增持45.4万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-13 15:10</t>
+          <t>11-15 07:57</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300382,1246100709.html</t>
+          <t>/news,300382,1246691587.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,103 +2483,103 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>斯莱克本周深股通持股市值增加1942.17万元，居专用设备板块第七</t>
+          <t>斯莱克：融资净偿还102.38万元，融资余额9017.04万元（11-11）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300382,1246093817.html</t>
+          <t>/news,300382,1246196749.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>斯莱克11月11日获深股通增持120.46万股</t>
+          <t>斯莱克本周融资净买入2091.21万元，居专用设备板块第十七</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-12 07:54</t>
+          <t>11-13 15:10</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300382,1245987393.html</t>
+          <t>/news,300382,1246100709.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1528</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>加码新能源汽车电池壳项目 斯莱克：易拉罐和电池壳工艺有异曲同工处 公司具技术优势</t>
+          <t>斯莱克本周深股通持股市值增加1942.17万元，居专用设备板块第七</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-11 15:00</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300382,1245833693.html</t>
+          <t>/news,300382,1246093817.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>442</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还68.91万元，融资余额9119.42万元（11-10）</t>
+          <t>斯莱克11月11日获深股通增持120.46万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-11 08:49</t>
+          <t>11-12 07:54</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300382,1245424379.html</t>
+          <t>/news,300382,1245987393.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>1528</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>斯莱克11月10日被深股通减持2.42万股</t>
+          <t>加码新能源汽车电池壳项目 斯莱克：易拉罐和电池壳工艺有异曲同工处 公司具技术优势</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-11 07:49</t>
+          <t>11-11 15:00</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300382,1245412490.html</t>
+          <t>/news,300382,1245833693.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入488.67万元，融资余额9188.33万元（11-09）</t>
+          <t>斯莱克：融资净偿还68.91万元，融资余额9119.42万元（11-10）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-10 08:51</t>
+          <t>11-11 08:49</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300382,1244900382.html</t>
+          <t>/news,300382,1245424379.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>斯莱克11月09日被深股通减持9.95万股</t>
+          <t>斯莱克11月10日被深股通减持2.42万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-11 07:49</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300382,1244892113.html</t>
+          <t>/news,300382,1245412490.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入674.73万元，融资余额8699.65万元（11-08）</t>
+          <t>斯莱克：融资净买入488.67万元，融资余额9188.33万元（11-09）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-09 08:52</t>
+          <t>11-10 08:51</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300382,1244437165.html</t>
+          <t>/news,300382,1244900382.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>斯莱克11月08日获深股通增持2.68万股</t>
+          <t>斯莱克11月09日被深股通减持9.95万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-09 07:49</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300382,1244427946.html</t>
+          <t>/news,300382,1244892113.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入996.71万元，融资余额8024.93万元（11-07）</t>
+          <t>斯莱克：融资净买入674.73万元，融资余额8699.65万元（11-08）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-08 08:52</t>
+          <t>11-09 08:52</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300382,1243983604.html</t>
+          <t>/news,300382,1244437165.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>斯莱克11月07日被深股通减持33.94万股</t>
+          <t>斯莱克11月08日获深股通增持2.68万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-08 07:49</t>
+          <t>11-09 07:49</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300382,1243974416.html</t>
+          <t>/news,300382,1244427946.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入918.29万元，融资余额7028.21万元（11-04）</t>
+          <t>斯莱克：融资净买入996.71万元，融资余额8024.93万元（11-07）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-07 08:58</t>
+          <t>11-08 08:52</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300382,1243515209.html</t>
+          <t>/news,300382,1243983604.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,29 +2867,29 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净买入1565.08万元，居专用设备板块第十八</t>
+          <t>斯莱克11月07日被深股通减持33.94万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-06 15:05</t>
+          <t>11-08 07:49</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300382,1243409921.html</t>
+          <t>/news,300382,1243974416.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,29 +2899,29 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>斯莱克本周深股通持股市值减少1557.85万元，居专用设备板块第七</t>
+          <t>斯莱克：融资净买入918.29万元，融资余额7028.21万元（11-04）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-06 14:05</t>
+          <t>11-07 08:58</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300382,1243404625.html</t>
+          <t>/news,300382,1243515209.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,29 +2931,29 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>斯莱克11月04日被深股通减持35.58万股</t>
+          <t>斯莱克本周融资净买入1565.08万元，居专用设备板块第十八</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-05 07:45</t>
+          <t>11-06 15:05</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300382,1243318004.html</t>
+          <t>/news,300382,1243409921.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,29 +2963,29 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入558.01万元，融资余额6109.92万元（11-03）</t>
+          <t>斯莱克本周深股通持股市值减少1557.85万元，居专用设备板块第七</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-04 09:00</t>
+          <t>11-06 14:05</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300382,1242828429.html</t>
+          <t>/news,300382,1243404625.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>斯莱克11月03日获深股通增持53.19万股</t>
+          <t>斯莱克11月04日被深股通减持35.58万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-04 07:54</t>
+          <t>11-05 07:45</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300382,1242818302.html</t>
+          <t>/news,300382,1243318004.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300382.xlsx
+++ b/news_ann/news/tmp/300382.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>112</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还120.54万元，融资余额1.62亿元（12-12）</t>
+          <t>斯莱克：融资净买入280.46万元，融资余额1.64亿元（12-13）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-13 08:58</t>
+          <t>12-14 09:05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300382,1258770644.html</t>
+          <t>/news,300382,1259358065.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>斯莱克12月12日被深股通减持35.16万股</t>
+          <t>斯莱克12月13日被深股通减持34.41万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-13 07:50</t>
+          <t>12-14 07:44</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300382,1258761183.html</t>
+          <t>/news,300382,1259345842.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入796.52万元，融资余额1.63亿元（12-09）</t>
+          <t>斯莱克：融资净偿还120.54万元，融资余额1.62亿元（12-12）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-12 09:06</t>
+          <t>12-13 08:58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300382,1258216785.html</t>
+          <t>/news,300382,1258770644.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,93 +563,93 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净偿还431.34万元，居专用设备板块第十四</t>
+          <t>斯莱克12月12日被深股通减持35.16万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-11 15:06</t>
+          <t>12-13 07:50</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300382,1258088726.html</t>
+          <t>/news,300382,1258761183.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>斯莱克本周被深股通减持53.19万股 最新持股量526.82万股</t>
+          <t>斯莱克：融资净买入796.52万元，融资余额1.63亿元（12-09）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-11 14:05</t>
+          <t>12-12 09:06</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300382,1258081514.html</t>
+          <t>/news,300382,1258216785.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>斯莱克12月09日被深股通减持54.39万股</t>
+          <t>斯莱克本周融资净偿还431.34万元，居专用设备板块第十四</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-10 07:52</t>
+          <t>12-11 15:06</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300382,1257965070.html</t>
+          <t>/news,300382,1258088726.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,39 +659,39 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入161.01万元，融资余额1.55亿元（12-08）</t>
+          <t>斯莱克本周被深股通减持53.19万股 最新持股量526.82万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-09 09:10</t>
+          <t>12-11 14:05</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300382,1257407473.html</t>
+          <t>/news,300382,1258081514.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>431</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>斯莱克12月08日被深股通减持2.6万股</t>
+          <t>斯莱克12月09日被深股通减持54.39万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-09 07:50</t>
+          <t>12-10 07:52</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300382,1257393469.html</t>
+          <t>/news,300382,1257965070.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>斯莱克：连续3日融资净偿还累计592.34万元（12-07）</t>
+          <t>斯莱克：融资净买入161.01万元，融资余额1.55亿元（12-08）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-08 08:47</t>
+          <t>12-09 09:10</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300382,1256765657.html</t>
+          <t>/news,300382,1257407473.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>斯莱克12月07日被深股通减持21.34万股</t>
+          <t>斯莱克12月08日被深股通减持2.6万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-08 07:54</t>
+          <t>12-09 07:50</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300382,1256756957.html</t>
+          <t>/news,300382,1257393469.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还577.03万元，融资余额1.53亿元（12-06）</t>
+          <t>斯莱克：连续3日融资净偿还累计592.34万元（12-07）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-07 09:06</t>
+          <t>12-08 08:47</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300382,1256102913.html</t>
+          <t>/news,300382,1256765657.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>斯莱克12月06日被深股通减持70.52万股</t>
+          <t>斯莱克12月07日被深股通减持21.34万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-07 07:49</t>
+          <t>12-08 07:54</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300382,1256090991.html</t>
+          <t>/news,300382,1256756957.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还7.45万元，融资余额1.59亿元（12-05）</t>
+          <t>斯莱克：融资净偿还577.03万元，融资余额1.53亿元（12-06）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-06 08:52</t>
+          <t>12-07 09:06</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300382,1255457862.html</t>
+          <t>/news,300382,1256102913.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>斯莱克12月05日获深股通增持95.67万股</t>
+          <t>斯莱克12月06日被深股通减持70.52万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-06 07:48</t>
+          <t>12-07 07:49</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300382,1255447699.html</t>
+          <t>/news,300382,1256090991.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>斯莱克：连续7日融资净买入累计1455.71万元（12-02）</t>
+          <t>斯莱克：融资净偿还7.45万元，融资余额1.59亿元（12-05）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-05 09:01</t>
+          <t>12-06 08:52</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300382,1254804851.html</t>
+          <t>/news,300382,1255457862.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,29 +947,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>融资融券周汇总：斯莱克本周融资净买入973.98万元</t>
+          <t>斯莱克12月05日获深股通增持95.67万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-06 07:48</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300382,1254650560.html</t>
+          <t>/news,300382,1255447699.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,61 +979,61 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>斯莱克：本周深股通持股量环比增加11%，周内增仓幅度居专用设备板块第十</t>
+          <t>斯莱克：连续7日融资净买入累计1455.71万元（12-02）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-04 14:05</t>
+          <t>12-05 09:01</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300382,1254642960.html</t>
+          <t>/news,300382,1254804851.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>斯莱克12月02日获深股通增持38.76万股</t>
+          <t>融资融券周汇总：斯莱克本周融资净买入973.98万元</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-03 07:50</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300382,1254512140.html</t>
+          <t>/news,300382,1254650560.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,39 +1043,39 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>斯莱克：连续6日融资净买入累计1339.75万元（12-01）</t>
+          <t>斯莱克：本周深股通持股量环比增加11%，周内增仓幅度居专用设备板块第十</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-02 08:51</t>
+          <t>12-04 14:05</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300382,1253921021.html</t>
+          <t>/news,300382,1254642960.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>561</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>斯莱克12月01日获深股通增持46.48万股</t>
+          <t>斯莱克12月02日获深股通增持38.76万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-02 07:48</t>
+          <t>12-03 07:50</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300382,1253912696.html</t>
+          <t>/news,300382,1254512140.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>斯莱克：连续5日融资净买入累计1205.59万元（11-30）</t>
+          <t>斯莱克：连续6日融资净买入累计1339.75万元（12-01）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-01 08:54</t>
+          <t>12-02 08:51</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300382,1253311436.html</t>
+          <t>/news,300382,1253921021.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>斯莱克11月30日获深股通增持33.54万股</t>
+          <t>斯莱克12月01日获深股通增持46.48万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-01 07:50</t>
+          <t>12-02 07:48</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300382,1253301638.html</t>
+          <t>/news,300382,1253912696.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>斯莱克：连续4日融资净买入累计636.44万元（11-29）</t>
+          <t>斯莱克：连续5日融资净买入累计1205.59万元（11-30）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-30 08:48</t>
+          <t>12-01 08:54</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300382,1252786102.html</t>
+          <t>/news,300382,1253311436.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>斯莱克11月29日被深股通减持17.6万股</t>
+          <t>斯莱克11月30日获深股通增持33.54万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-30 07:49</t>
+          <t>12-01 07:50</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300382,1252778282.html</t>
+          <t>/news,300382,1253301638.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1297</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>斯莱克：增加投资的产线投产后 将在原有基础上增加约1.2亿只方形电池壳的产能</t>
+          <t>斯莱克：连续4日融资净买入累计636.44万元（11-29）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-29 16:44</t>
+          <t>11-30 08:48</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300382,1252581561.html</t>
+          <t>/news,300382,1252786102.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>斯莱克：连续3日融资净买入累计370.1万元（11-28）</t>
+          <t>斯莱克11月29日被深股通减持17.6万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-29 08:52</t>
+          <t>11-30 07:49</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300382,1252223239.html</t>
+          <t>/news,300382,1252778282.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>斯莱克11月28日被深股通减持45.76万股</t>
+          <t>斯莱克：增加投资的产线投产后 将在原有基础上增加约1.2亿只方形电池壳的产能</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-29 07:57</t>
+          <t>11-29 16:44</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300382,1252214588.html</t>
+          <t>/news,300382,1252581561.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入200.71万元，融资余额1.48亿元（11-25）</t>
+          <t>斯莱克：连续3日融资净买入累计370.1万元（11-28）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,83 +1341,83 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-28 08:46</t>
+          <t>11-29 08:52</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300382,1251734093.html</t>
+          <t>/news,300382,1252223239.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>融资融券周汇总：斯莱克本周融资净买入154.34万元</t>
+          <t>斯莱克11月28日被深股通减持45.76万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-27 15:06</t>
+          <t>11-29 07:57</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300382,1251589824.html</t>
+          <t>/news,300382,1252214588.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>斯莱克：本周深股通持股量环比增加3%，周内增仓幅度居专用设备板块第九</t>
+          <t>斯莱克：融资净买入200.71万元，融资余额1.48亿元（11-25）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-27 14:06</t>
+          <t>11-28 08:46</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300382,1251584278.html</t>
+          <t>/news,300382,1251734093.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,29 +1427,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>斯莱克11月25日被深股通减持23.52万股</t>
+          <t>融资融券周汇总：斯莱克本周融资净买入154.34万元</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-26 07:53</t>
+          <t>11-27 15:06</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300382,1251434360.html</t>
+          <t>/news,300382,1251589824.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,29 +1459,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入165.07万元，融资余额1.46亿元（11-24）</t>
+          <t>斯莱克：本周深股通持股量环比增加3%，周内增仓幅度居专用设备板块第九</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-25 08:50</t>
+          <t>11-27 14:06</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300382,1250951153.html</t>
+          <t>/news,300382,1251584278.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>斯莱克11月24日获深股通增持3.74万股</t>
+          <t>斯莱克11月25日被深股通减持23.52万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-25 07:53</t>
+          <t>11-26 07:53</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300382,1250943768.html</t>
+          <t>/news,300382,1251434360.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还239.73万元，融资余额1.45亿元（11-23）</t>
+          <t>斯莱克：融资净买入165.07万元，融资余额1.46亿元（11-24）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-24 08:56</t>
+          <t>11-25 08:50</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300382,1250430566.html</t>
+          <t>/news,300382,1250951153.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>斯莱克11月23日被深股通减持20.59万股</t>
+          <t>斯莱克11月24日获深股通增持3.74万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-24 07:50</t>
+          <t>11-25 07:53</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300382,1250420176.html</t>
+          <t>/news,300382,1250943768.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入37.78万元，融资余额1.47亿元（11-22）</t>
+          <t>斯莱克：融资净偿还239.73万元，融资余额1.45亿元（11-23）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-23 08:55</t>
+          <t>11-24 08:56</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300382,1249885355.html</t>
+          <t>/news,300382,1250430566.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>斯莱克11月22日被深股通减持29.54万股</t>
+          <t>斯莱克11月23日被深股通减持20.59万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-23 07:48</t>
+          <t>11-24 07:50</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300382,1249875173.html</t>
+          <t>/news,300382,1250420176.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入191.22万元，融资余额1.47亿元（11-21）</t>
+          <t>斯莱克：融资净买入37.78万元，融资余额1.47亿元（11-22）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-22 08:51</t>
+          <t>11-23 08:55</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300382,1249356633.html</t>
+          <t>/news,300382,1249885355.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>斯莱克11月21日获深股通增持76.7万股</t>
+          <t>斯莱克11月22日被深股通减持29.54万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-22 07:58</t>
+          <t>11-23 07:48</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300382,1249349790.html</t>
+          <t>/news,300382,1249875173.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>注意！斯莱克将于12月7日召开股东大会</t>
+          <t>斯莱克：融资净买入191.22万元，融资余额1.47亿元（11-21）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-21 18:20</t>
+          <t>11-22 08:51</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300382,1249216961.html</t>
+          <t>/news,300382,1249356633.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还668.7万元，融资余额1.45亿元（11-18）</t>
+          <t>斯莱克11月21日获深股通增持76.7万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,51 +1757,51 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-21 08:48</t>
+          <t>11-22 07:58</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300382,1248872007.html</t>
+          <t>/news,300382,1249349790.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净买入6124.72万元，居专用设备板块第二</t>
+          <t>注意！斯莱克将于12月7日召开股东大会</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-20 15:07</t>
+          <t>11-21 18:20</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300382,1248769569.html</t>
+          <t>/news,300382,1249216961.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>斯莱克：本周深股通持股量环比减少1%，周内减仓幅度居专用设备板块第十</t>
+          <t>斯莱克：融资净偿还668.7万元，融资余额1.45亿元（11-18）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-21 08:48</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300382,1248763223.html</t>
+          <t>/news,300382,1248872007.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>斯莱克11月18日获深股通增持50.5万股</t>
+          <t>斯莱克本周融资净买入6124.72万元，居专用设备板块第二</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-19 07:54</t>
+          <t>11-20 15:07</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300382,1248638940.html</t>
+          <t>/news,300382,1248769569.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>斯莱克：连续4日融资净买入累计6124.72万元（11-17）</t>
+          <t>斯莱克：本周深股通持股量环比减少1%，周内减仓幅度居专用设备板块第十</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-18 08:43</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300382,1248161350.html</t>
+          <t>/news,300382,1248763223.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>斯莱克11月17日被深股通减持24.25万股</t>
+          <t>斯莱克11月18日获深股通增持50.5万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-18 07:49</t>
+          <t>11-19 07:54</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300382,1248153008.html</t>
+          <t>/news,300382,1248638940.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>控股股东折价抛售5%股份 下调股权激励业绩考核指标 斯莱克怎么了？</t>
+          <t>斯莱克：连续4日融资净买入累计6124.72万元（11-17）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-17 22:48</t>
+          <t>11-18 08:43</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300382,1248111014.html</t>
+          <t>/news,300382,1248161350.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>788</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：控股股东拟向晨道锦信转让5%股份，看好电池壳业务加速落地</t>
+          <t>斯莱克11月17日被深股通减持24.25万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,61 +1981,61 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-17 10:56</t>
+          <t>11-18 07:49</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300382,1247820995.html</t>
+          <t>/news,300382,1248153008.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
+          <t>控股股东折价抛售5%股份 下调股权激励业绩考核指标 斯莱克怎么了？</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-17 10:45</t>
+          <t>11-17 22:48</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300382,1247807581.html</t>
+          <t>/news,300382,1248111014.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>789</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>斯莱克：连续3日融资净买入累计4749.52万元（11-16）</t>
+          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：控股股东拟向晨道锦信转让5%股份，看好电池壳业务加速落地</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-17 08:48</t>
+          <t>11-17 10:56</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300382,1247676677.html</t>
+          <t>/news,300382,1247820995.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,29 +2067,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>斯莱克11月16日被深股通减持63.42万股</t>
+          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-17 08:01</t>
+          <t>11-17 10:45</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300382,1247669685.html</t>
+          <t>/news,300382,1247807581.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>870</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东拟5.81亿元向晨道锦信转让5%公司股份</t>
+          <t>斯莱克：连续3日融资净买入累计4749.52万元（11-16）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-16 21:18</t>
+          <t>11-17 08:48</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300382,1247594293.html</t>
+          <t>/news,300382,1247676677.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东拟协议转让公司5%股份</t>
+          <t>斯莱克11月16日被深股通减持63.42万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-16 21:02</t>
+          <t>11-17 08:01</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300382,1247589078.html</t>
+          <t>/news,300382,1247669685.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>676</t>
+          <t>873</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东科莱思拟协议转让3133万股</t>
+          <t>斯莱克：控股股东拟5.81亿元向晨道锦信转让5%公司股份</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-16 20:50</t>
+          <t>11-16 21:18</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300382,1247591995.html</t>
+          <t>/news,300382,1247594293.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>3020</t>
+          <t>672</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东拟5.81亿元转让5%股份</t>
+          <t>斯莱克：控股股东拟协议转让公司5%股份</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-16 20:45</t>
+          <t>11-16 21:02</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300382,1247583219.html</t>
+          <t>/news,300382,1247589078.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>677</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入1028.39万元，融资余额1.16亿元（11-15）</t>
+          <t>斯莱克：控股股东科莱思拟协议转让3133万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-16 08:50</t>
+          <t>11-16 20:50</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300382,1247184024.html</t>
+          <t>/news,300382,1247591995.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>3021</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>斯莱克11月15日被深股通减持25.26万股</t>
+          <t>斯莱克：控股股东拟5.81亿元转让5%股份</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-16 07:59</t>
+          <t>11-16 20:45</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300382,1247176952.html</t>
+          <t>/news,300382,1247583219.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>935</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>斯莱克收关注函 要求说明临近期末调整当年业绩考核指标是否向特定对象输送利益</t>
+          <t>斯莱克：融资净买入1028.39万元，融资余额1.16亿元（11-15）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-15 20:44</t>
+          <t>11-16 08:50</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300382,1247110064.html</t>
+          <t>/news,300382,1247184024.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1636</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>深交所向斯莱克发出关注函</t>
+          <t>斯莱克11月15日被深股通减持25.26万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-15 20:16</t>
+          <t>11-16 07:59</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300382,1247102130.html</t>
+          <t>/news,300382,1247176952.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>935</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：调整员工持股计划考核目标，看好新能源电池壳业务加速落地</t>
+          <t>斯莱克收关注函 要求说明临近期末调整当年业绩考核指标是否向特定对象输送利益</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,51 +2365,51 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-15 16:04</t>
+          <t>11-15 20:44</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300382,1247040814.html</t>
+          <t>/news,300382,1247110064.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>1638</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
+          <t>深交所向斯莱克发出关注函</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-15 15:54</t>
+          <t>11-15 20:16</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300382,1247037923.html</t>
+          <t>/news,300382,1247102130.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>690</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入1556.23万元，融资余额1.06亿元（11-14）</t>
+          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：调整员工持股计划考核目标，看好新能源电池壳业务加速落地</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,51 +2429,51 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-15 08:53</t>
+          <t>11-15 16:04</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300382,1246699049.html</t>
+          <t>/news,300382,1247040814.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>斯莱克11月14日获深股通增持45.4万股</t>
+          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-15 07:57</t>
+          <t>11-15 15:54</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300382,1246691587.html</t>
+          <t>/news,300382,1247037923.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还102.38万元，融资余额9017.04万元（11-11）</t>
+          <t>斯莱克：融资净买入1556.23万元，融资余额1.06亿元（11-14）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,51 +2493,51 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-14 08:50</t>
+          <t>11-15 08:53</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300382,1246196749.html</t>
+          <t>/news,300382,1246699049.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净买入2091.21万元，居专用设备板块第十七</t>
+          <t>斯莱克11月14日获深股通增持45.4万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-13 15:10</t>
+          <t>11-15 07:57</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300382,1246100709.html</t>
+          <t>/news,300382,1246691587.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,103 +2547,103 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>斯莱克本周深股通持股市值增加1942.17万元，居专用设备板块第七</t>
+          <t>斯莱克：融资净偿还102.38万元，融资余额9017.04万元（11-11）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300382,1246093817.html</t>
+          <t>/news,300382,1246196749.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>斯莱克11月11日获深股通增持120.46万股</t>
+          <t>斯莱克本周融资净买入2091.21万元，居专用设备板块第十七</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-12 07:54</t>
+          <t>11-13 15:10</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300382,1245987393.html</t>
+          <t>/news,300382,1246100709.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1528</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>加码新能源汽车电池壳项目 斯莱克：易拉罐和电池壳工艺有异曲同工处 公司具技术优势</t>
+          <t>斯莱克本周深股通持股市值增加1942.17万元，居专用设备板块第七</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-11 15:00</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300382,1245833693.html</t>
+          <t>/news,300382,1246093817.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>442</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还68.91万元，融资余额9119.42万元（11-10）</t>
+          <t>斯莱克11月11日获深股通增持120.46万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-11 08:49</t>
+          <t>11-12 07:54</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300382,1245424379.html</t>
+          <t>/news,300382,1245987393.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>1529</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>斯莱克11月10日被深股通减持2.42万股</t>
+          <t>加码新能源汽车电池壳项目 斯莱克：易拉罐和电池壳工艺有异曲同工处 公司具技术优势</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-11 07:49</t>
+          <t>11-11 15:00</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300382,1245412490.html</t>
+          <t>/news,300382,1245833693.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入488.67万元，融资余额9188.33万元（11-09）</t>
+          <t>斯莱克：融资净偿还68.91万元，融资余额9119.42万元（11-10）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-10 08:51</t>
+          <t>11-11 08:49</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300382,1244900382.html</t>
+          <t>/news,300382,1245424379.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>斯莱克11月09日被深股通减持9.95万股</t>
+          <t>斯莱克11月10日被深股通减持2.42万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-11 07:49</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300382,1244892113.html</t>
+          <t>/news,300382,1245412490.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入674.73万元，融资余额8699.65万元（11-08）</t>
+          <t>斯莱克：融资净买入488.67万元，融资余额9188.33万元（11-09）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-09 08:52</t>
+          <t>11-10 08:51</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300382,1244437165.html</t>
+          <t>/news,300382,1244900382.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>斯莱克11月08日获深股通增持2.68万股</t>
+          <t>斯莱克11月09日被深股通减持9.95万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-09 07:49</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300382,1244427946.html</t>
+          <t>/news,300382,1244892113.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入996.71万元，融资余额8024.93万元（11-07）</t>
+          <t>斯莱克：融资净买入674.73万元，融资余额8699.65万元（11-08）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-08 08:52</t>
+          <t>11-09 08:52</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300382,1243983604.html</t>
+          <t>/news,300382,1244437165.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>斯莱克11月07日被深股通减持33.94万股</t>
+          <t>斯莱克11月08日获深股通增持2.68万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-08 07:49</t>
+          <t>11-09 07:49</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300382,1243974416.html</t>
+          <t>/news,300382,1244427946.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入918.29万元，融资余额7028.21万元（11-04）</t>
+          <t>斯莱克：融资净买入996.71万元，融资余额8024.93万元（11-07）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-07 08:58</t>
+          <t>11-08 08:52</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300382,1243515209.html</t>
+          <t>/news,300382,1243983604.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,29 +2931,29 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净买入1565.08万元，居专用设备板块第十八</t>
+          <t>斯莱克11月07日被深股通减持33.94万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-06 15:05</t>
+          <t>11-08 07:49</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300382,1243409921.html</t>
+          <t>/news,300382,1243974416.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,29 +2963,29 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>斯莱克本周深股通持股市值减少1557.85万元，居专用设备板块第七</t>
+          <t>斯莱克：融资净买入918.29万元，融资余额7028.21万元（11-04）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-06 14:05</t>
+          <t>11-07 08:58</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300382,1243404625.html</t>
+          <t>/news,300382,1243515209.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>斯莱克11月04日被深股通减持35.58万股</t>
+          <t>斯莱克本周融资净买入1565.08万元，居专用设备板块第十八</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-05 07:45</t>
+          <t>11-06 15:05</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300382,1243318004.html</t>
+          <t>/news,300382,1243409921.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300382.xlsx
+++ b/news_ann/news/tmp/300382.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入280.46万元，融资余额1.64亿元（12-13）</t>
+          <t>斯莱克：融资净偿还359.06万元，融资余额1.56亿元（12-19）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-14 09:05</t>
+          <t>12-20 08:48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300382,1259358065.html</t>
+          <t>/news,300382,1261731762.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>73</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>斯莱克12月13日被深股通减持34.41万股</t>
+          <t>斯莱克12月19日获深股通增持6.35万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-14 07:44</t>
+          <t>12-20 07:47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300382,1259345842.html</t>
+          <t>/news,300382,1261723784.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>497</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还120.54万元，融资余额1.62亿元（12-12）</t>
+          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：拟10亿元新建宜宾电池结构件项目，完善新能源电池壳布局</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-13 08:58</t>
+          <t>12-19 10:45</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300382,1258770644.html</t>
+          <t>/news,300382,1261332274.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,39 +563,39 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>斯莱克12月12日被深股通减持35.16万股</t>
+          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-13 07:50</t>
+          <t>12-19 10:29</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300382,1258761183.html</t>
+          <t>/news,300382,1261309852.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入796.52万元，融资余额1.63亿元（12-09）</t>
+          <t>斯莱克：融资净买入279.4万元，融资余额1.6亿元（12-16）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-12 09:06</t>
+          <t>12-19 08:55</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300382,1258216785.html</t>
+          <t>/news,300382,1261207940.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净偿还431.34万元，居专用设备板块第十四</t>
+          <t>融资融券周汇总：斯莱克本周融资净偿还556.83万元</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-11 15:06</t>
+          <t>12-18 15:16</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300382,1258088726.html</t>
+          <t>/news,300382,1261088683.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>斯莱克本周被深股通减持53.19万股 最新持股量526.82万股</t>
+          <t>斯莱克本周深股通持股市值减少1992.96万元，居专用设备板块第四</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-11 14:05</t>
+          <t>12-18 14:10</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300382,1258081514.html</t>
+          <t>/news,300382,1261081430.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>6438</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>斯莱克12月09日被深股通减持54.39万股</t>
+          <t>三度扩产！“壳玩家”持续加码电池壳体生产</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-10 07:52</t>
+          <t>12-17 12:57</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300382,1257965070.html</t>
+          <t>/news,300382,1260997929.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>2410</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入161.01万元，融资余额1.55亿元（12-08）</t>
+          <t>完善新能源电池壳业务产能布局 斯莱克拟10亿元投建精密结构件项目</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-09 09:10</t>
+          <t>12-17 09:52</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300382,1257407473.html</t>
+          <t>/news,300382,1260983290.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>斯莱克12月08日被深股通减持2.6万股</t>
+          <t>斯莱克12月16日被深股通减持73.78万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-09 07:50</t>
+          <t>12-17 07:51</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300382,1257393469.html</t>
+          <t>/news,300382,1260975841.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>774</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>斯莱克：连续3日融资净偿还累计592.34万元（12-07）</t>
+          <t>斯莱克：拟投资约10亿元建设电池壳体等产品生产线</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-08 08:47</t>
+          <t>12-16 22:26</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300382,1256765657.html</t>
+          <t>/news,300382,1260932097.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>490</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>斯莱克12月07日被深股通减持21.34万股</t>
+          <t>斯莱克：拟10亿元投建精密结构件项目</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-08 07:54</t>
+          <t>12-16 20:05</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300382,1256756957.html</t>
+          <t>/news,300382,1260880697.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>494</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还577.03万元，融资余额1.53亿元（12-06）</t>
+          <t>斯莱克：拟10亿元投建精密结构件项目 并签宜宾厂房定购项目合作协议</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-07 09:06</t>
+          <t>12-16 19:25</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300382,1256102913.html</t>
+          <t>/news,300382,1260872310.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>417</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>斯莱克12月06日被深股通减持70.52万股</t>
+          <t>斯莱克：拟10亿元投建精密结构件项目</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-07 07:49</t>
+          <t>12-16 19:12</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300382,1256090991.html</t>
+          <t>/news,300382,1260865826.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>1687</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还7.45万元，融资余额1.59亿元（12-05）</t>
+          <t>斯莱克：拟10亿元投建苏州斯莱克精密结构件项目</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-06 08:52</t>
+          <t>12-16 19:04</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300382,1255457862.html</t>
+          <t>/news,300382,1260860842.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>斯莱克12月05日获深股通增持95.67万股</t>
+          <t>注意！斯莱克将于2023年1月3日召开股东大会</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-06 07:48</t>
+          <t>12-16 19:03</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300382,1255447699.html</t>
+          <t>/news,300382,1260860184.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>斯莱克：连续7日融资净买入累计1455.71万元（12-02）</t>
+          <t>斯莱克：融资净偿还547.62万元，融资余额1.57亿元（12-15）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-05 09:01</t>
+          <t>12-16 09:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300382,1254804851.html</t>
+          <t>/news,300382,1260488027.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>融资融券周汇总：斯莱克本周融资净买入973.98万元</t>
+          <t>斯莱克12月15日获深股通增持57.74万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-16 07:58</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300382,1254650560.html</t>
+          <t>/news,300382,1260478732.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,39 +1043,39 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>斯莱克：本周深股通持股量环比增加11%，周内增仓幅度居专用设备板块第十</t>
+          <t>斯莱克：融资净偿还169.12万元，融资余额1.63亿元（12-14）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-04 14:05</t>
+          <t>12-15 08:55</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300382,1254642960.html</t>
+          <t>/news,300382,1259943433.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>斯莱克12月02日获深股通增持38.76万股</t>
+          <t>斯莱克12月14日被深股通减持17.07万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-03 07:50</t>
+          <t>12-15 07:49</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300382,1254512140.html</t>
+          <t>/news,300382,1259933309.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>斯莱克：连续6日融资净买入累计1339.75万元（12-01）</t>
+          <t>斯莱克：融资净买入280.46万元，融资余额1.64亿元（12-13）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-02 08:51</t>
+          <t>12-14 09:05</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300382,1253921021.html</t>
+          <t>/news,300382,1259358065.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>斯莱克12月01日获深股通增持46.48万股</t>
+          <t>斯莱克12月13日被深股通减持34.41万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-02 07:48</t>
+          <t>12-14 07:44</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300382,1253912696.html</t>
+          <t>/news,300382,1259345842.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>斯莱克：连续5日融资净买入累计1205.59万元（11-30）</t>
+          <t>斯莱克：融资净偿还120.54万元，融资余额1.62亿元（12-12）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-01 08:54</t>
+          <t>12-13 08:58</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300382,1253311436.html</t>
+          <t>/news,300382,1258770644.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>斯莱克11月30日获深股通增持33.54万股</t>
+          <t>斯莱克12月12日被深股通减持35.16万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-01 07:50</t>
+          <t>12-13 07:50</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300382,1253301638.html</t>
+          <t>/news,300382,1258761183.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>斯莱克：连续4日融资净买入累计636.44万元（11-29）</t>
+          <t>斯莱克：融资净买入796.52万元，融资余额1.63亿元（12-09）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,93 +1245,93 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-30 08:48</t>
+          <t>12-12 09:06</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300382,1252786102.html</t>
+          <t>/news,300382,1258216785.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>斯莱克11月29日被深股通减持17.6万股</t>
+          <t>斯莱克本周融资净偿还431.34万元，居专用设备板块第十四</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-30 07:49</t>
+          <t>12-11 15:06</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300382,1252778282.html</t>
+          <t>/news,300382,1258088726.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>斯莱克：增加投资的产线投产后 将在原有基础上增加约1.2亿只方形电池壳的产能</t>
+          <t>斯莱克本周被深股通减持53.19万股 最新持股量526.82万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-29 16:44</t>
+          <t>12-11 14:05</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300382,1252581561.html</t>
+          <t>/news,300382,1258081514.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>453</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>斯莱克：连续3日融资净买入累计370.1万元（11-28）</t>
+          <t>斯莱克12月09日被深股通减持54.39万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-29 08:52</t>
+          <t>12-10 07:52</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300382,1252223239.html</t>
+          <t>/news,300382,1257965070.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>斯莱克11月28日被深股通减持45.76万股</t>
+          <t>斯莱克：融资净买入161.01万元，融资余额1.55亿元（12-08）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-29 07:57</t>
+          <t>12-09 09:10</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300382,1252214588.html</t>
+          <t>/news,300382,1257407473.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入200.71万元，融资余额1.48亿元（11-25）</t>
+          <t>斯莱克12月08日被深股通减持2.6万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-28 08:46</t>
+          <t>12-09 07:50</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300382,1251734093.html</t>
+          <t>/news,300382,1257393469.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,29 +1427,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>融资融券周汇总：斯莱克本周融资净买入154.34万元</t>
+          <t>斯莱克：连续3日融资净偿还累计592.34万元（12-07）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-27 15:06</t>
+          <t>12-08 08:47</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300382,1251589824.html</t>
+          <t>/news,300382,1256765657.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,29 +1459,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>斯莱克：本周深股通持股量环比增加3%，周内增仓幅度居专用设备板块第九</t>
+          <t>斯莱克12月07日被深股通减持21.34万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-27 14:06</t>
+          <t>12-08 07:54</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300382,1251584278.html</t>
+          <t>/news,300382,1256756957.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>斯莱克11月25日被深股通减持23.52万股</t>
+          <t>斯莱克：融资净偿还577.03万元，融资余额1.53亿元（12-06）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-26 07:53</t>
+          <t>12-07 09:06</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300382,1251434360.html</t>
+          <t>/news,300382,1256102913.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入165.07万元，融资余额1.46亿元（11-24）</t>
+          <t>斯莱克12月06日被深股通减持70.52万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-25 08:50</t>
+          <t>12-07 07:49</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300382,1250951153.html</t>
+          <t>/news,300382,1256090991.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>斯莱克11月24日获深股通增持3.74万股</t>
+          <t>斯莱克：融资净偿还7.45万元，融资余额1.59亿元（12-05）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-25 07:53</t>
+          <t>12-06 08:52</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300382,1250943768.html</t>
+          <t>/news,300382,1255457862.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还239.73万元，融资余额1.45亿元（11-23）</t>
+          <t>斯莱克12月05日获深股通增持95.67万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-24 08:56</t>
+          <t>12-06 07:48</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300382,1250430566.html</t>
+          <t>/news,300382,1255447699.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>斯莱克11月23日被深股通减持20.59万股</t>
+          <t>斯莱克：连续7日融资净买入累计1455.71万元（12-02）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,93 +1629,93 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-24 07:50</t>
+          <t>12-05 09:01</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300382,1250420176.html</t>
+          <t>/news,300382,1254804851.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入37.78万元，融资余额1.47亿元（11-22）</t>
+          <t>融资融券周汇总：斯莱克本周融资净买入973.98万元</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-23 08:55</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300382,1249885355.html</t>
+          <t>/news,300382,1254650560.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>斯莱克11月22日被深股通减持29.54万股</t>
+          <t>斯莱克：本周深股通持股量环比增加11%，周内增仓幅度居专用设备板块第十</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-23 07:48</t>
+          <t>12-04 14:05</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300382,1249875173.html</t>
+          <t>/news,300382,1254642960.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>570</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入191.22万元，融资余额1.47亿元（11-21）</t>
+          <t>斯莱克12月02日获深股通增持38.76万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-22 08:51</t>
+          <t>12-03 07:50</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300382,1249356633.html</t>
+          <t>/news,300382,1254512140.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>斯莱克11月21日获深股通增持76.7万股</t>
+          <t>斯莱克：连续6日融资净买入累计1339.75万元（12-01）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-22 07:58</t>
+          <t>12-02 08:51</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300382,1249349790.html</t>
+          <t>/news,300382,1253921021.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>注意！斯莱克将于12月7日召开股东大会</t>
+          <t>斯莱克12月01日获深股通增持46.48万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-21 18:20</t>
+          <t>12-02 07:48</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300382,1249216961.html</t>
+          <t>/news,300382,1253912696.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还668.7万元，融资余额1.45亿元（11-18）</t>
+          <t>斯莱克：连续5日融资净买入累计1205.59万元（11-30）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,51 +1821,51 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-21 08:48</t>
+          <t>12-01 08:54</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300382,1248872007.html</t>
+          <t>/news,300382,1253311436.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净买入6124.72万元，居专用设备板块第二</t>
+          <t>斯莱克11月30日获深股通增持33.54万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-20 15:07</t>
+          <t>12-01 07:50</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300382,1248769569.html</t>
+          <t>/news,300382,1253301638.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,39 +1875,39 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>斯莱克：本周深股通持股量环比减少1%，周内减仓幅度居专用设备板块第十</t>
+          <t>斯莱克：连续4日融资净买入累计636.44万元（11-29）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-30 08:48</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300382,1248763223.html</t>
+          <t>/news,300382,1252786102.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>斯莱克11月18日获深股通增持50.5万股</t>
+          <t>斯莱克11月29日被深股通减持17.6万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-19 07:54</t>
+          <t>11-30 07:49</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300382,1248638940.html</t>
+          <t>/news,300382,1252778282.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>1344</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>斯莱克：连续4日融资净买入累计6124.72万元（11-17）</t>
+          <t>斯莱克：增加投资的产线投产后 将在原有基础上增加约1.2亿只方形电池壳的产能</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-18 08:43</t>
+          <t>11-29 16:44</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300382,1248161350.html</t>
+          <t>/news,300382,1252581561.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>斯莱克11月17日被深股通减持24.25万股</t>
+          <t>斯莱克：连续3日融资净买入累计370.1万元（11-28）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-18 07:49</t>
+          <t>11-29 08:52</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300382,1248153008.html</t>
+          <t>/news,300382,1252223239.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>控股股东折价抛售5%股份 下调股权激励业绩考核指标 斯莱克怎么了？</t>
+          <t>斯莱克11月28日被深股通减持45.76万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-17 22:48</t>
+          <t>11-29 07:57</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300382,1248111014.html</t>
+          <t>/news,300382,1252214588.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>789</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：控股股东拟向晨道锦信转让5%股份，看好电池壳业务加速落地</t>
+          <t>斯莱克：融资净买入200.71万元，融资余额1.48亿元（11-25）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-17 10:56</t>
+          <t>11-28 08:46</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300382,1247820995.html</t>
+          <t>/news,300382,1251734093.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,29 +2067,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
+          <t>融资融券周汇总：斯莱克本周融资净买入154.34万元</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-17 10:45</t>
+          <t>11-27 15:06</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300382,1247807581.html</t>
+          <t>/news,300382,1251589824.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,29 +2099,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>斯莱克：连续3日融资净买入累计4749.52万元（11-16）</t>
+          <t>斯莱克：本周深股通持股量环比增加3%，周内增仓幅度居专用设备板块第九</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-17 08:48</t>
+          <t>11-27 14:06</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300382,1247676677.html</t>
+          <t>/news,300382,1251584278.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>斯莱克11月16日被深股通减持63.42万股</t>
+          <t>斯莱克11月25日被深股通减持23.52万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-17 08:01</t>
+          <t>11-26 07:53</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300382,1247669685.html</t>
+          <t>/news,300382,1251434360.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>873</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东拟5.81亿元向晨道锦信转让5%公司股份</t>
+          <t>斯莱克：融资净买入165.07万元，融资余额1.46亿元（11-24）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-16 21:18</t>
+          <t>11-25 08:50</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300382,1247594293.html</t>
+          <t>/news,300382,1250951153.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东拟协议转让公司5%股份</t>
+          <t>斯莱克11月24日获深股通增持3.74万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-16 21:02</t>
+          <t>11-25 07:53</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300382,1247589078.html</t>
+          <t>/news,300382,1250943768.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>677</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东科莱思拟协议转让3133万股</t>
+          <t>斯莱克：融资净偿还239.73万元，融资余额1.45亿元（11-23）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-16 20:50</t>
+          <t>11-24 08:56</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300382,1247591995.html</t>
+          <t>/news,300382,1250430566.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>3021</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东拟5.81亿元转让5%股份</t>
+          <t>斯莱克11月23日被深股通减持20.59万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-16 20:45</t>
+          <t>11-24 07:50</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300382,1247583219.html</t>
+          <t>/news,300382,1250420176.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入1028.39万元，融资余额1.16亿元（11-15）</t>
+          <t>斯莱克：融资净买入37.78万元，融资余额1.47亿元（11-22）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-16 08:50</t>
+          <t>11-23 08:55</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300382,1247184024.html</t>
+          <t>/news,300382,1249885355.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>斯莱克11月15日被深股通减持25.26万股</t>
+          <t>斯莱克11月22日被深股通减持29.54万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-16 07:59</t>
+          <t>11-23 07:48</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300382,1247176952.html</t>
+          <t>/news,300382,1249875173.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>935</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>斯莱克收关注函 要求说明临近期末调整当年业绩考核指标是否向特定对象输送利益</t>
+          <t>斯莱克：融资净买入191.22万元，融资余额1.47亿元（11-21）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-15 20:44</t>
+          <t>11-22 08:51</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300382,1247110064.html</t>
+          <t>/news,300382,1249356633.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1638</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>深交所向斯莱克发出关注函</t>
+          <t>斯莱克11月21日获深股通增持76.7万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-15 20:16</t>
+          <t>11-22 07:58</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300382,1247102130.html</t>
+          <t>/news,300382,1249349790.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：调整员工持股计划考核目标，看好新能源电池壳业务加速落地</t>
+          <t>注意！斯莱克将于12月7日召开股东大会</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,51 +2429,51 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-15 16:04</t>
+          <t>11-21 18:20</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300382,1247040814.html</t>
+          <t>/news,300382,1249216961.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
+          <t>斯莱克：融资净偿还668.7万元，融资余额1.45亿元（11-18）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-15 15:54</t>
+          <t>11-21 08:48</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300382,1247037923.html</t>
+          <t>/news,300382,1248872007.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,61 +2483,61 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入1556.23万元，融资余额1.06亿元（11-14）</t>
+          <t>斯莱克本周融资净买入6124.72万元，居专用设备板块第二</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-15 08:53</t>
+          <t>11-20 15:07</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300382,1246699049.html</t>
+          <t>/news,300382,1248769569.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>斯莱克11月14日获深股通增持45.4万股</t>
+          <t>斯莱克：本周深股通持股量环比减少1%，周内减仓幅度居专用设备板块第十</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-15 07:57</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300382,1246691587.html</t>
+          <t>/news,300382,1248763223.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还102.38万元，融资余额9017.04万元（11-11）</t>
+          <t>斯莱克11月18日获深股通增持50.5万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-14 08:50</t>
+          <t>11-19 07:54</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300382,1246196749.html</t>
+          <t>/news,300382,1248638940.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,29 +2579,29 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净买入2091.21万元，居专用设备板块第十七</t>
+          <t>斯莱克：连续4日融资净买入累计6124.72万元（11-17）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-13 15:10</t>
+          <t>11-18 08:43</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300382,1246100709.html</t>
+          <t>/news,300382,1248161350.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,39 +2611,39 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>斯莱克本周深股通持股市值增加1942.17万元，居专用设备板块第七</t>
+          <t>斯莱克11月17日被深股通减持24.25万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-18 07:49</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300382,1246093817.html</t>
+          <t>/news,300382,1248153008.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>2039</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>斯莱克11月11日获深股通增持120.46万股</t>
+          <t>控股股东折价抛售5%股份 下调股权激励业绩考核指标 斯莱克怎么了？</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-12 07:54</t>
+          <t>11-17 22:48</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300382,1245987393.html</t>
+          <t>/news,300382,1248111014.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1529</t>
+          <t>802</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>加码新能源汽车电池壳项目 斯莱克：易拉罐和电池壳工艺有异曲同工处 公司具技术优势</t>
+          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：控股股东拟向晨道锦信转让5%股份，看好电池壳业务加速落地</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-11 15:00</t>
+          <t>11-17 10:56</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300382,1245833693.html</t>
+          <t>/news,300382,1247820995.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,29 +2707,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还68.91万元，融资余额9119.42万元（11-10）</t>
+          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-11 08:49</t>
+          <t>11-17 10:45</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300382,1245424379.html</t>
+          <t>/news,300382,1247807581.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>斯莱克11月10日被深股通减持2.42万股</t>
+          <t>斯莱克：连续3日融资净买入累计4749.52万元（11-16）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-11 07:49</t>
+          <t>11-17 08:48</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300382,1245412490.html</t>
+          <t>/news,300382,1247676677.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入488.67万元，融资余额9188.33万元（11-09）</t>
+          <t>斯莱克11月16日被深股通减持63.42万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-10 08:51</t>
+          <t>11-17 08:01</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300382,1244900382.html</t>
+          <t>/news,300382,1247669685.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>882</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>斯莱克11月09日被深股通减持9.95万股</t>
+          <t>斯莱克：控股股东拟5.81亿元向晨道锦信转让5%公司股份</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-16 21:18</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300382,1244892113.html</t>
+          <t>/news,300382,1247594293.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>679</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入674.73万元，融资余额8699.65万元（11-08）</t>
+          <t>斯莱克：控股股东拟协议转让公司5%股份</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-09 08:52</t>
+          <t>11-16 21:02</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300382,1244437165.html</t>
+          <t>/news,300382,1247589078.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>682</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>斯莱克11月08日获深股通增持2.68万股</t>
+          <t>斯莱克：控股股东科莱思拟协议转让3133万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-09 07:49</t>
+          <t>11-16 20:50</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300382,1244427946.html</t>
+          <t>/news,300382,1247591995.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>3032</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入996.71万元，融资余额8024.93万元（11-07）</t>
+          <t>斯莱克：控股股东拟5.81亿元转让5%股份</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-08 08:52</t>
+          <t>11-16 20:45</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300382,1243983604.html</t>
+          <t>/news,300382,1247583219.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>斯莱克11月07日被深股通减持33.94万股</t>
+          <t>斯莱克：融资净买入1028.39万元，融资余额1.16亿元（11-15）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-08 07:49</t>
+          <t>11-16 08:50</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300382,1243974416.html</t>
+          <t>/news,300382,1247184024.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入918.29万元，融资余额7028.21万元（11-04）</t>
+          <t>斯莱克11月15日被深股通减持25.26万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,44 +2973,44 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-07 08:58</t>
+          <t>11-16 07:59</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300382,1243515209.html</t>
+          <t>/news,300382,1247176952.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>939</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净买入1565.08万元，居专用设备板块第十八</t>
+          <t>斯莱克收关注函 要求说明临近期末调整当年业绩考核指标是否向特定对象输送利益</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-06 15:05</t>
+          <t>11-15 20:44</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300382,1243409921.html</t>
+          <t>/news,300382,1247110064.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300382.xlsx
+++ b/news_ann/news/tmp/300382.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还359.06万元，融资余额1.56亿元（12-19）</t>
+          <t>斯莱克：融资净偿还519.74万元，融资余额1.5亿元（12-22）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,61 +477,61 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-20 08:48</t>
+          <t>12-23 08:42</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300382,1261731762.html</t>
+          <t>/news,300382,1263198844.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>813</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>斯莱克12月19日获深股通增持6.35万股</t>
+          <t>多股获机构看好，目标涨幅最大77.11%(12-22)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>股友7355N61r66</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-20 07:47</t>
+          <t>12-23 08:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300382,1261723784.html</t>
+          <t>/news,300382,1263193525.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>81</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：拟10亿元新建宜宾电池结构件项目，完善新能源电池壳布局</t>
+          <t>斯莱克12月22日获深股通增持22.22万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-19 10:45</t>
+          <t>12-23 07:39</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300382,1261332274.html</t>
+          <t>/news,300382,1263190047.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
+          <t>东北证券上调斯莱克买入评级 预计2022年净利润同比增长76.87%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-19 10:29</t>
+          <t>12-22 14:54</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300382,1261309852.html</t>
+          <t>/news,300382,1262986945.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入279.4万元，融资余额1.6亿元（12-16）</t>
+          <t>斯莱克：融资净买入107.24万元，融资余额1.55亿元（12-21）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,51 +605,51 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-19 08:55</t>
+          <t>12-22 08:51</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300382,1261207940.html</t>
+          <t>/news,300382,1262679031.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>融资融券周汇总：斯莱克本周融资净偿还556.83万元</t>
+          <t>斯莱克12月21日被深股通减持6万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-18 15:16</t>
+          <t>12-22 07:31</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300382,1261088683.html</t>
+          <t>/news,300382,1262667828.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,39 +659,39 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>斯莱克本周深股通持股市值减少1992.96万元，居专用设备板块第四</t>
+          <t>斯莱克：融资净偿还245.65万元，融资余额1.54亿元（12-20）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-18 14:10</t>
+          <t>12-21 08:53</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300382,1261081430.html</t>
+          <t>/news,300382,1262204757.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6438</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>三度扩产！“壳玩家”持续加码电池壳体生产</t>
+          <t>斯莱克12月20日获深股通增持14.93万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-17 12:57</t>
+          <t>12-21 07:44</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300382,1260997929.html</t>
+          <t>/news,300382,1262197366.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2410</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>完善新能源电池壳业务产能布局 斯莱克拟10亿元投建精密结构件项目</t>
+          <t>斯莱克：融资净偿还359.06万元，融资余额1.56亿元（12-19）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-17 09:52</t>
+          <t>12-20 08:48</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300382,1260983290.html</t>
+          <t>/news,300382,1261731762.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>斯莱克12月16日被深股通减持73.78万股</t>
+          <t>斯莱克12月19日获深股通增持6.35万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-17 07:51</t>
+          <t>12-20 07:47</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300382,1260975841.html</t>
+          <t>/news,300382,1261723784.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>623</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>斯莱克：拟投资约10亿元建设电池壳体等产品生产线</t>
+          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：拟10亿元新建宜宾电池结构件项目，完善新能源电池壳布局</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-16 22:26</t>
+          <t>12-19 10:45</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300382,1260932097.html</t>
+          <t>/news,300382,1261332274.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,39 +819,39 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>斯莱克：拟10亿元投建精密结构件项目</t>
+          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-16 20:05</t>
+          <t>12-19 10:29</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300382,1260880697.html</t>
+          <t>/news,300382,1261309852.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>斯莱克：拟10亿元投建精密结构件项目 并签宜宾厂房定购项目合作协议</t>
+          <t>斯莱克：融资净买入279.4万元，融资余额1.6亿元（12-16）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-16 19:25</t>
+          <t>12-19 08:55</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300382,1260872310.html</t>
+          <t>/news,300382,1261207940.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,71 +883,71 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>斯莱克：拟10亿元投建精密结构件项目</t>
+          <t>融资融券周汇总：斯莱克本周融资净偿还556.83万元</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-16 19:12</t>
+          <t>12-18 15:16</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300382,1260865826.html</t>
+          <t>/news,300382,1261088683.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1687</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>斯莱克：拟10亿元投建苏州斯莱克精密结构件项目</t>
+          <t>斯莱克本周深股通持股市值减少1992.96万元，居专用设备板块第四</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-16 19:04</t>
+          <t>12-18 14:10</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300382,1260860842.html</t>
+          <t>/news,300382,1261081430.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>6544</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>注意！斯莱克将于2023年1月3日召开股东大会</t>
+          <t>三度扩产！“壳玩家”持续加码电池壳体生产</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-16 19:03</t>
+          <t>12-17 12:57</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300382,1260860184.html</t>
+          <t>/news,300382,1260997929.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>2484</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还547.62万元，融资余额1.57亿元（12-15）</t>
+          <t>完善新能源电池壳业务产能布局 斯莱克拟10亿元投建精密结构件项目</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-16 09:00</t>
+          <t>12-17 09:52</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300382,1260488027.html</t>
+          <t>/news,300382,1260983290.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>斯莱克12月15日获深股通增持57.74万股</t>
+          <t>斯莱克12月16日被深股通减持73.78万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-16 07:58</t>
+          <t>12-17 07:51</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300382,1260478732.html</t>
+          <t>/news,300382,1260975841.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>889</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还169.12万元，融资余额1.63亿元（12-14）</t>
+          <t>斯莱克：拟投资约10亿元建设电池壳体等产品生产线</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-15 08:55</t>
+          <t>12-16 22:26</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300382,1259943433.html</t>
+          <t>/news,300382,1260932097.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>530</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>斯莱克12月14日被深股通减持17.07万股</t>
+          <t>斯莱克：拟10亿元投建精密结构件项目</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-15 07:49</t>
+          <t>12-16 20:05</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300382,1259933309.html</t>
+          <t>/news,300382,1260880697.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入280.46万元，融资余额1.64亿元（12-13）</t>
+          <t>斯莱克：拟10亿元投建精密结构件项目 并签宜宾厂房定购项目合作协议</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-14 09:05</t>
+          <t>12-16 19:25</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300382,1259358065.html</t>
+          <t>/news,300382,1260872310.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>斯莱克12月13日被深股通减持34.41万股</t>
+          <t>斯莱克：拟10亿元投建精密结构件项目</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-14 07:44</t>
+          <t>12-16 19:12</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300382,1259345842.html</t>
+          <t>/news,300382,1260865826.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>1719</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还120.54万元，融资余额1.62亿元（12-12）</t>
+          <t>斯莱克：拟10亿元投建苏州斯莱克精密结构件项目</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-13 08:58</t>
+          <t>12-16 19:04</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300382,1258770644.html</t>
+          <t>/news,300382,1260860842.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>斯莱克12月12日被深股通减持35.16万股</t>
+          <t>注意！斯莱克将于2023年1月3日召开股东大会</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-13 07:50</t>
+          <t>12-16 19:03</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300382,1258761183.html</t>
+          <t>/news,300382,1260860184.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入796.52万元，融资余额1.63亿元（12-09）</t>
+          <t>斯莱克：融资净偿还547.62万元，融资余额1.57亿元（12-15）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,51 +1245,51 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-12 09:06</t>
+          <t>12-16 09:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300382,1258216785.html</t>
+          <t>/news,300382,1260488027.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净偿还431.34万元，居专用设备板块第十四</t>
+          <t>斯莱克12月15日获深股通增持57.74万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12-11 15:06</t>
+          <t>12-16 07:58</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300382,1258088726.html</t>
+          <t>/news,300382,1260478732.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,39 +1299,39 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>斯莱克本周被深股通减持53.19万股 最新持股量526.82万股</t>
+          <t>斯莱克：融资净偿还169.12万元，融资余额1.63亿元（12-14）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>12-11 14:05</t>
+          <t>12-15 08:55</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300382,1258081514.html</t>
+          <t>/news,300382,1259943433.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>斯莱克12月09日被深股通减持54.39万股</t>
+          <t>斯莱克12月14日被深股通减持17.07万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>12-10 07:52</t>
+          <t>12-15 07:49</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300382,1257965070.html</t>
+          <t>/news,300382,1259933309.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入161.01万元，融资余额1.55亿元（12-08）</t>
+          <t>斯莱克：融资净买入280.46万元，融资余额1.64亿元（12-13）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>12-09 09:10</t>
+          <t>12-14 09:05</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300382,1257407473.html</t>
+          <t>/news,300382,1259358065.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>斯莱克12月08日被深股通减持2.6万股</t>
+          <t>斯莱克12月13日被深股通减持34.41万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>12-09 07:50</t>
+          <t>12-14 07:44</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300382,1257393469.html</t>
+          <t>/news,300382,1259345842.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>斯莱克：连续3日融资净偿还累计592.34万元（12-07）</t>
+          <t>斯莱克：融资净偿还120.54万元，融资余额1.62亿元（12-12）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>12-08 08:47</t>
+          <t>12-13 08:58</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300382,1256765657.html</t>
+          <t>/news,300382,1258770644.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>斯莱克12月07日被深股通减持21.34万股</t>
+          <t>斯莱克12月12日被深股通减持35.16万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>12-08 07:54</t>
+          <t>12-13 07:50</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300382,1256756957.html</t>
+          <t>/news,300382,1258761183.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还577.03万元，融资余额1.53亿元（12-06）</t>
+          <t>斯莱克：融资净买入796.52万元，融资余额1.63亿元（12-09）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,51 +1501,51 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>12-07 09:06</t>
+          <t>12-12 09:06</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300382,1256102913.html</t>
+          <t>/news,300382,1258216785.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>斯莱克12月06日被深股通减持70.52万股</t>
+          <t>斯莱克本周融资净偿还431.34万元，居专用设备板块第十四</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>12-07 07:49</t>
+          <t>12-11 15:06</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300382,1256090991.html</t>
+          <t>/news,300382,1258088726.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,39 +1555,39 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还7.45万元，融资余额1.59亿元（12-05）</t>
+          <t>斯莱克本周被深股通减持53.19万股 最新持股量526.82万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>12-06 08:52</t>
+          <t>12-11 14:05</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300382,1255457862.html</t>
+          <t>/news,300382,1258081514.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>462</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>斯莱克12月05日获深股通增持95.67万股</t>
+          <t>斯莱克12月09日被深股通减持54.39万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>12-06 07:48</t>
+          <t>12-10 07:52</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300382,1255447699.html</t>
+          <t>/news,300382,1257965070.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>斯莱克：连续7日融资净买入累计1455.71万元（12-02）</t>
+          <t>斯莱克：融资净买入161.01万元，融资余额1.55亿元（12-08）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,51 +1629,51 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>12-05 09:01</t>
+          <t>12-09 09:10</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300382,1254804851.html</t>
+          <t>/news,300382,1257407473.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>融资融券周汇总：斯莱克本周融资净买入973.98万元</t>
+          <t>斯莱克12月08日被深股通减持2.6万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-09 07:50</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300382,1254650560.html</t>
+          <t>/news,300382,1257393469.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,39 +1683,39 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>斯莱克：本周深股通持股量环比增加11%，周内增仓幅度居专用设备板块第十</t>
+          <t>斯莱克：连续3日融资净偿还累计592.34万元（12-07）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>12-04 14:05</t>
+          <t>12-08 08:47</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300382,1254642960.html</t>
+          <t>/news,300382,1256765657.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>斯莱克12月02日获深股通增持38.76万股</t>
+          <t>斯莱克12月07日被深股通减持21.34万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>12-03 07:50</t>
+          <t>12-08 07:54</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300382,1254512140.html</t>
+          <t>/news,300382,1256756957.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>斯莱克：连续6日融资净买入累计1339.75万元（12-01）</t>
+          <t>斯莱克：融资净偿还577.03万元，融资余额1.53亿元（12-06）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>12-02 08:51</t>
+          <t>12-07 09:06</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300382,1253921021.html</t>
+          <t>/news,300382,1256102913.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>斯莱克12月01日获深股通增持46.48万股</t>
+          <t>斯莱克12月06日被深股通减持70.52万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>12-02 07:48</t>
+          <t>12-07 07:49</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300382,1253912696.html</t>
+          <t>/news,300382,1256090991.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>斯莱克：连续5日融资净买入累计1205.59万元（11-30）</t>
+          <t>斯莱克：融资净偿还7.45万元，融资余额1.59亿元（12-05）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>12-01 08:54</t>
+          <t>12-06 08:52</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300382,1253311436.html</t>
+          <t>/news,300382,1255457862.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>斯莱克11月30日获深股通增持33.54万股</t>
+          <t>斯莱克12月05日获深股通增持95.67万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>12-01 07:50</t>
+          <t>12-06 07:48</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300382,1253301638.html</t>
+          <t>/news,300382,1255447699.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>斯莱克：连续4日融资净买入累计636.44万元（11-29）</t>
+          <t>斯莱克：连续7日融资净买入累计1455.71万元（12-02）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-30 08:48</t>
+          <t>12-05 09:01</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300382,1252786102.html</t>
+          <t>/news,300382,1254804851.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,71 +1907,71 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>斯莱克11月29日被深股通减持17.6万股</t>
+          <t>融资融券周汇总：斯莱克本周融资净买入973.98万元</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-30 07:49</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300382,1252778282.html</t>
+          <t>/news,300382,1254650560.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1344</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>斯莱克：增加投资的产线投产后 将在原有基础上增加约1.2亿只方形电池壳的产能</t>
+          <t>斯莱克：本周深股通持股量环比增加11%，周内增仓幅度居专用设备板块第十</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-29 16:44</t>
+          <t>12-04 14:05</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300382,1252581561.html</t>
+          <t>/news,300382,1254642960.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>574</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>斯莱克：连续3日融资净买入累计370.1万元（11-28）</t>
+          <t>斯莱克12月02日获深股通增持38.76万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-29 08:52</t>
+          <t>12-03 07:50</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300382,1252223239.html</t>
+          <t>/news,300382,1254512140.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>斯莱克11月28日被深股通减持45.76万股</t>
+          <t>斯莱克：连续6日融资净买入累计1339.75万元（12-01）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-29 07:57</t>
+          <t>12-02 08:51</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300382,1252214588.html</t>
+          <t>/news,300382,1253921021.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入200.71万元，融资余额1.48亿元（11-25）</t>
+          <t>斯莱克12月01日获深股通增持46.48万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-28 08:46</t>
+          <t>12-02 07:48</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300382,1251734093.html</t>
+          <t>/news,300382,1253912696.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,61 +2067,61 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>融资融券周汇总：斯莱克本周融资净买入154.34万元</t>
+          <t>斯莱克：连续5日融资净买入累计1205.59万元（11-30）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-27 15:06</t>
+          <t>12-01 08:54</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300382,1251589824.html</t>
+          <t>/news,300382,1253311436.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>斯莱克：本周深股通持股量环比增加3%，周内增仓幅度居专用设备板块第九</t>
+          <t>斯莱克11月30日获深股通增持33.54万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-27 14:06</t>
+          <t>12-01 07:50</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300382,1251584278.html</t>
+          <t>/news,300382,1253301638.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>斯莱克11月25日被深股通减持23.52万股</t>
+          <t>斯莱克：连续4日融资净买入累计636.44万元（11-29）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-26 07:53</t>
+          <t>11-30 08:48</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300382,1251434360.html</t>
+          <t>/news,300382,1252786102.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入165.07万元，融资余额1.46亿元（11-24）</t>
+          <t>斯莱克11月29日被深股通减持17.6万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-25 08:50</t>
+          <t>11-30 07:49</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300382,1250951153.html</t>
+          <t>/news,300382,1252778282.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>1356</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>斯莱克11月24日获深股通增持3.74万股</t>
+          <t>斯莱克：增加投资的产线投产后 将在原有基础上增加约1.2亿只方形电池壳的产能</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-25 07:53</t>
+          <t>11-29 16:44</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300382,1250943768.html</t>
+          <t>/news,300382,1252581561.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还239.73万元，融资余额1.45亿元（11-23）</t>
+          <t>斯莱克：连续3日融资净买入累计370.1万元（11-28）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-24 08:56</t>
+          <t>11-29 08:52</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300382,1250430566.html</t>
+          <t>/news,300382,1252223239.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>斯莱克11月23日被深股通减持20.59万股</t>
+          <t>斯莱克11月28日被深股通减持45.76万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-24 07:50</t>
+          <t>11-29 07:57</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300382,1250420176.html</t>
+          <t>/news,300382,1252214588.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入37.78万元，融资余额1.47亿元（11-22）</t>
+          <t>斯莱克：融资净买入200.71万元，融资余额1.48亿元（11-25）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,51 +2301,51 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-23 08:55</t>
+          <t>11-28 08:46</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300382,1249885355.html</t>
+          <t>/news,300382,1251734093.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>斯莱克11月22日被深股通减持29.54万股</t>
+          <t>融资融券周汇总：斯莱克本周融资净买入154.34万元</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-23 07:48</t>
+          <t>11-27 15:06</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300382,1249875173.html</t>
+          <t>/news,300382,1251589824.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,29 +2355,29 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入191.22万元，融资余额1.47亿元（11-21）</t>
+          <t>斯莱克：本周深股通持股量环比增加3%，周内增仓幅度居专用设备板块第九</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-22 08:51</t>
+          <t>11-27 14:06</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300382,1249356633.html</t>
+          <t>/news,300382,1251584278.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>斯莱克11月21日获深股通增持76.7万股</t>
+          <t>斯莱克11月25日被深股通减持23.52万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-22 07:58</t>
+          <t>11-26 07:53</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300382,1249349790.html</t>
+          <t>/news,300382,1251434360.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>注意！斯莱克将于12月7日召开股东大会</t>
+          <t>斯莱克：融资净买入165.07万元，融资余额1.46亿元（11-24）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-21 18:20</t>
+          <t>11-25 08:50</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300382,1249216961.html</t>
+          <t>/news,300382,1250951153.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>斯莱克：融资净偿还668.7万元，融资余额1.45亿元（11-18）</t>
+          <t>斯莱克11月24日获深股通增持3.74万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,83 +2461,83 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-21 08:48</t>
+          <t>11-25 07:53</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300382,1248872007.html</t>
+          <t>/news,300382,1250943768.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>斯莱克本周融资净买入6124.72万元，居专用设备板块第二</t>
+          <t>斯莱克：融资净偿还239.73万元，融资余额1.45亿元（11-23）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-20 15:07</t>
+          <t>11-24 08:56</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300382,1248769569.html</t>
+          <t>/news,300382,1250430566.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>斯莱克：本周深股通持股量环比减少1%，周内减仓幅度居专用设备板块第十</t>
+          <t>斯莱克11月23日被深股通减持20.59万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-24 07:50</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300382,1248763223.html</t>
+          <t>/news,300382,1250420176.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>斯莱克11月18日获深股通增持50.5万股</t>
+          <t>斯莱克：融资净买入37.78万元，融资余额1.47亿元（11-22）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-19 07:54</t>
+          <t>11-23 08:55</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300382,1248638940.html</t>
+          <t>/news,300382,1249885355.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>斯莱克：连续4日融资净买入累计6124.72万元（11-17）</t>
+          <t>斯莱克11月22日被深股通减持29.54万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-18 08:43</t>
+          <t>11-23 07:48</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300382,1248161350.html</t>
+          <t>/news,300382,1249875173.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>斯莱克11月17日被深股通减持24.25万股</t>
+          <t>斯莱克：融资净买入191.22万元，融资余额1.47亿元（11-21）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-18 07:49</t>
+          <t>11-22 08:51</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300382,1248153008.html</t>
+          <t>/news,300382,1249356633.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2039</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>控股股东折价抛售5%股份 下调股权激励业绩考核指标 斯莱克怎么了？</t>
+          <t>斯莱克11月21日获深股通增持76.7万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-17 22:48</t>
+          <t>11-22 07:58</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300382,1248111014.html</t>
+          <t>/news,300382,1249349790.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>802</t>
+          <t>469</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：控股股东拟向晨道锦信转让5%股份，看好电池壳业务加速落地</t>
+          <t>注意！斯莱克将于12月7日召开股东大会</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-17 10:56</t>
+          <t>11-21 18:20</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300382,1247820995.html</t>
+          <t>/news,300382,1249216961.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,29 +2707,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
+          <t>斯莱克：融资净偿还668.7万元，融资余额1.45亿元（11-18）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>斯莱克资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-17 10:45</t>
+          <t>11-21 08:48</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300382,1247807581.html</t>
+          <t>/news,300382,1248872007.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,29 +2739,29 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>斯莱克：连续3日融资净买入累计4749.52万元（11-16）</t>
+          <t>斯莱克本周融资净买入6124.72万元，居专用设备板块第二</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-17 08:48</t>
+          <t>11-20 15:07</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300382,1247676677.html</t>
+          <t>/news,300382,1248769569.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,29 +2771,29 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>斯莱克11月16日被深股通减持63.42万股</t>
+          <t>斯莱克：本周深股通持股量环比减少1%，周内减仓幅度居专用设备板块第十</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-17 08:01</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300382,1247669685.html</t>
+          <t>/news,300382,1248763223.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>882</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东拟5.81亿元向晨道锦信转让5%公司股份</t>
+          <t>斯莱克11月18日获深股通增持50.5万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-16 21:18</t>
+          <t>11-19 07:54</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300382,1247594293.html</t>
+          <t>/news,300382,1248638940.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东拟协议转让公司5%股份</t>
+          <t>斯莱克：连续4日融资净买入累计6124.72万元（11-17）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-16 21:02</t>
+          <t>11-18 08:43</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300382,1247589078.html</t>
+          <t>/news,300382,1248161350.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东科莱思拟协议转让3133万股</t>
+          <t>斯莱克11月17日被深股通减持24.25万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-16 20:50</t>
+          <t>11-18 07:49</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300382,1247591995.html</t>
+          <t>/news,300382,1248153008.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>3032</t>
+          <t>2047</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>斯莱克：控股股东拟5.81亿元转让5%股份</t>
+          <t>控股股东折价抛售5%股份 下调股权激励业绩考核指标 斯莱克怎么了？</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-16 20:45</t>
+          <t>11-17 22:48</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300382,1247583219.html</t>
+          <t>/news,300382,1248111014.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>804</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>斯莱克：融资净买入1028.39万元，融资余额1.16亿元（11-15）</t>
+          <t>浙商证券给予斯莱克买入评级，斯莱克点评报告：控股股东拟向晨道锦信转让5%股份，看好电池壳业务加速落地</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,61 +2941,61 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-16 08:50</t>
+          <t>11-17 10:56</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300382,1247184024.html</t>
+          <t>/news,300382,1247820995.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>斯莱克11月15日被深股通减持25.26万股</t>
+          <t>浙商证券维持斯莱克买入评级 预计2022年净利润同比增长110.38%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>斯莱克资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-16 07:59</t>
+          <t>11-17 10:45</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300382,1247176952.html</t>
+          <t>/news,300382,1247807581.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>939</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>斯莱克收关注函 要求说明临近期末调整当年业绩考核指标是否向特定对象输送利益</t>
+          <t>斯莱克：连续3日融资净买入累计4749.52万元（11-16）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-15 20:44</t>
+          <t>11-17 08:48</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300382,1247110064.html</t>
+          <t>/news,300382,1247676677.html</t>
         </is>
       </c>
     </row>
